--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="others" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$61</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$294</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$104</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1356">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5277,6 +5277,760 @@
   </si>
   <si>
     <t>1.2.8.2 &amp; 6.1.11.4</t>
+  </si>
+  <si>
+    <t>2.5.4.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>| tu | vai |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dar.SapUrNamAsau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tu | vai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | yajEta |</t>
+    </r>
+  </si>
+  <si>
+    <t>2.6.6.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">| tu | vai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>| agnim |</t>
+    </r>
+  </si>
+  <si>
+    <t>5.2.5.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>i darSapUrNamAsau</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tvai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yajEta </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> agni-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">manuShyAya | it | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nu | vai |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> yaH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">manuShyAyEn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nvai</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5.9.6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nu | vA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | upastIrNam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> upastIrNam</t>
+    </r>
+  </si>
+  <si>
+    <t>1.6.7.3</t>
+  </si>
+  <si>
+    <r>
+      <t>| s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">H | vAjI | </t>
+    </r>
+  </si>
+  <si>
+    <t>1.7.8.3</t>
+  </si>
+  <si>
+    <r>
+      <t>sy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> vAjI (not becoming "syo vAji)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saH | it | u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | hOtA | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sEd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u hOtA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saH | it | agnE |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> astu |  </t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.14.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sEda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gnE astu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>saH | imAm |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> naH | havyadAtim</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.6.6 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sEmA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M nO havyadAtiM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vi#ShTa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yaq itiq </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - iqShTaqyeq | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AH |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nAH </t>
+    </r>
+  </si>
+  <si>
+    <t>1.6.7.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sauSh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>adhIr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>OSh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>adhIH |</t>
+    </r>
+  </si>
+  <si>
+    <t>4.2.3.3 / 4.2.11.3</t>
+  </si>
+  <si>
+    <t>for (gm) or (gg)</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <r>
+      <t>karNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>karNA(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gg)S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cA</t>
+    </r>
+  </si>
+  <si>
+    <t>airayan candramasi</t>
+  </si>
+  <si>
+    <t>c" after "n"</t>
+  </si>
+  <si>
+    <r>
+      <t>Ardhnuva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | CandO</t>
+    </r>
+  </si>
+  <si>
+    <t>airayan | candramasi |</t>
+  </si>
+  <si>
+    <r>
+      <t>GRuNIvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Etati | </t>
+    </r>
+  </si>
+  <si>
+    <t>vAruNAn | catuShkapAlAn</t>
+  </si>
+  <si>
+    <r>
+      <t>GRuNIvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Etati </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vAruNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n ca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tuShkapAlAn</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">eva | asminn | cakShuH | </t>
+  </si>
+  <si>
+    <t>2.3.8.1</t>
+  </si>
+  <si>
+    <t>tayaivAsmin cakShur</t>
   </si>
 </sst>
 </file>
@@ -5701,7 +6455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5959,6 +6713,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6242,7 +7000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N210"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -12682,13 +13440,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M51"/>
+  <dimension ref="A2:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12698,11 +13456,11 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
@@ -12800,7 +13558,7 @@
       <c r="H9" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="79" t="s">
         <v>1271</v>
       </c>
       <c r="L9" s="29" t="s">
@@ -12929,13 +13687,13 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="C17" s="125"/>
       <c r="K17" s="79"/>
       <c r="M17" s="63"/>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -12964,12 +13722,12 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="C19" s="47"/>
       <c r="K19" s="79"/>
     </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -12998,12 +13756,12 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="K21" s="63"/>
       <c r="M21" s="123"/>
     </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5.1100000000000003</v>
       </c>
@@ -13011,7 +13769,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5.12</v>
       </c>
@@ -13025,7 +13783,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5.13</v>
       </c>
@@ -13044,319 +13802,509 @@
       <c r="I24" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="K24" s="85" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L24" s="124" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K25" s="79" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L25" s="124" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K26" s="79" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L26" s="124" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M26" s="63" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="124"/>
+    </row>
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>5.13</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>5.14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>888</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>888</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="K28" s="79" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L28" s="124" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M28" s="80" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K29" s="79" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L29" s="124" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M29" s="86" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K30" s="79"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="80"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>5.14</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>5.15</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>5.16</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>5.17</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>5.17</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="D33" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L34" s="80" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M34" s="124" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>5.16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L36" s="80" t="s">
+        <v>927</v>
+      </c>
+      <c r="M36" s="124" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M37" s="124" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="K38" s="79" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L38" s="63" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M38" s="124" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>5.17</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="K39" s="79" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L39" s="86" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M39" s="124" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>5.17</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="K40" s="79" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L40" s="79" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M40" s="124" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>5.18</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>5.19</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
         <v>5.2</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="H45" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C46" s="79" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D46" s="124" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="124"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+    </row>
+    <row r="48" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="128"/>
+      <c r="C48" s="129" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>5.21</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F49" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K50" s="79" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M50" s="29" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K51" s="79" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K53" s="79" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M53" s="124" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K54" s="63" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M54" s="124" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K55" s="63" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L55" s="63" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M55" s="123" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>5.24</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G56" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="50" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="51" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+      <c r="M56" s="124"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:J51"/>
+  <autoFilter ref="A2:J61"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -13367,10 +14315,10 @@
   <dimension ref="A2:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14427,7 +15375,7 @@
   <dimension ref="A3:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
@@ -15968,7 +16916,7 @@
   <dimension ref="A2:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
@@ -18820,7 +19768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -19237,7 +20185,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19299,7 +20247,12 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="126"/>
+      <c r="B12" s="126" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C12" t="s">
+        <v>947</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -23,7 +23,7 @@
     <sheet name="others" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$294</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$104</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1407">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5923,9 +5923,6 @@
     <t>airayan candramasi</t>
   </si>
   <si>
-    <t>c" after "n"</t>
-  </si>
-  <si>
     <r>
       <t>Ardhnuva</t>
     </r>
@@ -6031,6 +6028,670 @@
   </si>
   <si>
     <t>tayaivAsmin cakShur</t>
+  </si>
+  <si>
+    <t>A t, when followed by ś, c, or ch, becmes c. </t>
+  </si>
+  <si>
+    <t>last letter "t"</t>
+  </si>
+  <si>
+    <r>
+      <t>rAsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>urudhaH |</t>
+    </r>
+  </si>
+  <si>
+    <t>changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t>1.1.14.2</t>
+  </si>
+  <si>
+    <r>
+      <t>rAsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>urudha</t>
+    </r>
+  </si>
+  <si>
+    <t>becomes "cC"</t>
+  </si>
+  <si>
+    <r>
+      <t>ta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">akEyam | </t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.1.2</t>
+  </si>
+  <si>
+    <r>
+      <t>ta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>akEyam</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dadhat | SyEnaH | </t>
+  </si>
+  <si>
+    <t>1.2.9.1</t>
+  </si>
+  <si>
+    <r>
+      <t>daGa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hyEnO</t>
+    </r>
+  </si>
+  <si>
+    <t>c or C</t>
+  </si>
+  <si>
+    <t>becomes "c"</t>
+  </si>
+  <si>
+    <r>
+      <t>sUdaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">t | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ca </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14.6 </t>
+  </si>
+  <si>
+    <r>
+      <t>sUdaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ca </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lOkA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yavatE |</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5.8.3</t>
+  </si>
+  <si>
+    <r>
+      <t>lOkA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yavatE |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andOBir</t>
+    </r>
+  </si>
+  <si>
+    <t>1.5.9.7</t>
+  </si>
+  <si>
+    <r>
+      <t>ya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andOBir</t>
+    </r>
+  </si>
+  <si>
+    <t>lOkAt | CidyatE</t>
+  </si>
+  <si>
+    <t>2.2.5.4</t>
+  </si>
+  <si>
+    <r>
+      <t>lOkA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CidyatE</t>
+    </r>
+  </si>
+  <si>
+    <t>"c" after "n"</t>
+  </si>
+  <si>
+    <t>3.2.9.5</t>
+  </si>
+  <si>
+    <r>
+      <t>vEvIra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O(gm)sA |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vEvIra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~jC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>O(gm)sA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.4.3 </t>
+  </si>
+  <si>
+    <r>
+      <t>avinda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">iSriyANam | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vavinda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~jC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>iSriyANaM</t>
+    </r>
+  </si>
+  <si>
+    <t>4.7.12.3</t>
+  </si>
+  <si>
+    <r>
+      <t>duvasvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~jC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aMBUr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>duvasvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>aMBUr</t>
+    </r>
+  </si>
+  <si>
+    <t>last letter "n"</t>
+  </si>
+  <si>
+    <t>becomes "~jC"</t>
+  </si>
+  <si>
+    <t>1.5.9.5</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <t>akrAma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">andA(gm)si | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>akrAma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~jC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">andA(gm)si | </t>
+    </r>
+  </si>
+  <si>
+    <t>A n, before "S" , "c",  "C" ,  "j" becomes ñ [(where "n" is not changed to (gm) or (gg)}</t>
+  </si>
+  <si>
+    <t>4.3.12.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRujvA~jCandaH | </t>
+  </si>
+  <si>
+    <r>
+      <t>BRujvA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">andaH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SatrU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ayatu | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SatrU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>jayatu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hOmA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">uhuyAt | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hOmA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">uhuyAt | </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6455,7 +7116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6715,8 +7376,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13440,13 +14105,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N61"/>
+  <dimension ref="A2:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13457,7 +14122,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -14136,8 +14801,8 @@
     </row>
     <row r="48" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="128"/>
-      <c r="C48" s="129" t="s">
-        <v>1346</v>
+      <c r="C48" s="130" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14177,7 +14842,7 @@
         <v>1007</v>
       </c>
       <c r="K50" s="79" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="M50" s="29" t="s">
         <v>1345</v>
@@ -14200,7 +14865,7 @@
         <v>1013</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14231,13 +14896,13 @@
         <v>1014</v>
       </c>
       <c r="K53" s="79" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="M53" s="124" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14254,13 +14919,13 @@
         <v>1016</v>
       </c>
       <c r="K54" s="63" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="M54" s="124" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14274,13 +14939,13 @@
         <v>342</v>
       </c>
       <c r="K55" s="63" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L55" s="63" t="s">
         <v>1353</v>
       </c>
-      <c r="L55" s="63" t="s">
+      <c r="M55" s="123" t="s">
         <v>1354</v>
-      </c>
-      <c r="M55" s="123" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14298,13 +14963,249 @@
       </c>
       <c r="M56" s="124"/>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C57" s="131" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="M57" s="124"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C58" s="93" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F58" s="93" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G58" s="93" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K58" s="79" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L58" s="63" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M58" s="124" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K59" s="79" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L59" s="63" t="s">
+        <v>1387</v>
+      </c>
+      <c r="M59" s="124" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K60" s="79" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L60" s="63" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M60" s="124" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K61" s="79"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="124"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C62" s="93" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F62" s="93" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G62" s="93" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K62" s="79" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L62" s="80" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M62" s="79" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="K63" s="79" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L63" s="63" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M63" s="79" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="124"/>
+    </row>
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="K65" s="79" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L65" s="63" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M65" s="124" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K66" s="79" t="s">
+        <v>1405</v>
+      </c>
+      <c r="L66" s="80" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M66" s="79" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="C67" s="129" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F68" s="93" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G68" s="93" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K68" s="79" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L68" s="80" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M68" s="124" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K69" s="85" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L69" s="80" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M69" s="124" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K70" s="63" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L70" s="80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M70" s="124" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C73" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="93" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G73" s="93" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K73" s="79" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L73" s="80" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M73" s="79" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K74" s="79" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L74" s="80" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M74" s="79" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K75" s="79" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L75" s="80" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M75" s="79" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K76" s="63" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L76" s="63" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M76" s="124" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="C78" s="129"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J61"/>
+  <autoFilter ref="A2:J70"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="others" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$294</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vowel Elongation'!$A$11:$N$205</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1436">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -5920,9 +5920,6 @@
     </r>
   </si>
   <si>
-    <t>airayan candramasi</t>
-  </si>
-  <si>
     <r>
       <t>Ardhnuva</t>
     </r>
@@ -5946,9 +5943,6 @@
     </r>
   </si>
   <si>
-    <t>airayan | candramasi |</t>
-  </si>
-  <si>
     <r>
       <t>GRuNIvA</t>
     </r>
@@ -5972,9 +5966,6 @@
     </r>
   </si>
   <si>
-    <t>vAruNAn | catuShkapAlAn</t>
-  </si>
-  <si>
     <r>
       <t>GRuNIvA</t>
     </r>
@@ -6021,13 +6012,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">eva | asminn | cakShuH | </t>
-  </si>
-  <si>
     <t>2.3.8.1</t>
-  </si>
-  <si>
-    <t>tayaivAsmin cakShur</t>
   </si>
   <si>
     <t>A t, when followed by ś, c, or ch, becmes c. </t>
@@ -6143,9 +6128,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">dadhat | SyEnaH | </t>
-  </si>
-  <si>
     <t>1.2.9.1</t>
   </si>
   <si>
@@ -6325,9 +6307,6 @@
     </r>
   </si>
   <si>
-    <t>lOkAt | CidyatE</t>
-  </si>
-  <si>
     <t>2.2.5.4</t>
   </si>
   <si>
@@ -6562,9 +6541,6 @@
     </r>
   </si>
   <si>
-    <t>A n, before "S" , "c",  "C" ,  "j" becomes ñ [(where "n" is not changed to (gm) or (gg)}</t>
-  </si>
-  <si>
     <t>4.3.12.3</t>
   </si>
   <si>
@@ -6692,13 +6668,486 @@
       </rPr>
       <t xml:space="preserve">uhuyAt | </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>lOkA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>idyatE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dadha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t | S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yEnaH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>airaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andramasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tayaivAsm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>akShur</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vAruNA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>atuShkapAlAn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>eva | asmi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">akShuH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>airaya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n | c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>andramasi |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> "n" before "S" , "c",  "C" ,  "j" becomes ñ [(where "n" is not changed to (gm) or (gg)]</t>
+  </si>
+  <si>
+    <r>
+      <t>uta svAnAsO divi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>an</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>svAnAsaH | divi | s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">antu | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ApaH | hi | s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tha | </t>
+    </r>
+  </si>
+  <si>
+    <t>ApaH | hi | stha</t>
+  </si>
+  <si>
+    <t>4.1.5.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ApO hi Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ThA </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ayamu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ya</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ayam | u |s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yaH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kam | u | s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vit |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kamu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vi</t>
+    </r>
+  </si>
+  <si>
+    <t>u | sviti | naH |</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">U Shu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+  </si>
+  <si>
+    <t>mahImU Shu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mahIm | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u | sv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">iti </t>
+    </r>
+  </si>
+  <si>
+    <t>3.5.10.1&amp; 4.1.4.2 &amp; 5.1.5.3</t>
+  </si>
+  <si>
+    <t>mO iti | sviti | naH |</t>
+  </si>
+  <si>
+    <t>1.8.3.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>mO ShU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Na </t>
+    </r>
+  </si>
+  <si>
+    <t>prO iti | sviti |</t>
+  </si>
+  <si>
+    <t>1.7.13.5</t>
+  </si>
+  <si>
+    <t>prOShva</t>
+  </si>
+  <si>
+    <r>
+      <t>strI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(gm)sAdamiti strI - sa(gm)sAdam | </t>
+    </r>
+  </si>
+  <si>
+    <t>2.5.1.5</t>
+  </si>
+  <si>
+    <t>mahi | sat |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahi Shad </t>
+  </si>
+  <si>
+    <t>dyavi | stha |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dyaviShTha </t>
+  </si>
+  <si>
+    <t>padi | sitAm |</t>
+  </si>
+  <si>
+    <t>padiShitA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6892,6 +7341,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -7116,7 +7573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7382,6 +7839,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14107,11 +14573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14123,7 +14589,10 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -14760,18 +15229,24 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G44" s="132" t="s">
+        <v>406</v>
+      </c>
+    </row>
     <row r="45" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
         <v>5.2</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="133" t="s">
         <v>343</v>
       </c>
       <c r="H45" s="4" t="s">
@@ -14802,7 +15277,7 @@
     <row r="48" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="128"/>
       <c r="C48" s="130" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14818,7 +15293,7 @@
       <c r="F49" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="93" t="s">
         <v>1008</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -14842,10 +15317,10 @@
         <v>1007</v>
       </c>
       <c r="K50" s="79" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>1345</v>
+        <v>1405</v>
+      </c>
+      <c r="M50" s="124" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14865,7 +15340,7 @@
         <v>1013</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14896,13 +15371,13 @@
         <v>1014</v>
       </c>
       <c r="K53" s="79" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>1014</v>
       </c>
       <c r="M53" s="124" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14918,14 +15393,14 @@
       <c r="I54" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="K54" s="63" t="s">
-        <v>1349</v>
+      <c r="K54" s="79" t="s">
+        <v>1403</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>1016</v>
       </c>
       <c r="M54" s="124" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14938,274 +15413,279 @@
       <c r="F55" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="K55" s="63" t="s">
-        <v>1352</v>
+      <c r="K55" s="79" t="s">
+        <v>1404</v>
       </c>
       <c r="L55" s="63" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M55" s="123" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="123"/>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>5.24</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="M57" s="124"/>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C58" s="131" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="M58" s="124"/>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="M55" s="123" t="s">
+      <c r="F59" s="93" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>5.24</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="M56" s="124"/>
-    </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C57" s="131" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="M57" s="124"/>
-    </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C58" s="93" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F58" s="93" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G58" s="93" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K58" s="79" t="s">
-        <v>1385</v>
-      </c>
-      <c r="L58" s="63" t="s">
-        <v>1384</v>
-      </c>
-      <c r="M58" s="124" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G59" s="93" t="s">
+        <v>1387</v>
+      </c>
       <c r="K59" s="79" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="L59" s="63" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="M59" s="124" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K60" s="79" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="L60" s="63" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M60" s="124" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K61" s="79" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L61" s="63" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M61" s="124" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K62" s="79"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="124"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C63" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F63" s="93" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G63" s="93" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K63" s="79" t="s">
         <v>1390</v>
       </c>
-      <c r="M60" s="124" t="s">
+      <c r="L63" s="80" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M63" s="79" t="s">
         <v>1391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K61" s="79"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="124"/>
-    </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C62" s="93" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>1358</v>
-      </c>
-      <c r="F62" s="93" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G62" s="93" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K62" s="79" t="s">
-        <v>1397</v>
-      </c>
-      <c r="L62" s="80" t="s">
-        <v>1395</v>
-      </c>
-      <c r="M62" s="79" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C63" s="93"/>
-      <c r="F63" s="93"/>
-      <c r="G63" s="93"/>
-      <c r="K63" s="79" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L63" s="63" t="s">
-        <v>1400</v>
-      </c>
-      <c r="M63" s="79" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C64" s="93"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="124"/>
+      <c r="K64" s="79" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L64" s="63" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M64" s="79" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C65" s="93"/>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
-      <c r="K65" s="79" t="s">
-        <v>1403</v>
-      </c>
-      <c r="L65" s="63" t="s">
+      <c r="K65" s="79"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="124"/>
+    </row>
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="K66" s="79" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L66" s="63" t="s">
         <v>1107</v>
       </c>
-      <c r="M65" s="124" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K66" s="79" t="s">
-        <v>1405</v>
-      </c>
-      <c r="L66" s="80" t="s">
+      <c r="M66" s="124" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K67" s="79" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L67" s="80" t="s">
         <v>1012</v>
       </c>
-      <c r="M66" s="79" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
+      <c r="M67" s="79" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
         <v>5.24</v>
       </c>
-      <c r="C67" s="129" t="s">
+      <c r="C68" s="129" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F69" s="93" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G69" s="93" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K69" s="79" t="s">
+        <v>1352</v>
+      </c>
+      <c r="L69" s="80" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C68" s="4" t="s">
+      <c r="M69" s="124" t="s">
         <v>1356</v>
       </c>
-      <c r="D68" s="4" t="s">
+    </row>
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K70" s="85" t="s">
         <v>1358</v>
       </c>
-      <c r="F68" s="93" t="s">
+      <c r="L70" s="80" t="s">
         <v>1359</v>
       </c>
-      <c r="G68" s="93" t="s">
+      <c r="M70" s="124" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K71" s="79" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L71" s="80" t="s">
+        <v>1361</v>
+      </c>
+      <c r="M71" s="124" t="s">
         <v>1362</v>
-      </c>
-      <c r="K68" s="79" t="s">
-        <v>1357</v>
-      </c>
-      <c r="L68" s="80" t="s">
-        <v>1360</v>
-      </c>
-      <c r="M68" s="124" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="K69" s="85" t="s">
-        <v>1363</v>
-      </c>
-      <c r="L69" s="80" t="s">
-        <v>1364</v>
-      </c>
-      <c r="M69" s="124" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K70" s="63" t="s">
-        <v>1366</v>
-      </c>
-      <c r="L70" s="80" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M70" s="124" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="93" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="G73" s="93" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="K73" s="79" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="L73" s="80" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="M73" s="79" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K74" s="79" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="L74" s="80" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="M74" s="79" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K75" s="79" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="L75" s="80" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="M75" s="79" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K76" s="63" t="s">
-        <v>1380</v>
+      <c r="K76" s="79" t="s">
+        <v>1399</v>
       </c>
       <c r="L76" s="63" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="M76" s="124" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="C78" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J70"/>
+  <autoFilter ref="A2:J71"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -15213,13 +15693,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q104"/>
+  <dimension ref="A2:Q110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15228,19 +15708,20 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="B3" s="122" t="s">
         <v>1270</v>
       </c>
@@ -15250,7 +15731,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -15268,7 +15749,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -15284,24 +15765,21 @@
       <c r="I6" s="4" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
+      <c r="J6" s="79" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K6" s="124" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="124"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>349</v>
@@ -15309,38 +15787,33 @@
       <c r="F8" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="I8" s="63" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K8" s="124" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>400</v>
+        <v>1018</v>
+      </c>
+      <c r="J9" s="63" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K9" s="124" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J10" s="79"/>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="93" t="s">
+        <v>398</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>349</v>
@@ -15348,10 +15821,19 @@
       <c r="F11" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K11" s="124" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>349</v>
@@ -15359,21 +15841,23 @@
       <c r="F12" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K12" s="124" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="J13" s="79"/>
+      <c r="K13" s="124"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="101.25" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>1020</v>
+        <v>600</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>349</v>
@@ -15381,175 +15865,191 @@
       <c r="F14" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="116" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K14" s="124" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I15" s="63"/>
+      <c r="J15" s="79" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="124"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K17" s="124" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="J20" s="79" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+      <c r="J21" s="63" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="J22" s="63" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>6.3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>6.4</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C28" s="25" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H27" s="126" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>6.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>405</v>
@@ -15558,12 +16058,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>6.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>405</v>
@@ -15572,12 +16075,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>6.5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>405</v>
@@ -15586,12 +16089,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>405</v>
@@ -15599,13 +16102,19 @@
       <c r="F33" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J33" s="126" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>420</v>
+      <c r="C34" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>405</v>
@@ -15614,12 +16123,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>6.5</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>405</v>
@@ -15628,12 +16137,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>405</v>
@@ -15642,12 +16151,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>6.5</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>405</v>
@@ -15656,232 +16165,268 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>6.13</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
+    <row r="47" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
+    <row r="48" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+    <row r="50" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+    <row r="51" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+    <row r="52" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+    <row r="53" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C53" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="28">
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="28">
         <v>6.6</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28" t="s">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>6.7</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C56" s="4" t="s">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+    <row r="63" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C60" s="4" t="s">
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C61" s="4" t="s">
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
+    <row r="68" spans="1:7" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>6.8</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>885</v>
-      </c>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
-        <v>6.1</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C69" s="4" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>6.11</v>
+        <v>6.8</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>6.12</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C73" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
+        <v>6.9</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="27">
+        <v>6.1</v>
+      </c>
       <c r="C74" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>1025</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C75" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>1025</v>
-      </c>
     </row>
     <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>6.11</v>
+      </c>
       <c r="C76" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C77" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
+        <v>437</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>6.12</v>
+      </c>
       <c r="C78" s="4" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>1025</v>
@@ -15889,7 +16434,7 @@
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>1025</v>
@@ -15897,7 +16442,7 @@
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>1025</v>
@@ -15905,7 +16450,7 @@
     </row>
     <row r="81" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C81" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>1025</v>
@@ -15913,7 +16458,7 @@
     </row>
     <row r="82" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C82" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>1025</v>
@@ -15921,7 +16466,7 @@
     </row>
     <row r="83" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>1025</v>
@@ -15929,169 +16474,88 @@
     </row>
     <row r="84" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C85" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
     <row r="86" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>6.14</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>971</v>
+        <v>446</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C87" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>973</v>
+        <v>447</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C88" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>974</v>
+      <c r="C88" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="L89" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="N89" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="O89" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="P89" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>991</v>
+        <v>449</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="L90" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C91" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C92" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>450</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
+        <v>6.14</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="E92" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C93" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="D93" s="4"/>
+      <c r="H92" s="134" t="s">
+        <v>475</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C93" s="4" t="s">
+        <v>463</v>
+      </c>
       <c r="E93" s="4" t="s">
         <v>405</v>
       </c>
@@ -16099,14 +16563,16 @@
         <v>953</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C94" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>972</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C94" s="39" t="s">
+        <v>464</v>
+      </c>
       <c r="E94" s="4" t="s">
         <v>405</v>
       </c>
@@ -16114,14 +16580,13 @@
         <v>953</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>465</v>
+      </c>
       <c r="E95" s="4" t="s">
         <v>405</v>
       </c>
@@ -16129,51 +16594,62 @@
         <v>953</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="J95" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="L95" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C96" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D96" s="4"/>
+      <c r="M95" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C96" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="E96" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>953</v>
       </c>
+      <c r="H96" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="I96" s="4" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>835</v>
+        <v>958</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
@@ -16183,12 +16659,12 @@
         <v>953</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C98" s="4" t="s">
-        <v>471</v>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
@@ -16198,12 +16674,15 @@
         <v>953</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C99" s="4" t="s">
-        <v>472</v>
+        <v>976</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
+        <v>977</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
@@ -16213,12 +16692,12 @@
         <v>953</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
@@ -16228,12 +16707,12 @@
         <v>953</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
-        <v>474</v>
+        <v>965</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
@@ -16243,31 +16722,145 @@
         <v>953</v>
       </c>
       <c r="H101" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C102" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="K102" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C103" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="104" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C104" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="105" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C105" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C106" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C107" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C103" s="25" t="s">
+    <row r="108" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C109" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C104" s="25" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C110" s="25" t="s">
         <v>476</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q104"/>
+  <autoFilter ref="A2:Q110"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -15696,10 +15696,10 @@
   <dimension ref="A2:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15947,7 +15947,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="93" t="s">
         <v>1020</v>
       </c>
       <c r="E20" s="4" t="s">

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <sheet name="others" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$294</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vowel Elongation'!$A$11:$N$205</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="1474">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -7141,6 +7141,311 @@
   </si>
   <si>
     <t>padiShitA</t>
+  </si>
+  <si>
+    <r>
+      <t>nya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">dAmEti ni - asadAma | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aBya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Shi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~jcannityaBi - asi~jcann |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">asi~jcann | sA | </t>
+  </si>
+  <si>
+    <t>5.4.3.3</t>
+  </si>
+  <si>
+    <t>(only that word)</t>
+  </si>
+  <si>
+    <t>viduShTaramiti viduH - taram |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viduShTara iti viduH - taraH | </t>
+  </si>
+  <si>
+    <t>2.6.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mIDhuShTamEti mIDhuH - tama | </t>
+  </si>
+  <si>
+    <t>4.5.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mIDhuShTamAyEti mIDhuH - tamAya | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5.5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niShTatakShuriti niH - tatakShuH | </t>
+  </si>
+  <si>
+    <t>4.6.2.5</t>
+  </si>
+  <si>
+    <r>
+      <t>Ayu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ayu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">E | </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14.4 </t>
+  </si>
+  <si>
+    <r>
+      <t>ABi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">E | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ABi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TE</t>
+    </r>
+  </si>
+  <si>
+    <t>1.4.33.1</t>
+  </si>
+  <si>
+    <r>
+      <t>Iyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TE </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Iyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | tE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.10.3 </t>
+  </si>
+  <si>
+    <r>
+      <t>vE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vam |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.13.5 </t>
+  </si>
+  <si>
+    <t>vEShTva(gm)</t>
+  </si>
+  <si>
+    <t>tiShThanti | ekaikayEtyEkayA - ekayA |</t>
+  </si>
+  <si>
+    <t>("ekayA + ekaya" becomes "ekaikayA")</t>
+  </si>
+  <si>
+    <t>7.5.8.4</t>
+  </si>
+  <si>
+    <r>
+      <t>tiShThanty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ekai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kayA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ekamEkamityEkam - ekam | </t>
+  </si>
+  <si>
+    <t>1.6.8.2</t>
+  </si>
+  <si>
+    <t>ekaikamityEkam - ekam |</t>
+  </si>
+  <si>
+    <t>5.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agniShTad viSvamA </t>
+  </si>
+  <si>
+    <t>saptE | agniH | tvA |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rAsaH | agniH | tat | viSvam | </t>
+  </si>
+  <si>
+    <t>savitaH | pAyuBiriti pAyu - BiH | tvam |</t>
   </si>
 </sst>
 </file>
@@ -7573,7 +7878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7849,6 +8154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12332,8 +12638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14571,13 +14877,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N78"/>
+  <dimension ref="A2:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15207,7 +15513,7 @@
       <c r="K41" s="63"/>
       <c r="L41" s="63"/>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>5.18</v>
       </c>
@@ -15217,149 +15523,126 @@
       <c r="D42" s="4" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="K42" s="63" t="s">
+        <v>1466</v>
+      </c>
+      <c r="L42" s="80" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K43" s="63" t="s">
+        <v>1468</v>
+      </c>
+      <c r="L43" s="63" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>5.19</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G44" s="132" t="s">
+      <c r="K45" s="63" t="s">
+        <v>1462</v>
+      </c>
+      <c r="L45" s="86" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M45" s="124" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="K46" s="63"/>
+      <c r="M46" s="29"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G47" s="132" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
         <v>5.2</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="133" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="G45" s="133" t="s">
+      <c r="G48" s="133" t="s">
         <v>343</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="27"/>
-      <c r="B46" s="4" t="s">
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="C46" s="79" t="s">
+      <c r="C49" s="79" t="s">
         <v>1343</v>
       </c>
-      <c r="D46" s="124" t="s">
+      <c r="D49" s="124" t="s">
         <v>1344</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="27"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="124"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="128"/>
-      <c r="C48" s="130" t="s">
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="124"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="128"/>
+      <c r="C51" s="130" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>5.21</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H49" s="93" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C50" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="K50" s="79" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M50" s="124" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C51" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="K51" s="79" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="6" t="s">
         <v>392</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>1011</v>
+      <c r="H52" s="93" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>392</v>
@@ -15367,22 +15650,19 @@
       <c r="F53" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>1014</v>
+      <c r="H53" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="K53" s="79" t="s">
-        <v>1346</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>1014</v>
+        <v>1405</v>
       </c>
       <c r="M53" s="124" t="s">
-        <v>1347</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
-        <v>1015</v>
+        <v>388</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>392</v>
@@ -15390,22 +15670,19 @@
       <c r="F54" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="H54" s="4" t="s">
+        <v>1012</v>
+      </c>
       <c r="I54" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="K54" s="79" t="s">
-        <v>1403</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M54" s="124" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>392</v>
@@ -15413,279 +15690,339 @@
       <c r="F55" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="K55" s="79" t="s">
+      <c r="H55" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K56" s="79" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M56" s="124" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K57" s="79" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M57" s="124" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C58" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K58" s="79" t="s">
         <v>1404</v>
       </c>
-      <c r="L55" s="63" t="s">
+      <c r="L58" s="63" t="s">
         <v>1349</v>
       </c>
-      <c r="M55" s="123" t="s">
+      <c r="M58" s="123" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-      <c r="M56" s="123"/>
-    </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="123"/>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>5.24</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="M57" s="124"/>
-    </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C58" s="131" t="s">
+      <c r="M60" s="124"/>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C61" s="131" t="s">
         <v>1406</v>
       </c>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="M58" s="124"/>
-    </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C59" s="93" t="s">
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="M61" s="124"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C62" s="93" t="s">
         <v>1386</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="F59" s="93" t="s">
+      <c r="F62" s="93" t="s">
         <v>1354</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G62" s="93" t="s">
         <v>1387</v>
       </c>
-      <c r="K59" s="79" t="s">
+      <c r="K62" s="79" t="s">
         <v>1378</v>
       </c>
-      <c r="L59" s="63" t="s">
+      <c r="L62" s="63" t="s">
         <v>1377</v>
       </c>
-      <c r="M59" s="124" t="s">
+      <c r="M62" s="124" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K60" s="79" t="s">
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K63" s="79" t="s">
         <v>1381</v>
       </c>
-      <c r="L60" s="63" t="s">
+      <c r="L63" s="63" t="s">
         <v>1380</v>
       </c>
-      <c r="M60" s="124" t="s">
+      <c r="M63" s="124" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K61" s="79" t="s">
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K64" s="79" t="s">
         <v>1385</v>
       </c>
-      <c r="L61" s="63" t="s">
+      <c r="L64" s="63" t="s">
         <v>1383</v>
       </c>
-      <c r="M61" s="124" t="s">
+      <c r="M64" s="124" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K62" s="79"/>
-      <c r="L62" s="63"/>
-      <c r="M62" s="124"/>
-    </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C63" s="93" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F63" s="93" t="s">
-        <v>1389</v>
-      </c>
-      <c r="G63" s="93" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K63" s="79" t="s">
-        <v>1390</v>
-      </c>
-      <c r="L63" s="80" t="s">
-        <v>1388</v>
-      </c>
-      <c r="M63" s="79" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="K64" s="79" t="s">
-        <v>1394</v>
-      </c>
-      <c r="L64" s="63" t="s">
-        <v>1392</v>
-      </c>
-      <c r="M64" s="79" t="s">
-        <v>1393</v>
-      </c>
-    </row>
     <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C65" s="93"/>
-      <c r="F65" s="93"/>
-      <c r="G65" s="93"/>
       <c r="K65" s="79"/>
       <c r="L65" s="63"/>
       <c r="M65" s="124"/>
     </row>
     <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
+      <c r="C66" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G66" s="93" t="s">
+        <v>1387</v>
+      </c>
       <c r="K66" s="79" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L66" s="80" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M66" s="79" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="K67" s="79" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L67" s="63" t="s">
+        <v>1392</v>
+      </c>
+      <c r="M67" s="79" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="124"/>
+    </row>
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="K69" s="79" t="s">
         <v>1395</v>
       </c>
-      <c r="L66" s="63" t="s">
+      <c r="L69" s="63" t="s">
         <v>1107</v>
       </c>
-      <c r="M66" s="124" t="s">
+      <c r="M69" s="124" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K67" s="79" t="s">
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K70" s="79" t="s">
         <v>1397</v>
       </c>
-      <c r="L67" s="80" t="s">
+      <c r="L70" s="80" t="s">
         <v>1012</v>
       </c>
-      <c r="M67" s="79" t="s">
+      <c r="M70" s="79" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
         <v>5.24</v>
       </c>
-      <c r="C68" s="129" t="s">
+      <c r="C71" s="129" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C69" s="4" t="s">
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="F69" s="93" t="s">
+      <c r="F72" s="93" t="s">
         <v>1354</v>
       </c>
-      <c r="G69" s="93" t="s">
+      <c r="G72" s="93" t="s">
         <v>1357</v>
       </c>
-      <c r="K69" s="79" t="s">
+      <c r="K72" s="79" t="s">
         <v>1352</v>
       </c>
-      <c r="L69" s="80" t="s">
+      <c r="L72" s="80" t="s">
         <v>1355</v>
       </c>
-      <c r="M69" s="124" t="s">
+      <c r="M72" s="124" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="K70" s="85" t="s">
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K73" s="85" t="s">
         <v>1358</v>
       </c>
-      <c r="L70" s="80" t="s">
+      <c r="L73" s="80" t="s">
         <v>1359</v>
       </c>
-      <c r="M70" s="124" t="s">
+      <c r="M73" s="124" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K71" s="79" t="s">
+    <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K74" s="79" t="s">
         <v>1400</v>
       </c>
-      <c r="L71" s="80" t="s">
+      <c r="L74" s="80" t="s">
         <v>1361</v>
       </c>
-      <c r="M71" s="124" t="s">
+      <c r="M74" s="124" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C73" s="4" t="s">
+    <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C76" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="93" t="s">
+      <c r="E76" s="4"/>
+      <c r="F76" s="93" t="s">
         <v>1363</v>
       </c>
-      <c r="G73" s="93" t="s">
+      <c r="G76" s="93" t="s">
         <v>1364</v>
       </c>
-      <c r="K73" s="79" t="s">
+      <c r="K76" s="79" t="s">
         <v>1365</v>
       </c>
-      <c r="L73" s="80" t="s">
+      <c r="L76" s="80" t="s">
         <v>1366</v>
       </c>
-      <c r="M73" s="79" t="s">
+      <c r="M76" s="79" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K74" s="79" t="s">
+    <row r="77" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K77" s="79" t="s">
         <v>1368</v>
       </c>
-      <c r="L74" s="80" t="s">
+      <c r="L77" s="80" t="s">
         <v>1369</v>
       </c>
-      <c r="M74" s="79" t="s">
+      <c r="M77" s="79" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K75" s="79" t="s">
+    <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K78" s="79" t="s">
         <v>1371</v>
       </c>
-      <c r="L75" s="80" t="s">
+      <c r="L78" s="80" t="s">
         <v>1372</v>
       </c>
-      <c r="M75" s="79" t="s">
+      <c r="M78" s="79" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K76" s="79" t="s">
+    <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K79" s="79" t="s">
         <v>1399</v>
       </c>
-      <c r="L76" s="63" t="s">
+      <c r="L79" s="63" t="s">
         <v>1374</v>
       </c>
-      <c r="M76" s="124" t="s">
+      <c r="M79" s="124" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="C78" s="129"/>
+    <row r="81" spans="3:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="C81" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J71"/>
+  <autoFilter ref="A2:J74"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -15693,13 +16030,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q110"/>
+  <dimension ref="A2:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15710,7 +16047,7 @@
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16012,89 +16349,114 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>6.3</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>408</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1440</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
+      <c r="J25" s="79" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C26" s="93" t="s">
         <v>409</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+      <c r="J26" s="79" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I27" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J27" s="135" t="s">
+        <v>1438</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I28" s="63"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I29" s="63"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="5"/>
+    </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>6.4</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>6.5</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="93" t="s">
         <v>405</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I32" s="80" t="s">
+        <v>927</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>405</v>
@@ -16102,19 +16464,20 @@
       <c r="F33" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="I33" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J33" s="126" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I33" s="80" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K33" s="42"/>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>414</v>
+      <c r="C34" s="93" t="s">
+        <v>413</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>405</v>
@@ -16122,27 +16485,20 @@
       <c r="F34" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I34" s="63" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>6.5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>405</v>
@@ -16150,55 +16506,39 @@
       <c r="F36" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J36" s="126" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I37" s="63" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J37" s="63" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I38" s="63" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J38" s="63" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>6.5</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>420</v>
+      <c r="C40" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>405</v>
@@ -16206,41 +16546,31 @@
       <c r="F40" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I40" s="63" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I41" s="63" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>6.5</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>405</v>
@@ -16248,473 +16578,468 @@
       <c r="F43" s="4" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="I43" s="80" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I44" s="63" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J44" s="79" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J47" s="79" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I48" s="86" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J48" s="79" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K48" s="124" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J49" s="79" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K49" s="124" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>423</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F50" s="93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>6.13</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
+    <row r="55" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
+    <row r="58" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C52" s="4" t="s">
+    <row r="60" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
+    <row r="61" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="28">
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
         <v>6.6</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28" t="s">
+      <c r="B67" s="28"/>
+      <c r="C67" s="28" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>6.7</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C70" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C64" s="4" t="s">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C72" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C65" s="4" t="s">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C75" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="4" t="s">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>6.8</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>6.8</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>6.9</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D80" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+      <c r="E80" s="41"/>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
         <v>6.1</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C75" s="4" t="s">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C83" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+    <row r="84" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>6.11</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>6.12</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C80" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C81" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C82" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C84" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C85" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C86" s="4" t="s">
-        <v>446</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="87" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C87" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="88" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="89" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="90" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="91" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C91" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C92" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C93" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C94" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C95" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C96" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C97" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C98" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
         <v>6.14</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H92" s="134" t="s">
-        <v>475</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="L92" s="4" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C93" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C94" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C95" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C96" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="97" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C97" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="98" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C98" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="99" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C99" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="100" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C100" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="H100" s="134" t="s">
+        <v>475</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="D101" s="4"/>
+        <v>463</v>
+      </c>
       <c r="E101" s="4" t="s">
         <v>405</v>
       </c>
@@ -16722,53 +17047,30 @@
         <v>953</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C102" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D102" s="4"/>
+        <v>972</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C102" s="39" t="s">
+        <v>464</v>
+      </c>
       <c r="E102" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="I102" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="103" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="H102" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>465</v>
+      </c>
       <c r="E103" s="4" t="s">
         <v>405</v>
       </c>
@@ -16776,14 +17078,34 @@
         <v>953</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="104" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="D104" s="4"/>
+        <v>466</v>
+      </c>
       <c r="E104" s="4" t="s">
         <v>405</v>
       </c>
@@ -16791,12 +17113,27 @@
         <v>953</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="105" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C105" s="4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
@@ -16806,12 +17143,12 @@
         <v>953</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="106" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C106" s="4" t="s">
-        <v>473</v>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C106" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
@@ -16821,12 +17158,15 @@
         <v>953</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="107" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C107" s="4" t="s">
-        <v>474</v>
+        <v>976</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C107" s="5" t="s">
+        <v>977</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
@@ -16836,29 +17176,173 @@
         <v>953</v>
       </c>
       <c r="H107" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C108" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C109" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C110" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C111" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="C112" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C113" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C114" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C115" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="108" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C109" s="25" t="s">
+    <row r="116" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C117" s="25" t="s">
         <v>898</v>
       </c>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C110" s="25" t="s">
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C118" s="25" t="s">
         <v>476</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q110"/>
+  <autoFilter ref="A2:Q118"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1489">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -1497,9 +1497,6 @@
   </si>
   <si>
     <t>vAH</t>
-  </si>
-  <si>
-    <t>Sat</t>
   </si>
   <si>
     <t>tri</t>
@@ -4778,9 +4775,6 @@
     <t>5.6.6.4 &amp; 6.5.5.2</t>
   </si>
   <si>
-    <t>no found ??</t>
-  </si>
-  <si>
     <t xml:space="preserve">nIcA | uccA | </t>
   </si>
   <si>
@@ -7446,6 +7440,299 @@
   </si>
   <si>
     <t>savitaH | pAyuBiriti pAyu - BiH | tvam |</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kRudhi suvar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sukram</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kRudhi | suvaH | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | Sukram |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">samiti | indra | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>naH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | manaSA |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">samindra </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> manasA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uru | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>naH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | kRudhi |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uduru </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> skRudhi |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vAr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ma vO hitaM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vAH |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ma | vaH | hitam | </t>
+    </r>
+  </si>
+  <si>
+    <t>2.5.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2.10.2 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">nirNEnijatIti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>niH - nE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nijati |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>grAmaNIriti grAm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a - nIH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+  </si>
+  <si>
+    <t>ShaT</t>
+  </si>
+  <si>
+    <t>7.2.15.1</t>
+  </si>
+  <si>
+    <r>
+      <t>asthUri |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> naH |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">asthUri </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ShaNNavatyA iti Sha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T - na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vatyai |</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7878,7 +8165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8155,6 +8442,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8545,16 +8836,16 @@
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="77" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J11" s="56"/>
       <c r="K11" s="11"/>
@@ -8595,10 +8886,10 @@
       <c r="D13" s="13"/>
       <c r="E13" s="52"/>
       <c r="F13" s="127" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="62"/>
@@ -8649,15 +8940,15 @@
         <v>2</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="52"/>
       <c r="F16" s="73" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="57"/>
@@ -8681,10 +8972,10 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="79" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H17" s="61"/>
       <c r="I17" s="57"/>
@@ -8708,14 +8999,14 @@
       <c r="D18" s="13"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G18" s="75"/>
       <c r="H18" s="73" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>1194</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>1195</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="13"/>
@@ -8753,16 +9044,16 @@
       <c r="D20" s="13"/>
       <c r="E20" s="52"/>
       <c r="F20" s="79" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="13"/>
@@ -8777,10 +9068,10 @@
       <c r="D21" s="13"/>
       <c r="E21" s="52"/>
       <c r="F21" s="79" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="57"/>
@@ -8797,10 +9088,10 @@
       <c r="D22" s="13"/>
       <c r="E22" s="52"/>
       <c r="F22" s="79" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G22" s="80" t="s">
         <v>1199</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>1200</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="57"/>
@@ -8817,10 +9108,10 @@
       <c r="D23" s="13"/>
       <c r="E23" s="52"/>
       <c r="F23" s="79" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="57"/>
@@ -8837,10 +9128,10 @@
       <c r="D24" s="13"/>
       <c r="E24" s="52"/>
       <c r="F24" s="79" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="57"/>
@@ -8857,10 +9148,10 @@
       <c r="D25" s="13"/>
       <c r="E25" s="52"/>
       <c r="F25" s="79" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="57"/>
@@ -8948,10 +9239,10 @@
       <c r="D30" s="13"/>
       <c r="E30" s="52"/>
       <c r="F30" s="89" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G30" s="90" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H30" s="95"/>
       <c r="I30" s="96"/>
@@ -8975,11 +9266,11 @@
       <c r="D31" s="13"/>
       <c r="E31" s="52"/>
       <c r="F31" s="69" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G31" s="94"/>
       <c r="H31" s="73" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I31" s="98"/>
       <c r="J31" s="57"/>
@@ -9002,10 +9293,10 @@
       <c r="D32" s="13"/>
       <c r="E32" s="52"/>
       <c r="F32" s="99" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H32" s="97"/>
       <c r="I32" s="70"/>
@@ -9045,10 +9336,10 @@
       <c r="D34" s="13"/>
       <c r="E34" s="52"/>
       <c r="F34" s="101" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H34" s="84"/>
       <c r="I34" s="70"/>
@@ -9065,10 +9356,10 @@
       <c r="D35" s="13"/>
       <c r="E35" s="52"/>
       <c r="F35" s="73" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H35" s="84"/>
       <c r="I35" s="70"/>
@@ -9104,11 +9395,11 @@
       <c r="D37" s="13"/>
       <c r="E37" s="52"/>
       <c r="F37" s="69" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G37" s="94"/>
       <c r="H37" s="73" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="I37" s="98"/>
       <c r="J37" s="57"/>
@@ -9150,7 +9441,7 @@
         <v>24</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G39" s="75"/>
       <c r="H39" s="65"/>
@@ -9167,13 +9458,13 @@
       <c r="C40" s="18"/>
       <c r="D40" s="54"/>
       <c r="E40" s="107" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F40" s="110" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G40" s="102" t="s">
         <v>1221</v>
-      </c>
-      <c r="G40" s="102" t="s">
-        <v>1222</v>
       </c>
       <c r="H40" s="65"/>
       <c r="I40" s="57"/>
@@ -9190,10 +9481,10 @@
       <c r="D41" s="54"/>
       <c r="E41" s="112"/>
       <c r="F41" s="88" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G41" s="103" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H41" s="65"/>
       <c r="I41" s="57"/>
@@ -9210,10 +9501,10 @@
       <c r="D42" s="54"/>
       <c r="E42" s="109"/>
       <c r="F42" s="106" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G42" s="105" t="s">
         <v>1229</v>
-      </c>
-      <c r="G42" s="105" t="s">
-        <v>1230</v>
       </c>
       <c r="H42" s="65"/>
       <c r="I42" s="57"/>
@@ -9232,7 +9523,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G43" s="75"/>
       <c r="H43" s="65"/>
@@ -9276,10 +9567,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="101" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G45" s="113" t="s">
         <v>1231</v>
-      </c>
-      <c r="G45" s="113" t="s">
-        <v>1232</v>
       </c>
       <c r="H45" s="65"/>
       <c r="I45" s="57"/>
@@ -9296,10 +9587,10 @@
       <c r="D46" s="15"/>
       <c r="E46" s="53"/>
       <c r="F46" s="104" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G46" s="114" t="s">
         <v>1233</v>
-      </c>
-      <c r="G46" s="114" t="s">
-        <v>1234</v>
       </c>
       <c r="H46" s="65"/>
       <c r="I46" s="57"/>
@@ -9359,10 +9650,10 @@
       <c r="D49" s="15"/>
       <c r="E49" s="54"/>
       <c r="F49" s="92" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G49" s="75" t="s">
         <v>1216</v>
-      </c>
-      <c r="G49" s="75" t="s">
-        <v>1217</v>
       </c>
       <c r="H49" s="65"/>
       <c r="I49" s="57"/>
@@ -9447,10 +9738,10 @@
       <c r="D53" s="15"/>
       <c r="E53" s="54"/>
       <c r="F53" s="92" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G53" s="75" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H53" s="65"/>
       <c r="I53" s="57"/>
@@ -9472,10 +9763,10 @@
       <c r="D54" s="15"/>
       <c r="E54" s="54"/>
       <c r="F54" s="92" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G54" s="75" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H54" s="65"/>
       <c r="I54" s="57"/>
@@ -9518,10 +9809,10 @@
       <c r="D56" s="15"/>
       <c r="E56" s="54"/>
       <c r="F56" s="85" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G56" s="63" t="s">
         <v>1225</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>1226</v>
       </c>
       <c r="H56" s="65"/>
       <c r="I56" s="57"/>
@@ -9538,7 +9829,7 @@
         <v>10</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="54"/>
@@ -9690,10 +9981,10 @@
       <c r="D64" s="15"/>
       <c r="E64" s="54"/>
       <c r="F64" s="91" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G64" s="75" t="s">
         <v>1237</v>
-      </c>
-      <c r="G64" s="75" t="s">
-        <v>1238</v>
       </c>
       <c r="H64" s="65"/>
       <c r="I64" s="57"/>
@@ -9923,10 +10214,10 @@
       <c r="D75" s="15"/>
       <c r="E75" s="54"/>
       <c r="F75" s="91" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G75" s="75" t="s">
         <v>1214</v>
-      </c>
-      <c r="G75" s="75" t="s">
-        <v>1215</v>
       </c>
       <c r="H75" s="65"/>
       <c r="I75" s="57"/>
@@ -10388,10 +10679,10 @@
       </c>
       <c r="D97" s="15"/>
       <c r="F97" s="55" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G97" s="72" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H97" s="65"/>
       <c r="I97" s="57"/>
@@ -10614,7 +10905,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="54"/>
@@ -10635,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="54"/>
@@ -11078,7 +11369,7 @@
         <v>107</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E130" s="54" t="s">
         <v>108</v>
@@ -11642,7 +11933,7 @@
         <v>26</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="54"/>
@@ -11683,7 +11974,7 @@
         <v>134</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E159" s="54" t="s">
         <v>135</v>
@@ -11743,7 +12034,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="54"/>
@@ -12823,22 +13114,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L14" s="93" t="s">
         <v>1126</v>
       </c>
-      <c r="L14" s="93" t="s">
+      <c r="M14" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>1127</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12855,7 +13146,7 @@
         <v>185</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12872,7 +13163,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -12881,13 +13172,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E17" s="4">
         <v>4.1100000000000003</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13196,7 +13487,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E43" s="4">
         <v>4.1100000000000003</v>
@@ -13244,7 +13535,7 @@
         <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E47" s="4">
         <v>4.1100000000000003</v>
@@ -13292,19 +13583,19 @@
         <v>36</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E51" s="4">
         <v>4.1100000000000003</v>
       </c>
       <c r="H51" s="63" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>1244</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -13313,7 +13604,7 @@
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13324,28 +13615,28 @@
         <v>4.12</v>
       </c>
       <c r="C54" s="93" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C55" s="93"/>
       <c r="H55" s="79" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K55" s="63" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="H56" s="116" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K56" s="63" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -13364,28 +13655,28 @@
         <v>230</v>
       </c>
       <c r="H58" s="79" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K58" s="63" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L58" s="93" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C59" s="93"/>
       <c r="H59" s="63" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="K59" s="63" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C60" s="93"/>
       <c r="H60" s="85" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="K60" s="63"/>
     </row>
@@ -13413,10 +13704,10 @@
       <c r="F63" s="118"/>
       <c r="G63" s="118"/>
       <c r="H63" s="115" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -13430,13 +13721,13 @@
         <v>230</v>
       </c>
       <c r="H64" s="63" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K64" s="63" t="s">
         <v>1251</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K64" s="63" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13472,10 +13763,10 @@
         <v>230</v>
       </c>
       <c r="H67" s="79" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K67" s="63" t="s">
         <v>1246</v>
-      </c>
-      <c r="K67" s="63" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13483,7 +13774,7 @@
         <v>4.12</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>230</v>
@@ -13494,7 +13785,7 @@
         <v>4.12</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>230</v>
@@ -13527,7 +13818,7 @@
         <v>4.12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>230</v>
@@ -13586,7 +13877,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>236</v>
@@ -13678,19 +13969,19 @@
         <v>4.17</v>
       </c>
       <c r="C87" s="93" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>239</v>
       </c>
       <c r="H87" s="63" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>1266</v>
-      </c>
       <c r="L87" s="93" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -13710,7 +14001,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13873,7 +14164,7 @@
         <v>256</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13884,7 +14175,7 @@
         <v>4.25</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>262</v>
@@ -14299,7 +14590,7 @@
         <v>290</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>295</v>
@@ -14317,7 +14608,7 @@
         <v>290</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>296</v>
@@ -14335,10 +14626,10 @@
         <v>290</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14353,7 +14644,7 @@
         <v>290</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>297</v>
@@ -14371,7 +14662,7 @@
         <v>290</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>298</v>
@@ -14389,7 +14680,7 @@
         <v>290</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>299</v>
@@ -14407,7 +14698,7 @@
         <v>290</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>300</v>
@@ -14425,7 +14716,7 @@
         <v>290</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>301</v>
@@ -14433,7 +14724,7 @@
     </row>
     <row r="142" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E142" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14655,7 +14946,7 @@
     <row r="161" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="162" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B162" s="34" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
@@ -14880,10 +15171,10 @@
   <dimension ref="A2:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14999,13 +15290,13 @@
         <v>349</v>
       </c>
       <c r="K9" s="79" t="s">
+        <v>1270</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>1271</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="M9" s="123" t="s">
         <v>1272</v>
-      </c>
-      <c r="M9" s="123" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15021,9 +15312,6 @@
       <c r="H10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>1274</v>
-      </c>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -15042,13 +15330,13 @@
         <v>353</v>
       </c>
       <c r="K11" s="85" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L11" s="124" t="s">
         <v>1275</v>
       </c>
-      <c r="L11" s="124" t="s">
-        <v>1277</v>
-      </c>
       <c r="M11" s="123" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15062,16 +15350,16 @@
         <v>355</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>357</v>
       </c>
       <c r="K12" s="79" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="M12" s="123" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15083,7 +15371,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>359</v>
@@ -15101,30 +15389,30 @@
         <v>343</v>
       </c>
       <c r="K14" s="79" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="M14" s="63" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="C15" s="125"/>
       <c r="K15" s="79" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="M15" s="63" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="C16" s="125"/>
       <c r="K16" s="79" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="M16" s="63" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15156,10 +15444,10 @@
         <v>362</v>
       </c>
       <c r="K18" s="79" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="M18" s="79" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15190,10 +15478,10 @@
         <v>362</v>
       </c>
       <c r="K20" s="63" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="M20" s="123" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15243,35 +15531,35 @@
         <v>369</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L24" s="124" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="M24" s="86" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K25" s="79" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L25" s="124" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="M25" s="86" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K26" s="79" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="L26" s="124" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="M26" s="63" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -15299,24 +15587,24 @@
         <v>369</v>
       </c>
       <c r="K28" s="79" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L28" s="124" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M28" s="80" t="s">
         <v>1317</v>
-      </c>
-      <c r="L28" s="124" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M28" s="80" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K29" s="79" t="s">
+        <v>1318</v>
+      </c>
+      <c r="L29" s="124" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M29" s="86" t="s">
         <v>1320</v>
-      </c>
-      <c r="L29" s="124" t="s">
-        <v>1321</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15352,7 +15640,7 @@
         <v>372</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>369</v>
@@ -15366,7 +15654,7 @@
         <v>373</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>369</v>
@@ -15380,19 +15668,19 @@
         <v>374</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>369</v>
       </c>
       <c r="K34" s="79" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L34" s="80" t="s">
+        <v>1322</v>
+      </c>
+      <c r="M34" s="124" t="s">
         <v>1323</v>
-      </c>
-      <c r="L34" s="80" t="s">
-        <v>1324</v>
-      </c>
-      <c r="M34" s="124" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15420,13 +15708,13 @@
         <v>377</v>
       </c>
       <c r="K36" s="79" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="L36" s="80" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M36" s="124" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15440,13 +15728,13 @@
         <v>378</v>
       </c>
       <c r="K37" s="79" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L37" s="80" t="s">
+        <v>1327</v>
+      </c>
+      <c r="M37" s="124" t="s">
         <v>1328</v>
-      </c>
-      <c r="L37" s="80" t="s">
-        <v>1329</v>
-      </c>
-      <c r="M37" s="124" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15460,13 +15748,13 @@
         <v>379</v>
       </c>
       <c r="K38" s="79" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L38" s="63" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M38" s="124" t="s">
         <v>1331</v>
-      </c>
-      <c r="L38" s="63" t="s">
-        <v>1332</v>
-      </c>
-      <c r="M38" s="124" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15480,13 +15768,13 @@
         <v>380</v>
       </c>
       <c r="K39" s="79" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L39" s="86" t="s">
         <v>1335</v>
       </c>
-      <c r="L39" s="86" t="s">
-        <v>1337</v>
-      </c>
       <c r="M39" s="124" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15500,13 +15788,13 @@
         <v>381</v>
       </c>
       <c r="K40" s="79" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="M40" s="124" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15524,18 +15812,18 @@
         <v>383</v>
       </c>
       <c r="K42" s="63" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="L42" s="80" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K43" s="63" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="L43" s="63" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -15550,18 +15838,18 @@
         <v>385</v>
       </c>
       <c r="K45" s="63" t="s">
+        <v>1460</v>
+      </c>
+      <c r="L45" s="86" t="s">
         <v>1462</v>
       </c>
-      <c r="L45" s="86" t="s">
-        <v>1464</v>
-      </c>
       <c r="M45" s="124" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="K46" s="63"/>
       <c r="M46" s="29"/>
@@ -15587,19 +15875,19 @@
         <v>343</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D49" s="124" t="s">
         <v>1342</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>1344</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -15614,7 +15902,7 @@
     <row r="51" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="128"/>
       <c r="C51" s="130" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15631,13 +15919,13 @@
         <v>342</v>
       </c>
       <c r="H52" s="93" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15651,13 +15939,13 @@
         <v>342</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K53" s="79" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="M53" s="124" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15671,13 +15959,13 @@
         <v>342</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>1013</v>
-      </c>
       <c r="K54" s="79" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15691,7 +15979,7 @@
         <v>342</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15705,21 +15993,21 @@
         <v>342</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K56" s="79" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M56" s="124" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>392</v>
@@ -15728,16 +16016,16 @@
         <v>342</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K57" s="79" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M57" s="124" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15751,13 +16039,13 @@
         <v>342</v>
       </c>
       <c r="K58" s="79" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="L58" s="63" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="M58" s="123" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15782,7 +16070,7 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C61" s="131" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -15790,47 +16078,47 @@
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C62" s="93" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F62" s="93" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G62" s="93" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="K62" s="79" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="L62" s="63" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M62" s="124" t="s">
         <v>1377</v>
-      </c>
-      <c r="M62" s="124" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K63" s="79" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="L63" s="63" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M63" s="124" t="s">
         <v>1380</v>
-      </c>
-      <c r="M63" s="124" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K64" s="79" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="L64" s="63" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="M64" s="124" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15840,25 +16128,25 @@
     </row>
     <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C66" s="93" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G66" s="93" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K66" s="79" t="s">
+        <v>1388</v>
+      </c>
+      <c r="L66" s="80" t="s">
         <v>1386</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F66" s="93" t="s">
+      <c r="M66" s="79" t="s">
         <v>1389</v>
-      </c>
-      <c r="G66" s="93" t="s">
-        <v>1387</v>
-      </c>
-      <c r="K66" s="79" t="s">
-        <v>1390</v>
-      </c>
-      <c r="L66" s="80" t="s">
-        <v>1388</v>
-      </c>
-      <c r="M66" s="79" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15866,13 +16154,13 @@
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
       <c r="K67" s="79" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="L67" s="63" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="M67" s="79" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15888,24 +16176,24 @@
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="K69" s="79" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="L69" s="63" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M69" s="124" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K70" s="79" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="L70" s="80" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M70" s="79" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -15913,109 +16201,109 @@
         <v>5.24</v>
       </c>
       <c r="C71" s="129" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" s="93" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G72" s="93" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K72" s="79" t="s">
+        <v>1350</v>
+      </c>
+      <c r="L72" s="80" t="s">
         <v>1353</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="M72" s="124" t="s">
         <v>1354</v>
-      </c>
-      <c r="G72" s="93" t="s">
-        <v>1357</v>
-      </c>
-      <c r="K72" s="79" t="s">
-        <v>1352</v>
-      </c>
-      <c r="L72" s="80" t="s">
-        <v>1355</v>
-      </c>
-      <c r="M72" s="124" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K73" s="85" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L73" s="80" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M73" s="124" t="s">
         <v>1358</v>
-      </c>
-      <c r="L73" s="80" t="s">
-        <v>1359</v>
-      </c>
-      <c r="M73" s="124" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K74" s="79" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="L74" s="80" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="M74" s="124" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>1353</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="93" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G76" s="93" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K76" s="79" t="s">
         <v>1363</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="L76" s="80" t="s">
         <v>1364</v>
       </c>
-      <c r="K76" s="79" t="s">
+      <c r="M76" s="79" t="s">
         <v>1365</v>
-      </c>
-      <c r="L76" s="80" t="s">
-        <v>1366</v>
-      </c>
-      <c r="M76" s="79" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K77" s="79" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L77" s="80" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M77" s="79" t="s">
         <v>1368</v>
-      </c>
-      <c r="L77" s="80" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M77" s="79" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K78" s="79" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L78" s="80" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M78" s="79" t="s">
         <v>1371</v>
-      </c>
-      <c r="L78" s="80" t="s">
-        <v>1372</v>
-      </c>
-      <c r="M78" s="79" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K79" s="79" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="L79" s="63" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="M79" s="124" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="81" spans="3:3" ht="21" x14ac:dyDescent="0.35">
@@ -16032,11 +16320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16060,10 +16348,10 @@
     </row>
     <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="B3" s="122" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -16100,13 +16388,13 @@
         <v>362</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="K6" s="124" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16125,24 +16413,24 @@
         <v>362</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="K8" s="124" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J9" s="63" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K9" s="124" t="s">
         <v>1410</v>
-      </c>
-      <c r="K9" s="124" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16159,13 +16447,13 @@
         <v>362</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J11" s="85" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="K11" s="124" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16179,13 +16467,13 @@
         <v>362</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J12" s="79" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="K12" s="124" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16194,7 +16482,7 @@
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="101.25" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>349</v>
@@ -16203,22 +16491,22 @@
         <v>362</v>
       </c>
       <c r="I14" s="116" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J14" s="63" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="K14" s="124" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I15" s="63"/>
       <c r="J15" s="79" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16237,13 +16525,13 @@
         <v>362</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J17" s="63" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K17" s="124" t="s">
         <v>1422</v>
-      </c>
-      <c r="K17" s="124" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16257,13 +16545,13 @@
         <v>362</v>
       </c>
       <c r="I18" s="80" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J18" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K18" s="124" t="s">
         <v>1425</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16277,15 +16565,15 @@
         <v>362</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C20" s="93" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>349</v>
@@ -16294,13 +16582,13 @@
         <v>362</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J20" s="79" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16314,13 +16602,13 @@
         <v>362</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J21" s="63" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16334,13 +16622,13 @@
         <v>362</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16363,13 +16651,13 @@
         <v>362</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J25" s="79" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16383,21 +16671,21 @@
         <v>362</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J26" s="79" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I27" s="63" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="J27" s="135" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>392</v>
@@ -16405,20 +16693,20 @@
     </row>
     <row r="28" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I28" s="63"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="5"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I29" s="63"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>6.4</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -16439,13 +16727,13 @@
         <v>362</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J32" s="79" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16465,10 +16753,10 @@
         <v>362</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="K33" s="42"/>
     </row>
@@ -16486,10 +16774,10 @@
         <v>362</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -16507,26 +16795,26 @@
         <v>362</v>
       </c>
       <c r="I36" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J36" s="126" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I37" s="63" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J37" s="63" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I38" s="63" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J38" s="63" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16547,18 +16835,18 @@
         <v>362</v>
       </c>
       <c r="I40" s="63" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I41" s="63" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16579,10 +16867,10 @@
         <v>362</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16599,13 +16887,13 @@
         <v>362</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="J44" s="79" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K44" s="29" t="s">
         <v>1459</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16650,13 +16938,13 @@
         <v>362</v>
       </c>
       <c r="I47" s="80" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J47" s="79" t="s">
         <v>1455</v>
       </c>
-      <c r="J47" s="79" t="s">
-        <v>1457</v>
-      </c>
       <c r="K47" s="4" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16673,13 +16961,13 @@
         <v>362</v>
       </c>
       <c r="I48" s="86" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="J48" s="79" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="K48" s="124" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16696,13 +16984,13 @@
         <v>362</v>
       </c>
       <c r="I49" s="63" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J49" s="79" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="K49" s="124" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16875,7 +17163,7 @@
         <v>6.9</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E80" s="41"/>
     </row>
@@ -16913,7 +17201,7 @@
         <v>439</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16921,7 +17209,7 @@
         <v>440</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16929,7 +17217,7 @@
         <v>441</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16937,7 +17225,7 @@
         <v>436</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16945,7 +17233,7 @@
         <v>442</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16953,7 +17241,7 @@
         <v>443</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16961,7 +17249,7 @@
         <v>444</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16969,7 +17257,7 @@
         <v>445</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16977,7 +17265,7 @@
         <v>446</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16985,7 +17273,7 @@
         <v>447</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16993,7 +17281,7 @@
         <v>448</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17001,7 +17289,7 @@
         <v>449</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17009,7 +17297,7 @@
         <v>450</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17024,16 +17312,16 @@
         <v>405</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H100" s="134" t="s">
         <v>475</v>
       </c>
       <c r="K100" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="L100" s="4" t="s">
         <v>970</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17044,13 +17332,13 @@
         <v>405</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H101" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>972</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17061,10 +17349,10 @@
         <v>405</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17075,31 +17363,31 @@
         <v>405</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>954</v>
-      </c>
       <c r="I103" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L103" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="N103" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="N103" s="4" t="s">
+      <c r="O103" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="O103" s="4" t="s">
+      <c r="P103" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="P103" s="4" t="s">
+      <c r="Q103" s="4" t="s">
         <v>990</v>
-      </c>
-      <c r="Q103" s="4" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17110,25 +17398,25 @@
         <v>405</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H104" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="J104" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="K104" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="L104" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="L104" s="4" t="s">
-        <v>960</v>
-      </c>
       <c r="M104" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -17140,14 +17428,14 @@
         <v>405</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="137" t="s">
         <v>468</v>
       </c>
       <c r="D106" s="4"/>
@@ -17155,28 +17443,28 @@
         <v>405</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C107" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -17188,64 +17476,64 @@
         <v>405</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C109" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="C110" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="J110" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="K110" s="4" t="s">
+      <c r="L110" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="M110" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="M110" s="4" t="s">
+      <c r="N110" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="N110" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="O110" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -17257,10 +17545,10 @@
         <v>405</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="18" x14ac:dyDescent="0.25">
@@ -17272,10 +17560,10 @@
         <v>405</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="113" spans="3:8" ht="18" x14ac:dyDescent="0.25">
@@ -17287,10 +17575,10 @@
         <v>405</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="114" spans="3:8" ht="18" x14ac:dyDescent="0.25">
@@ -17302,10 +17590,10 @@
         <v>405</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="115" spans="3:8" ht="18" x14ac:dyDescent="0.25">
@@ -17317,10 +17605,10 @@
         <v>405</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="116" spans="3:8" ht="18" x14ac:dyDescent="0.25">
@@ -17330,7 +17618,7 @@
     </row>
     <row r="117" spans="3:8" ht="18" x14ac:dyDescent="0.25">
       <c r="C117" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -17352,30 +17640,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="F3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -17393,13 +17682,13 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>273</v>
@@ -17408,9 +17697,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>273</v>
@@ -17419,7 +17708,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>477</v>
       </c>
@@ -17430,10 +17719,16 @@
         <v>394</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L9" s="124" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>478</v>
       </c>
@@ -17444,10 +17739,16 @@
         <v>394</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>479</v>
       </c>
@@ -17458,10 +17759,16 @@
         <v>394</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+      <c r="K11" s="79" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>480</v>
       </c>
@@ -17472,16 +17779,22 @@
         <v>394</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>949</v>
-      </c>
       <c r="I12" s="4" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L12" s="124" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>481</v>
       </c>
@@ -17492,12 +17805,18 @@
         <v>394</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>482</v>
+        <v>949</v>
+      </c>
+      <c r="K13" s="79" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L13" s="124" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C14" s="93" t="s">
+        <v>1484</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>273</v>
@@ -17505,10 +17824,17 @@
       <c r="F14" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G14" s="63" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>1488</v>
+      </c>
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>273</v>
@@ -17517,12 +17843,12 @@
         <v>394</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>273</v>
@@ -17530,8 +17856,14 @@
       <c r="F16" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G16" s="63" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K16" s="79" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>413</v>
       </c>
@@ -17541,26 +17873,32 @@
       <c r="F17" s="4" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G17" s="63" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>7.3</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>486</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7.4</v>
       </c>
@@ -17571,15 +17909,15 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
@@ -17587,7 +17925,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>277</v>
       </c>
@@ -17595,68 +17933,69 @@
         <v>394</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H25" s="93" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>7.5</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G29" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>1004</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1005</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17678,30 +18017,30 @@
         <v>7.8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>995</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17710,64 +18049,64 @@
         <v>7.9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17776,7 +18115,7 @@
         <v>7.11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>356</v>
@@ -17792,7 +18131,7 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>356</v>
@@ -17800,7 +18139,7 @@
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>373</v>
@@ -17816,7 +18155,7 @@
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>373</v>
@@ -17828,18 +18167,18 @@
         <v>7.12</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>511</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17848,13 +18187,13 @@
         <v>7.13</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>405</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17865,7 +18204,7 @@
         <v>405</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17874,13 +18213,13 @@
         <v>7.14</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17888,10 +18227,10 @@
         <v>343</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17900,7 +18239,7 @@
         <v>7.15</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D65" s="28"/>
     </row>
@@ -17914,7 +18253,7 @@
         <v>7.16</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>273</v>
@@ -17925,7 +18264,7 @@
         <v>7.16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>273</v>
@@ -17936,7 +18275,7 @@
         <v>7.16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>273</v>
@@ -17947,7 +18286,7 @@
         <v>7.16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>273</v>
@@ -17958,7 +18297,7 @@
         <v>7.16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>273</v>
@@ -17969,7 +18308,7 @@
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>273</v>
@@ -17978,7 +18317,7 @@
     <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:7" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="C74" s="120" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D74" s="28"/>
     </row>
@@ -17988,7 +18327,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17997,13 +18336,13 @@
         <v>273</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18011,13 +18350,13 @@
         <v>273</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18028,10 +18367,10 @@
         <v>168</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18040,58 +18379,58 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G82" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G83" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G84" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C85" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>615</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18100,157 +18439,157 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E92" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>623</v>
-      </c>
       <c r="F92" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C94" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C102" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18259,151 +18598,151 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I106" s="63" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L106" s="80" t="s">
         <v>1223</v>
-      </c>
-      <c r="L106" s="80" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="107" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="108" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="110" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>924</v>
-      </c>
       <c r="C110" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="111" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="112" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C112" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>926</v>
-      </c>
       <c r="C114" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>928</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>430</v>
@@ -18412,132 +18751,132 @@
         <v>273</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="I115" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="J115" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="K115" s="4" t="s">
         <v>932</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>937</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J121" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="K121" s="4" t="s">
-        <v>993</v>
-      </c>
       <c r="L121" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18546,79 +18885,79 @@
         <v>9.23</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C125" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C128" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C129" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18633,18 +18972,18 @@
         <v>273</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18664,7 +19003,7 @@
     </row>
     <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E136" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>394</v>
@@ -18678,10 +19017,10 @@
         <v>394</v>
       </c>
       <c r="G137" s="93" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>1219</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18697,40 +19036,40 @@
         <v>13.5</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>877</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="140" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G140" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18894,7 +19233,7 @@
   <dimension ref="A2:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
@@ -18918,7 +19257,7 @@
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -18949,7 +19288,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>356</v>
@@ -18961,7 +19300,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>356</v>
@@ -18985,7 +19324,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>356</v>
@@ -18997,7 +19336,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>356</v>
@@ -19009,7 +19348,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>356</v>
@@ -19021,7 +19360,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>356</v>
@@ -19033,7 +19372,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>356</v>
@@ -19045,7 +19384,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>356</v>
@@ -19057,7 +19396,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>356</v>
@@ -19081,7 +19420,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>356</v>
@@ -19093,7 +19432,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>356</v>
@@ -19105,7 +19444,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>356</v>
@@ -19117,7 +19456,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>356</v>
@@ -19129,7 +19468,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>356</v>
@@ -19141,7 +19480,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>356</v>
@@ -19153,7 +19492,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>356</v>
@@ -19165,7 +19504,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>356</v>
@@ -19177,7 +19516,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>356</v>
@@ -19189,7 +19528,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>356</v>
@@ -19201,7 +19540,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>356</v>
@@ -19213,7 +19552,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>356</v>
@@ -19225,7 +19564,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>356</v>
@@ -19237,7 +19576,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>356</v>
@@ -19249,7 +19588,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>356</v>
@@ -19261,7 +19600,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>356</v>
@@ -19273,13 +19612,13 @@
         <v>8.9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19287,13 +19626,13 @@
         <v>8.9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19302,13 +19641,13 @@
         <v>8.1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19317,13 +19656,13 @@
         <v>8.11</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19332,13 +19671,13 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19347,24 +19686,24 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19375,7 +19714,7 @@
         <v>356</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19384,24 +19723,24 @@
         <v>8.14</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19410,10 +19749,10 @@
         <v>8.15</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19423,27 +19762,27 @@
         <v>8.23</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H53" s="93" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E54" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19451,7 +19790,7 @@
         <v>268</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19460,57 +19799,57 @@
         <v>8.24</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C67" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19519,7 +19858,7 @@
         <v>8.25</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>349</v>
@@ -19527,7 +19866,7 @@
     </row>
     <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E70" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>349</v>
@@ -19535,7 +19874,7 @@
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E71" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>349</v>
@@ -19546,7 +19885,7 @@
         <v>8.26</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>349</v>
@@ -19554,7 +19893,7 @@
     </row>
     <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>349</v>
@@ -19562,7 +19901,7 @@
     </row>
     <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E74" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>349</v>
@@ -19570,7 +19909,7 @@
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>349</v>
@@ -19578,7 +19917,7 @@
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>349</v>
@@ -19586,7 +19925,7 @@
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>349</v>
@@ -19598,10 +19937,10 @@
         <v>8.27</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>349</v>
@@ -19609,10 +19948,10 @@
     </row>
     <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>349</v>
@@ -19624,10 +19963,10 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>593</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>349</v>
@@ -19641,7 +19980,7 @@
         <v>296</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>349</v>
@@ -19652,10 +19991,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>362</v>
@@ -19666,16 +20005,16 @@
         <v>8.31</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C87" s="38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19683,42 +20022,42 @@
         <v>8.32</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19726,7 +20065,7 @@
         <v>8.33</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19740,7 +20079,7 @@
         <v>8.34</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19762,16 +20101,16 @@
         <v>9.16</v>
       </c>
       <c r="C100" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19779,13 +20118,13 @@
         <v>9.17</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19793,13 +20132,13 @@
         <v>9.17</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E102" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>604</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19821,10 +20160,10 @@
   <dimension ref="A2:V204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19843,7 +20182,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19852,10 +20191,10 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>339</v>
@@ -19864,7 +20203,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19872,10 +20211,10 @@
         <v>12.2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -19883,10 +20222,10 @@
         <v>12.3</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>661</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>394</v>
@@ -19894,10 +20233,10 @@
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>394</v>
@@ -19905,10 +20244,10 @@
     </row>
     <row r="9" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>394</v>
@@ -19916,10 +20255,10 @@
     </row>
     <row r="10" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>394</v>
@@ -19931,46 +20270,46 @@
         <v>12.4</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -19979,24 +20318,24 @@
         <v>12.5</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>677</v>
-      </c>
       <c r="G18" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -20005,58 +20344,58 @@
         <v>12.6</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I20" s="45" t="s">
         <v>1039</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>1040</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="K20" s="44" t="s">
         <v>1041</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>1042</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1043</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1044</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20064,245 +20403,245 @@
         <v>12.7</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>723</v>
-      </c>
       <c r="G24" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E25" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E26" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E27" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E28" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E29" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E36" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E37" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E38" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E39" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="41" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E42" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E46" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="48" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E49" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E50" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E51" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E52" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E53" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -20310,120 +20649,120 @@
         <v>12.8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D55" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D56" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D60" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D61" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D62" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D63" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D64" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G64" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D65" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D66" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D67" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30">
@@ -20436,18 +20775,18 @@
         <v>11.3</v>
       </c>
       <c r="C71" s="29" t="s">
+        <v>724</v>
+      </c>
+      <c r="F71" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="F71" s="29" t="s">
-        <v>726</v>
-      </c>
       <c r="H71" s="29" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C72" s="29" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>299</v>
@@ -20461,73 +20800,73 @@
     </row>
     <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="F73" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="F73" s="29" t="s">
-        <v>728</v>
-      </c>
       <c r="H73" s="29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I73" s="29" t="s">
         <v>1142</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="J73" s="29" t="s">
         <v>1143</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="K73" s="29" t="s">
         <v>1144</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="L73" s="29" t="s">
         <v>1145</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="M73" s="29" t="s">
         <v>1146</v>
-      </c>
-      <c r="M73" s="29" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C74" s="29" t="s">
+        <v>728</v>
+      </c>
+      <c r="F74" s="29" t="s">
         <v>729</v>
       </c>
-      <c r="F74" s="29" t="s">
-        <v>730</v>
-      </c>
       <c r="H74" s="42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>923</v>
+      </c>
+      <c r="J74" s="42" t="s">
         <v>1036</v>
       </c>
-      <c r="I74" s="42" t="s">
-        <v>924</v>
-      </c>
-      <c r="J74" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>1037</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C75" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H75" s="42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I75" s="44" t="s">
         <v>1026</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="J75" s="42" t="s">
         <v>1027</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C76" s="29" t="s">
+        <v>731</v>
+      </c>
+      <c r="F76" s="29" t="s">
         <v>732</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>733</v>
       </c>
       <c r="H76" s="49">
         <v>4.0999999999999996</v>
@@ -20538,220 +20877,220 @@
     </row>
     <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C77" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H79" s="44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I79" s="42" t="s">
         <v>1032</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="J79" s="43" t="s">
         <v>1033</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="K79" s="43" t="s">
         <v>1034</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C80" s="29" t="s">
+        <v>736</v>
+      </c>
+      <c r="F80" s="29" t="s">
         <v>737</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C81" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H81" s="29" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I81" s="29" t="s">
         <v>1166</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="J81" s="29" t="s">
         <v>1167</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="K81" s="29" t="s">
         <v>1168</v>
       </c>
-      <c r="K81" s="29" t="s">
+      <c r="L81" s="29" t="s">
         <v>1169</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C82" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H82" s="29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I82" s="29" t="s">
         <v>1171</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="J82" s="29" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K82" s="30" t="s">
         <v>1172</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K82" s="30" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C83" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H84" s="29" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I84" s="29" t="s">
         <v>1136</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="J84" s="29" t="s">
         <v>1137</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="K84" s="29" t="s">
         <v>1138</v>
       </c>
-      <c r="K84" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>1139</v>
       </c>
-      <c r="L84" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>1140</v>
       </c>
-      <c r="M84" s="29" t="s">
-        <v>1141</v>
-      </c>
       <c r="N84" s="29" t="s">
+        <v>1147</v>
+      </c>
+      <c r="O84" s="29" t="s">
         <v>1148</v>
       </c>
-      <c r="O84" s="29" t="s">
+      <c r="P84" s="29" t="s">
         <v>1149</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="Q84" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="Q84" s="29" t="s">
+      <c r="R84" s="29" t="s">
         <v>1151</v>
       </c>
-      <c r="R84" s="29" t="s">
+      <c r="S84" s="29" t="s">
         <v>1152</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="T84" s="29" t="s">
         <v>1153</v>
       </c>
-      <c r="T84" s="29" t="s">
+      <c r="U84" s="29" t="s">
         <v>1154</v>
       </c>
-      <c r="U84" s="29" t="s">
+      <c r="V84" s="29" t="s">
         <v>1155</v>
-      </c>
-      <c r="V84" s="29" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="F85" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H85" s="29" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>1157</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="J85" s="29" t="s">
         <v>1158</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="K85" s="29" t="s">
         <v>1159</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="L85" s="29" t="s">
         <v>1160</v>
       </c>
-      <c r="L85" s="29" t="s">
+      <c r="M85" s="29" t="s">
         <v>1161</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="N85" s="29" t="s">
         <v>1162</v>
       </c>
-      <c r="N85" s="29" t="s">
+      <c r="O85" s="29" t="s">
         <v>1163</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C86" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H86" s="29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I86" s="29" t="s">
         <v>1174</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="J86" s="29" t="s">
         <v>1175</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="K86" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="K86" s="29" t="s">
+      <c r="L86" s="29" t="s">
         <v>1177</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="M86" s="29" t="s">
         <v>1178</v>
       </c>
-      <c r="M86" s="29" t="s">
+      <c r="N86" s="29" t="s">
         <v>1179</v>
       </c>
-      <c r="N86" s="29" t="s">
+      <c r="O86" s="29" t="s">
         <v>1180</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -20760,32 +21099,32 @@
         <v>11.4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E89" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E90" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="91" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E91" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="94" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20793,97 +21132,97 @@
         <v>11.5</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="G94" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="95" spans="1:22" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H95" s="45" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G96" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G97" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G99" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H99" s="45" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G100" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H100" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I100" s="45" t="s">
         <v>1051</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="J100" s="45" t="s">
         <v>1052</v>
-      </c>
-      <c r="J100" s="45" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -20892,30 +21231,30 @@
         <v>11.6</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="G102" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G103" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -20924,30 +21263,30 @@
         <v>11.7</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G105" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C106" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="G106" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20962,7 +21301,7 @@
         <v>259</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20970,22 +21309,22 @@
         <v>259</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G109" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H109" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I109" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="I109" s="45" t="s">
+      <c r="J109" s="45" t="s">
         <v>1057</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="K109" s="45" t="s">
         <v>1058</v>
-      </c>
-      <c r="K109" s="45" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20993,13 +21332,13 @@
         <v>259</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G110" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21008,16 +21347,16 @@
         <v>11.9</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="G112" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21025,21 +21364,21 @@
         <v>373</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C114" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G114" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21055,152 +21394,152 @@
         <v>11.1</v>
       </c>
       <c r="C117" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="G117" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I117" s="44" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J117" s="44" t="s">
         <v>1063</v>
       </c>
-      <c r="J117" s="44" t="s">
+      <c r="K117" s="44" t="s">
         <v>1064</v>
       </c>
-      <c r="K117" s="44" t="s">
+      <c r="L117" s="44" t="s">
         <v>1065</v>
-      </c>
-      <c r="L117" s="44" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C118" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G118" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H118" s="44" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I118" s="44" t="s">
         <v>1068</v>
-      </c>
-      <c r="I118" s="44" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C119" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G119" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H119" s="44" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C120" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G120" s="29" t="s">
         <v>394</v>
       </c>
       <c r="H120" s="44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I120" s="44" t="s">
         <v>1071</v>
       </c>
-      <c r="I120" s="44" t="s">
+      <c r="J120" s="44" t="s">
         <v>1072</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="K120" s="44" t="s">
         <v>1073</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="L120" s="44" t="s">
         <v>1074</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="M120" s="44" t="s">
         <v>1075</v>
       </c>
-      <c r="M120" s="44" t="s">
+      <c r="N120" s="44" t="s">
         <v>1076</v>
       </c>
-      <c r="N120" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1077</v>
       </c>
-      <c r="O120" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1078</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H121" s="44" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I121" s="44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J121" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="K121" s="44" t="s">
         <v>1081</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="L121" s="44" t="s">
         <v>1082</v>
       </c>
-      <c r="L121" s="44" t="s">
+      <c r="M121" s="44" t="s">
+        <v>955</v>
+      </c>
+      <c r="N121" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="M121" s="44" t="s">
-        <v>956</v>
-      </c>
-      <c r="N121" s="44" t="s">
+      <c r="O121" s="44" t="s">
         <v>1084</v>
       </c>
-      <c r="O121" s="44" t="s">
+      <c r="P121" s="44" t="s">
         <v>1085</v>
-      </c>
-      <c r="P121" s="44" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H122" s="44" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I122" s="44" t="s">
         <v>1087</v>
       </c>
-      <c r="I122" s="44" t="s">
+      <c r="J122" s="44" t="s">
         <v>1088</v>
       </c>
-      <c r="J122" s="44" t="s">
+      <c r="K122" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="K122" s="44" t="s">
+      <c r="L122" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="L122" s="44" t="s">
+      <c r="M122" s="44" t="s">
         <v>1091</v>
       </c>
-      <c r="M122" s="44" t="s">
+      <c r="N122" s="44" t="s">
         <v>1092</v>
       </c>
-      <c r="N122" s="44" t="s">
+      <c r="O122" s="44" t="s">
         <v>1093</v>
-      </c>
-      <c r="O122" s="44" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21209,25 +21548,25 @@
         <v>11.11</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H124" s="44" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I124" s="44" t="s">
         <v>1095</v>
       </c>
-      <c r="I124" s="44" t="s">
+      <c r="J124" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="J124" s="44" t="s">
+      <c r="K124" s="44" t="s">
         <v>1097</v>
       </c>
-      <c r="K124" s="44" t="s">
+      <c r="L124" s="44" t="s">
         <v>1098</v>
-      </c>
-      <c r="L124" s="44" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21235,41 +21574,41 @@
         <v>11.12</v>
       </c>
       <c r="C125" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>771</v>
-      </c>
       <c r="H125" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H126" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I126" s="43" t="s">
         <v>1100</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="J126" s="43" t="s">
         <v>1101</v>
-      </c>
-      <c r="J126" s="43" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H127" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21278,127 +21617,127 @@
         <v>11.13</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>775</v>
-      </c>
       <c r="H129" s="44" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I129" s="44" t="s">
         <v>1105</v>
-      </c>
-      <c r="I129" s="44" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>410</v>
       </c>
       <c r="H130" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I130" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="J130" s="44" t="s">
+        <v>944</v>
+      </c>
+      <c r="K130" s="44" t="s">
         <v>1107</v>
       </c>
-      <c r="I130" s="43" t="s">
-        <v>919</v>
-      </c>
-      <c r="J130" s="44" t="s">
-        <v>945</v>
-      </c>
-      <c r="K130" s="44" t="s">
+      <c r="L130" s="43" t="s">
         <v>1108</v>
       </c>
-      <c r="L130" s="43" t="s">
-        <v>1109</v>
-      </c>
       <c r="M130" s="29" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C131" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H131" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I131" s="44" t="s">
         <v>1110</v>
-      </c>
-      <c r="I131" s="44" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C132" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H132" s="44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I132" s="44" t="s">
         <v>1112</v>
       </c>
-      <c r="I132" s="44" t="s">
+      <c r="J132" s="44" t="s">
         <v>1113</v>
-      </c>
-      <c r="J132" s="44" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C134" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H134" s="44" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I134" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C135" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H135" s="46" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I135" s="46" t="s">
         <v>1117</v>
       </c>
-      <c r="I135" s="46" t="s">
+      <c r="J135" s="46" t="s">
         <v>1118</v>
       </c>
-      <c r="J135" s="46" t="s">
+      <c r="K135" s="46" t="s">
         <v>1119</v>
       </c>
-      <c r="K135" s="46" t="s">
+      <c r="L135" s="43" t="s">
         <v>1120</v>
       </c>
-      <c r="L135" s="43" t="s">
+      <c r="M135" s="46" t="s">
         <v>1121</v>
-      </c>
-      <c r="M135" s="46" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="136" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21410,19 +21749,19 @@
         <v>296</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="140" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21431,24 +21770,24 @@
         <v>11.15</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>410</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C142" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>410</v>
       </c>
       <c r="H142" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21457,137 +21796,137 @@
         <v>11.16</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="145" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D145" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="146" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D146" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="147" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D147" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="148" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D148" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="149" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D149" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="150" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D150" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="151" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D151" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="152" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D152" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="153" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="154" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D154" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="155" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D155" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="156" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D156" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="157" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D157" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D158" s="32" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D159" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="160" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D160" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="161" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D161" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="162" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D162" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D163" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D164" s="32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="165" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D165" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D166" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D167" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D168" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D169" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="D170" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21595,127 +21934,127 @@
         <v>11.17</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E173" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E174" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E175" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E176" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="177" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E177" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E178" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="179" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E179" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E180" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="181" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E181" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="182" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E182" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="183" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E183" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="184" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E184" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="185" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E185" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="186" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E186" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="187" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E187" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="188" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E188" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="189" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E189" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="190" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E190" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="191" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E191" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="192" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E192" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="193" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E193" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E194" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E195" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E196" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21723,10 +22062,10 @@
         <v>11.18</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21766,10 +22105,10 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
+        <v>835</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>836</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>837</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -21780,19 +22119,19 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>339</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>839</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21800,58 +22139,58 @@
         <v>16.2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>845</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21860,7 +22199,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21869,10 +22208,10 @@
         <v>16.5</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>848</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21880,7 +22219,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21889,18 +22228,18 @@
         <v>16.7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21909,10 +22248,10 @@
         <v>16.8</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>854</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21920,10 +22259,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21931,10 +22270,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21942,7 +22281,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21950,7 +22289,7 @@
         <v>16.11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21958,34 +22297,34 @@
         <v>16.12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -21994,26 +22333,26 @@
         <v>16.25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -22022,35 +22361,35 @@
         <v>16.27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>871</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -22062,21 +22401,21 @@
         <v>347</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -22173,63 +22512,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="126" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="126" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C6" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="126" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C9" t="s">
         <v>1293</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C10" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="126" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C12" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$295</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1495">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -7733,6 +7733,64 @@
       </rPr>
       <t>vatyai |</t>
     </r>
+  </si>
+  <si>
+    <t>na | nIti | hanyAt | na |</t>
+  </si>
+  <si>
+    <t>niH (only niH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6.9.1 </t>
+  </si>
+  <si>
+    <r>
+      <t>niriti | ha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yAt |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nir.ha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">yAth </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">nirupyamANamiti niH - upyamAnam | </t>
   </si>
 </sst>
 </file>
@@ -17638,13 +17696,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L294"/>
+  <dimension ref="A3:L295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17863,7 +17921,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>413</v>
       </c>
@@ -17880,25 +17938,47 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7.3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D19" s="93" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>1491</v>
+      </c>
+      <c r="K19" s="79" t="s">
+        <v>1492</v>
+      </c>
+      <c r="L19" s="124" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>485</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="K20" s="63" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K21" s="63" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>7.4</v>
       </c>
@@ -17909,7 +17989,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>486</v>
       </c>
@@ -17917,7 +17997,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
@@ -17925,7 +18005,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>277</v>
       </c>
@@ -17939,7 +18019,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>7.5</v>
       </c>
@@ -17948,8 +18028,8 @@
       </c>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
@@ -17963,7 +18043,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>489</v>
       </c>
@@ -17980,7 +18060,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>490</v>
       </c>
@@ -17988,12 +18068,12 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>492</v>
       </c>
@@ -18003,127 +18083,120 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>7.7</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>7.8</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C37" s="4" t="s">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>7.9</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>498</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C43" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>7.11</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>356</v>
@@ -18131,7 +18204,7 @@
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>508</v>
+        <v>322</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>356</v>
@@ -18139,15 +18212,15 @@
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>322</v>
+        <v>507</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>373</v>
@@ -18155,50 +18228,47 @@
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>508</v>
+        <v>322</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>7.12</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>7.13</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C60" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>405</v>
@@ -18207,24 +18277,24 @@
         <v>513</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>7.14</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C63" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>514</v>
@@ -18233,30 +18303,30 @@
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>7.15</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C66" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="D65" s="28"/>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18264,7 +18334,7 @@
         <v>7.16</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>273</v>
@@ -18275,7 +18345,7 @@
         <v>7.16</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>273</v>
@@ -18286,7 +18356,7 @@
         <v>7.16</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>273</v>
@@ -18297,7 +18367,7 @@
         <v>7.16</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>273</v>
@@ -18308,49 +18378,46 @@
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="C74" s="120" t="s">
+    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:7" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="C75" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="27">
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D77" s="25" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
+    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C79" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>356</v>
@@ -18364,36 +18431,36 @@
         <v>273</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>168</v>
+        <v>607</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>608</v>
+        <v>356</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C81" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>9.2100000000000009</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>610</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
-        <v>611</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>834</v>
@@ -18407,7 +18474,7 @@
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>834</v>
@@ -18421,7 +18488,7 @@
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C85" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>834</v>
@@ -18433,24 +18500,27 @@
         <v>615</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C86" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>9.2100000000000009</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>616</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C88" s="4" t="s">
-        <v>617</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>622</v>
@@ -18461,7 +18531,7 @@
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>622</v>
@@ -18472,7 +18542,7 @@
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>622</v>
@@ -18483,7 +18553,7 @@
     </row>
     <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>622</v>
@@ -18494,7 +18564,7 @@
     </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>622</v>
@@ -18503,18 +18573,21 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C94" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="F94" s="4" t="s">
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C93" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>834</v>
       </c>
     </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>834</v>
@@ -18522,7 +18595,7 @@
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>834</v>
@@ -18530,7 +18603,7 @@
     </row>
     <row r="97" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>834</v>
@@ -18538,7 +18611,7 @@
     </row>
     <row r="98" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>834</v>
@@ -18546,7 +18619,7 @@
     </row>
     <row r="99" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>834</v>
@@ -18554,7 +18627,7 @@
     </row>
     <row r="100" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>834</v>
@@ -18562,7 +18635,7 @@
     </row>
     <row r="101" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>834</v>
@@ -18570,7 +18643,7 @@
     </row>
     <row r="102" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C102" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>834</v>
@@ -18578,7 +18651,7 @@
     </row>
     <row r="103" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>1134</v>
+        <v>631</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>834</v>
@@ -18586,45 +18659,30 @@
     </row>
     <row r="104" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
-        <v>632</v>
+        <v>1134</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
+    <row r="105" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C105" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
         <v>9.2200000000000006</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="I106" s="63" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L106" s="80" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>273</v>
@@ -18632,13 +18690,22 @@
       <c r="F107" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G107" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="I107" s="63" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L107" s="80" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="108" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>917</v>
+      <c r="A108" s="4" t="s">
+        <v>940</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>634</v>
+        <v>532</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>273</v>
@@ -18649,10 +18716,10 @@
     </row>
     <row r="109" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>273</v>
@@ -18662,14 +18729,11 @@
       </c>
     </row>
     <row r="110" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>922</v>
-      </c>
       <c r="B110" s="4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>273</v>
@@ -18679,11 +18743,14 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>922</v>
+      </c>
       <c r="B111" s="4" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>273</v>
@@ -18693,8 +18760,11 @@
       </c>
     </row>
     <row r="112" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>919</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>273</v>
@@ -18704,14 +18774,8 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>920</v>
-      </c>
       <c r="C113" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>273</v>
@@ -18722,13 +18786,13 @@
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>273</v>
@@ -18739,13 +18803,13 @@
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>430</v>
+        <v>640</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>273</v>
@@ -18753,28 +18817,16 @@
       <c r="F115" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>933</v>
+        <v>926</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>927</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>641</v>
+        <v>430</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>273</v>
@@ -18782,13 +18834,28 @@
       <c r="F116" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G116" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>273</v>
@@ -18799,13 +18866,10 @@
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>273</v>
@@ -18816,10 +18880,13 @@
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>936</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>273</v>
@@ -18829,8 +18896,11 @@
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C120" s="5" t="s">
-        <v>942</v>
+      <c r="A120" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>644</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
@@ -18840,11 +18910,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>645</v>
+      <c r="C121" s="5" t="s">
+        <v>942</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>273</v>
@@ -18852,25 +18919,13 @@
       <c r="F121" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I121" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>989</v>
-      </c>
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>273</v>
@@ -18878,25 +18933,40 @@
       <c r="F122" s="4" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="I122" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>9.23</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>648</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C125" s="4" t="s">
-        <v>649</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>273</v>
@@ -18907,7 +18977,7 @@
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C126" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>273</v>
@@ -18918,7 +18988,7 @@
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C127" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>273</v>
@@ -18929,7 +18999,7 @@
     </row>
     <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C128" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>273</v>
@@ -18940,7 +19010,7 @@
     </row>
     <row r="129" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C129" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>273</v>
@@ -18951,7 +19021,7 @@
     </row>
     <row r="130" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>273</v>
@@ -18960,24 +19030,24 @@
         <v>647</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+    <row r="131" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C131" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>9.24</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C133" s="4" t="s">
-        <v>655</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>273</v>
@@ -18986,24 +19056,27 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+    <row r="134" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C134" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>13.6</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E136" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>394</v>
@@ -19011,68 +19084,75 @@
     </row>
     <row r="137" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E137" s="4" t="s">
-        <v>362</v>
+        <v>875</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G137" s="93" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K137" s="4" t="s">
-        <v>1219</v>
-      </c>
     </row>
     <row r="138" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E138" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>394</v>
       </c>
+      <c r="G138" s="93" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="139" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="E139" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>13.5</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G140" s="4" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G140" s="4" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="141" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G141" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G142" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G143" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G144" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G146" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="147" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="148" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="149" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19221,8 +19301,9 @@
     <row r="292" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="293" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="294" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="295" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A3:L294"/>
+  <autoFilter ref="A3:L295"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$299</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1518">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -7791,6 +7791,407 @@
   </si>
   <si>
     <t xml:space="preserve">nirupyamANamiti niH - upyamAnam | </t>
+  </si>
+  <si>
+    <r>
+      <t>pravAhaNa iti pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a - vA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hanaH |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prOhyamA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>viBUrasi pravAha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO</t>
+    </r>
+  </si>
+  <si>
+    <t>prAyaNamiti pra - ayanam |</t>
+  </si>
+  <si>
+    <t>3.5.10.2</t>
+  </si>
+  <si>
+    <t>6.1.5.1</t>
+  </si>
+  <si>
+    <r>
+      <t>prAyaNIya iti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pra - ayan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IyE |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prAya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IyE cO</t>
+    </r>
+  </si>
+  <si>
+    <t>1.6.11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3.11.2 </t>
+  </si>
+  <si>
+    <r>
+      <t>prOhyamANa iti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pra - uhyamANaH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yaj~jasya prAya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">aM </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prAyaNamiti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pra - ayanam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">prAyaNIya iti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pra - ayanIyaH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prAya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IyO yaj~jAnAm </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prayavENEti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pra - yavEna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yanti prayavE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+  </si>
+  <si>
+    <t>6.2.6.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pravaNamiti pra - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>van</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">am | syAt | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prAcInamAhavanIyAt prava</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(gg</t>
+    </r>
+  </si>
+  <si>
+    <t>5.1.2.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ayaju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ShkENEtyayajuH - kE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ayaju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>kE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na kriyata</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17696,13 +18097,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L295"/>
+  <dimension ref="A3:L299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18015,7 +18416,7 @@
       <c r="G25" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="H25" s="93" t="s">
+      <c r="K25" s="93" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -18029,7 +18430,7 @@
       <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
@@ -18042,8 +18443,14 @@
       <c r="H28" s="4" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="K28" s="79" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L28" s="124" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>489</v>
       </c>
@@ -18059,512 +18466,540 @@
       <c r="J29" s="4" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="K29" s="79" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L29" s="124" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>490</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
+      <c r="K30" s="63" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K31" s="63"/>
+    </row>
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C32" s="4" t="s">
+      <c r="G32" s="80" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K32" s="79" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L32" s="124" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G33" s="86" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K33" s="79" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L33" s="124" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G34" s="63" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>1508</v>
+      </c>
+      <c r="L34" s="124" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="124"/>
+    </row>
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+      <c r="G36" s="63" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K36" s="79" t="s">
+        <v>1510</v>
+      </c>
+      <c r="L36" s="124" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="G37" s="86" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K37" s="79" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L37" s="124" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>7.7</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>7.8</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C38" s="4" t="s">
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G42" s="86" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K42" s="79" t="s">
+        <v>1516</v>
+      </c>
+      <c r="L42" s="124" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="C40" s="4" t="s">
+    <row r="45" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="D45" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C41" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="46" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
+    <row r="48" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C45" s="4" t="s">
+    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C46" s="4" t="s">
+    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C47" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>7.11</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>356</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="D52" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>7.11</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C54" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>7.12</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>7.13</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C61" s="4" t="s">
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>7.14</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C64" s="4" t="s">
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>7.15</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C70" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="D66" s="28"/>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
+      <c r="D70" s="28"/>
+    </row>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C71" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>7.16</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>7.16</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:7" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="C75" s="120" t="s">
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="C79" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="D75" s="28"/>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="27">
+      <c r="D79" s="28"/>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D81" s="25" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C79" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C80" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C81" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>9.2100000000000009</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>610</v>
+        <v>273</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>834</v>
+        <v>356</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C84" s="4" t="s">
-        <v>611</v>
+        <v>273</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>834</v>
+        <v>356</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C85" s="4" t="s">
-        <v>612</v>
+        <v>273</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F85" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H87" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C86" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>9.2100000000000009</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G88" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G89" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C90" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C91" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
+      <c r="G90" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="C92" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>622</v>
@@ -18575,7 +19010,7 @@
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C93" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>622</v>
@@ -18584,10 +19019,23 @@
         <v>834</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C94" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C95" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>834</v>
@@ -18595,7 +19043,10 @@
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
-        <v>624</v>
+        <v>620</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>834</v>
@@ -18603,23 +19054,19 @@
     </row>
     <row r="97" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C98" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
+    <row r="98" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="99" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>834</v>
@@ -18627,7 +19074,7 @@
     </row>
     <row r="100" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>834</v>
@@ -18635,7 +19082,7 @@
     </row>
     <row r="101" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C101" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>834</v>
@@ -18643,7 +19090,7 @@
     </row>
     <row r="102" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C102" s="4" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>834</v>
@@ -18651,7 +19098,7 @@
     </row>
     <row r="103" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>834</v>
@@ -18659,7 +19106,7 @@
     </row>
     <row r="104" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
-        <v>1134</v>
+        <v>628</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>834</v>
@@ -18667,90 +19114,54 @@
     </row>
     <row r="105" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C105" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>941</v>
-      </c>
+    <row r="106" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C106" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C107" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>273</v>
+        <v>631</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="I107" s="63" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L107" s="80" t="s">
-        <v>1223</v>
-      </c>
     </row>
     <row r="108" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>940</v>
-      </c>
       <c r="C108" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>273</v>
+        <v>1134</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>917</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>273</v>
+        <v>632</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>922</v>
+    <row r="110" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>9.2200000000000006</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>273</v>
@@ -18758,13 +19169,22 @@
       <c r="F111" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G111" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="I111" s="63" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L111" s="80" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="112" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>919</v>
+      <c r="A112" s="4" t="s">
+        <v>940</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>637</v>
+        <v>532</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>273</v>
@@ -18774,8 +19194,11 @@
       </c>
     </row>
     <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>917</v>
+      </c>
       <c r="C113" s="4" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>273</v>
@@ -18785,14 +19208,11 @@
       </c>
     </row>
     <row r="114" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>921</v>
-      </c>
       <c r="B114" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>273</v>
@@ -18803,13 +19223,13 @@
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>273</v>
@@ -18819,14 +19239,11 @@
       </c>
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>926</v>
-      </c>
       <c r="B116" s="4" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>430</v>
+        <v>637</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>273</v>
@@ -18834,28 +19251,10 @@
       <c r="F116" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>933</v>
-      </c>
       <c r="C117" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>273</v>
@@ -18866,10 +19265,13 @@
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>934</v>
+        <v>921</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>273</v>
@@ -18880,13 +19282,13 @@
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>273</v>
@@ -18897,10 +19299,13 @@
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>937</v>
+        <v>926</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>927</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>644</v>
+        <v>430</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
@@ -18908,10 +19313,28 @@
       <c r="F120" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G120" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C121" s="5" t="s">
-        <v>942</v>
+      <c r="A121" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>641</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>273</v>
@@ -18922,10 +19345,10 @@
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>273</v>
@@ -18933,25 +19356,16 @@
       <c r="F122" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I122" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>989</v>
-      </c>
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>939</v>
+        <v>935</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>936</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>273</v>
@@ -18960,57 +19374,78 @@
         <v>834</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
-        <v>9.23</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>648</v>
+      <c r="C125" s="5" t="s">
+        <v>942</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>647</v>
+        <v>834</v>
       </c>
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>938</v>
+      </c>
       <c r="C126" s="4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>647</v>
+        <v>834</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>939</v>
+      </c>
       <c r="C127" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C128" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>9.23</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>273</v>
@@ -19021,7 +19456,7 @@
     </row>
     <row r="130" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C130" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>273</v>
@@ -19032,7 +19467,7 @@
     </row>
     <row r="131" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C131" s="4" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>273</v>
@@ -19041,13 +19476,20 @@
         <v>647</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C132" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
     <row r="133" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>9.24</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>370</v>
+        <v>652</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>273</v>
@@ -19058,7 +19500,7 @@
     </row>
     <row r="134" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C134" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>273</v>
@@ -19067,96 +19509,129 @@
         <v>647</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="C136" s="4" t="s">
+    <row r="135" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C135" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
+      <c r="F135" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E137" s="4" t="s">
-        <v>875</v>
+      <c r="A137" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>394</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E138" s="4" t="s">
-        <v>362</v>
+      <c r="C138" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G138" s="93" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E139" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E141" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E142" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G142" s="93" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E143" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>13.5</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G144" s="4" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G141" s="4" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G142" s="4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G143" s="4" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G144" s="4" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="145" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G145" s="4" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G146" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G147" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G148" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G149" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G150" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="147" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="151" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="152" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="153" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19302,8 +19777,12 @@
     <row r="293" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="294" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="295" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="296" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="297" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="298" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="299" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A3:L295"/>
+  <autoFilter ref="A3:L299"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$74</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$302</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="1518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1542">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -3190,9 +3190,6 @@
   </si>
   <si>
     <t>4.6.7.1</t>
-  </si>
-  <si>
-    <t>NF</t>
   </si>
   <si>
     <t>maNAH</t>
@@ -8192,6 +8189,161 @@
       </rPr>
       <t>Na kriyata</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>indra e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>M prathamO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>indraH | e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>am | prathamaH |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.14.5 </t>
+  </si>
+  <si>
+    <t>dEvaSrIH SrImaNAH</t>
+  </si>
+  <si>
+    <t>4.6.3.2</t>
+  </si>
+  <si>
+    <r>
+      <t>nRumaNA iti n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ru - man</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SrImaNA iti </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SrI - manAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">trya~ggANAmiti tri - a~ggAnAm </t>
+  </si>
+  <si>
+    <t>6.3.10.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">durONa iti duH - OnE | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">durgANIti duH -gAni | </t>
+  </si>
+  <si>
+    <t>purOgANAmiti puraH - gAnAm |</t>
+  </si>
+  <si>
+    <t>3.2.4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suvargyANIti suvaH - gyAni | </t>
+  </si>
+  <si>
+    <t>5.3.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antaryAmENEtyantaH - yAmEna | </t>
+  </si>
+  <si>
+    <t>6.4.6.1</t>
+  </si>
+  <si>
+    <t>agnihOtrahavaNItyagnihOtra - havanI |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aparAhNa ityapara - ahnE | </t>
+  </si>
+  <si>
+    <t>2.1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vRutrahaNEti vRutra -hanA | </t>
+  </si>
+  <si>
+    <t>1.1.14.1</t>
+  </si>
+  <si>
+    <t>avIrahaNAvityavIra - hanau |</t>
+  </si>
+  <si>
+    <t>1.2.8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakShOhaNamiti rakShaH - hanam | </t>
   </si>
 </sst>
 </file>
@@ -9295,16 +9447,16 @@
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="77" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J11" s="56"/>
       <c r="K11" s="11"/>
@@ -9345,10 +9497,10 @@
       <c r="D13" s="13"/>
       <c r="E13" s="52"/>
       <c r="F13" s="127" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G13" s="76" t="s">
         <v>1286</v>
-      </c>
-      <c r="G13" s="76" t="s">
-        <v>1287</v>
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="62"/>
@@ -9399,15 +9551,15 @@
         <v>2</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="52"/>
       <c r="F16" s="73" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="57"/>
@@ -9431,10 +9583,10 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="79" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H17" s="61"/>
       <c r="I17" s="57"/>
@@ -9458,14 +9610,14 @@
       <c r="D18" s="13"/>
       <c r="E18" s="52"/>
       <c r="F18" s="52" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G18" s="75"/>
       <c r="H18" s="73" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I18" s="71" t="s">
         <v>1193</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>1194</v>
       </c>
       <c r="J18" s="57"/>
       <c r="K18" s="13"/>
@@ -9503,16 +9655,16 @@
       <c r="D20" s="13"/>
       <c r="E20" s="52"/>
       <c r="F20" s="79" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I20" s="86" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J20" s="57"/>
       <c r="K20" s="13"/>
@@ -9527,10 +9679,10 @@
       <c r="D21" s="13"/>
       <c r="E21" s="52"/>
       <c r="F21" s="79" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="57"/>
@@ -9547,10 +9699,10 @@
       <c r="D22" s="13"/>
       <c r="E22" s="52"/>
       <c r="F22" s="79" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G22" s="80" t="s">
         <v>1198</v>
-      </c>
-      <c r="G22" s="80" t="s">
-        <v>1199</v>
       </c>
       <c r="H22" s="65"/>
       <c r="I22" s="57"/>
@@ -9567,10 +9719,10 @@
       <c r="D23" s="13"/>
       <c r="E23" s="52"/>
       <c r="F23" s="79" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H23" s="65"/>
       <c r="I23" s="57"/>
@@ -9587,10 +9739,10 @@
       <c r="D24" s="13"/>
       <c r="E24" s="52"/>
       <c r="F24" s="79" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="57"/>
@@ -9607,10 +9759,10 @@
       <c r="D25" s="13"/>
       <c r="E25" s="52"/>
       <c r="F25" s="79" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="57"/>
@@ -9698,10 +9850,10 @@
       <c r="D30" s="13"/>
       <c r="E30" s="52"/>
       <c r="F30" s="89" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G30" s="90" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H30" s="95"/>
       <c r="I30" s="96"/>
@@ -9725,11 +9877,11 @@
       <c r="D31" s="13"/>
       <c r="E31" s="52"/>
       <c r="F31" s="69" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G31" s="94"/>
       <c r="H31" s="73" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I31" s="98"/>
       <c r="J31" s="57"/>
@@ -9752,10 +9904,10 @@
       <c r="D32" s="13"/>
       <c r="E32" s="52"/>
       <c r="F32" s="99" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G32" s="100" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H32" s="97"/>
       <c r="I32" s="70"/>
@@ -9795,10 +9947,10 @@
       <c r="D34" s="13"/>
       <c r="E34" s="52"/>
       <c r="F34" s="101" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H34" s="84"/>
       <c r="I34" s="70"/>
@@ -9815,10 +9967,10 @@
       <c r="D35" s="13"/>
       <c r="E35" s="52"/>
       <c r="F35" s="73" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G35" s="71" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H35" s="84"/>
       <c r="I35" s="70"/>
@@ -9854,11 +10006,11 @@
       <c r="D37" s="13"/>
       <c r="E37" s="52"/>
       <c r="F37" s="69" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G37" s="94"/>
       <c r="H37" s="73" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I37" s="98"/>
       <c r="J37" s="57"/>
@@ -9900,7 +10052,7 @@
         <v>24</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G39" s="75"/>
       <c r="H39" s="65"/>
@@ -9917,13 +10069,13 @@
       <c r="C40" s="18"/>
       <c r="D40" s="54"/>
       <c r="E40" s="107" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F40" s="110" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G40" s="102" t="s">
         <v>1220</v>
-      </c>
-      <c r="G40" s="102" t="s">
-        <v>1221</v>
       </c>
       <c r="H40" s="65"/>
       <c r="I40" s="57"/>
@@ -9940,10 +10092,10 @@
       <c r="D41" s="54"/>
       <c r="E41" s="112"/>
       <c r="F41" s="88" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G41" s="103" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H41" s="65"/>
       <c r="I41" s="57"/>
@@ -9960,10 +10112,10 @@
       <c r="D42" s="54"/>
       <c r="E42" s="109"/>
       <c r="F42" s="106" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G42" s="105" t="s">
         <v>1228</v>
-      </c>
-      <c r="G42" s="105" t="s">
-        <v>1229</v>
       </c>
       <c r="H42" s="65"/>
       <c r="I42" s="57"/>
@@ -9982,7 +10134,7 @@
         <v>25</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G43" s="75"/>
       <c r="H43" s="65"/>
@@ -10026,10 +10178,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="101" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G45" s="113" t="s">
         <v>1230</v>
-      </c>
-      <c r="G45" s="113" t="s">
-        <v>1231</v>
       </c>
       <c r="H45" s="65"/>
       <c r="I45" s="57"/>
@@ -10046,10 +10198,10 @@
       <c r="D46" s="15"/>
       <c r="E46" s="53"/>
       <c r="F46" s="104" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G46" s="114" t="s">
         <v>1232</v>
-      </c>
-      <c r="G46" s="114" t="s">
-        <v>1233</v>
       </c>
       <c r="H46" s="65"/>
       <c r="I46" s="57"/>
@@ -10109,10 +10261,10 @@
       <c r="D49" s="15"/>
       <c r="E49" s="54"/>
       <c r="F49" s="92" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G49" s="75" t="s">
         <v>1215</v>
-      </c>
-      <c r="G49" s="75" t="s">
-        <v>1216</v>
       </c>
       <c r="H49" s="65"/>
       <c r="I49" s="57"/>
@@ -10197,10 +10349,10 @@
       <c r="D53" s="15"/>
       <c r="E53" s="54"/>
       <c r="F53" s="92" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G53" s="75" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H53" s="65"/>
       <c r="I53" s="57"/>
@@ -10222,10 +10374,10 @@
       <c r="D54" s="15"/>
       <c r="E54" s="54"/>
       <c r="F54" s="92" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G54" s="75" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H54" s="65"/>
       <c r="I54" s="57"/>
@@ -10268,10 +10420,10 @@
       <c r="D56" s="15"/>
       <c r="E56" s="54"/>
       <c r="F56" s="85" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G56" s="63" t="s">
         <v>1224</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>1225</v>
       </c>
       <c r="H56" s="65"/>
       <c r="I56" s="57"/>
@@ -10440,10 +10592,10 @@
       <c r="D64" s="15"/>
       <c r="E64" s="54"/>
       <c r="F64" s="91" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G64" s="75" t="s">
         <v>1236</v>
-      </c>
-      <c r="G64" s="75" t="s">
-        <v>1237</v>
       </c>
       <c r="H64" s="65"/>
       <c r="I64" s="57"/>
@@ -10673,10 +10825,10 @@
       <c r="D75" s="15"/>
       <c r="E75" s="54"/>
       <c r="F75" s="91" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G75" s="75" t="s">
         <v>1213</v>
-      </c>
-      <c r="G75" s="75" t="s">
-        <v>1214</v>
       </c>
       <c r="H75" s="65"/>
       <c r="I75" s="57"/>
@@ -11138,10 +11290,10 @@
       </c>
       <c r="D97" s="15"/>
       <c r="F97" s="55" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G97" s="72" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H97" s="65"/>
       <c r="I97" s="57"/>
@@ -13573,22 +13725,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L14" s="93" t="s">
         <v>1125</v>
-      </c>
-      <c r="L14" s="93" t="s">
-        <v>1126</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>591</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13605,7 +13757,7 @@
         <v>185</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13622,7 +13774,7 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -13631,13 +13783,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E17" s="4">
         <v>4.1100000000000003</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="18" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14042,19 +14194,19 @@
         <v>36</v>
       </c>
       <c r="C51" s="93" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E51" s="4">
         <v>4.1100000000000003</v>
       </c>
       <c r="H51" s="63" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>1243</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14063,7 +14215,7 @@
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14077,25 +14229,25 @@
         <v>909</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C55" s="93"/>
       <c r="H55" s="79" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="K55" s="63" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="C56" s="93"/>
       <c r="H56" s="116" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="K56" s="63" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14114,28 +14266,28 @@
         <v>230</v>
       </c>
       <c r="H58" s="79" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K58" s="63" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L58" s="93" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C59" s="93"/>
       <c r="H59" s="63" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K59" s="63" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C60" s="93"/>
       <c r="H60" s="85" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K60" s="63"/>
     </row>
@@ -14163,10 +14315,10 @@
       <c r="F63" s="118"/>
       <c r="G63" s="118"/>
       <c r="H63" s="115" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -14180,13 +14332,13 @@
         <v>230</v>
       </c>
       <c r="H64" s="63" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="K64" s="63" t="s">
         <v>1250</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K64" s="63" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14222,10 +14374,10 @@
         <v>230</v>
       </c>
       <c r="H67" s="79" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K67" s="63" t="s">
         <v>1245</v>
-      </c>
-      <c r="K67" s="63" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -14434,13 +14586,13 @@
         <v>239</v>
       </c>
       <c r="H87" s="63" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>1265</v>
-      </c>
       <c r="L87" s="93" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -14460,7 +14612,7 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15049,7 +15201,7 @@
         <v>290</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>295</v>
@@ -15067,7 +15219,7 @@
         <v>290</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I135" s="4" t="s">
         <v>296</v>
@@ -15085,7 +15237,7 @@
         <v>290</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>896</v>
@@ -15103,7 +15255,7 @@
         <v>290</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>297</v>
@@ -15121,7 +15273,7 @@
         <v>290</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>298</v>
@@ -15139,7 +15291,7 @@
         <v>290</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>299</v>
@@ -15157,7 +15309,7 @@
         <v>290</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>300</v>
@@ -15175,7 +15327,7 @@
         <v>290</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>301</v>
@@ -15183,7 +15335,7 @@
     </row>
     <row r="142" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E142" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15749,13 +15901,13 @@
         <v>349</v>
       </c>
       <c r="K9" s="79" t="s">
+        <v>1269</v>
+      </c>
+      <c r="L9" s="29" t="s">
         <v>1270</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="M9" s="123" t="s">
         <v>1271</v>
-      </c>
-      <c r="M9" s="123" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -15789,13 +15941,13 @@
         <v>353</v>
       </c>
       <c r="K11" s="85" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M11" s="123" t="s">
         <v>1273</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>1275</v>
-      </c>
-      <c r="M11" s="123" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15809,16 +15961,16 @@
         <v>355</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>357</v>
       </c>
       <c r="K12" s="79" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M12" s="123" t="s">
         <v>1276</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15830,7 +15982,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>359</v>
@@ -15848,30 +16000,30 @@
         <v>343</v>
       </c>
       <c r="K14" s="79" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M14" s="63" t="s">
         <v>1298</v>
-      </c>
-      <c r="M14" s="63" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="C15" s="125"/>
       <c r="K15" s="79" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M15" s="63" t="s">
         <v>1300</v>
-      </c>
-      <c r="M15" s="63" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="C16" s="125"/>
       <c r="K16" s="79" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M16" s="63" t="s">
         <v>1302</v>
-      </c>
-      <c r="M16" s="63" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15903,10 +16055,10 @@
         <v>362</v>
       </c>
       <c r="K18" s="79" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M18" s="79" t="s">
         <v>1304</v>
-      </c>
-      <c r="M18" s="79" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15937,10 +16089,10 @@
         <v>362</v>
       </c>
       <c r="K20" s="63" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M20" s="123" t="s">
         <v>1279</v>
-      </c>
-      <c r="M20" s="123" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -15990,35 +16142,35 @@
         <v>369</v>
       </c>
       <c r="K24" s="85" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L24" s="124" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="M24" s="86" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K25" s="79" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L25" s="124" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M25" s="86" t="s">
         <v>1308</v>
-      </c>
-      <c r="L25" s="124" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M25" s="86" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K26" s="79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L26" s="124" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M26" s="63" t="s">
         <v>1310</v>
-      </c>
-      <c r="L26" s="124" t="s">
-        <v>1314</v>
-      </c>
-      <c r="M26" s="63" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16046,24 +16198,24 @@
         <v>369</v>
       </c>
       <c r="K28" s="79" t="s">
+        <v>1314</v>
+      </c>
+      <c r="L28" s="124" t="s">
         <v>1315</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="M28" s="80" t="s">
         <v>1316</v>
-      </c>
-      <c r="M28" s="80" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K29" s="79" t="s">
+        <v>1317</v>
+      </c>
+      <c r="L29" s="124" t="s">
         <v>1318</v>
       </c>
-      <c r="L29" s="124" t="s">
+      <c r="M29" s="86" t="s">
         <v>1319</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16133,13 +16285,13 @@
         <v>369</v>
       </c>
       <c r="K34" s="79" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L34" s="80" t="s">
         <v>1321</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="M34" s="124" t="s">
         <v>1322</v>
-      </c>
-      <c r="M34" s="124" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16167,13 +16319,13 @@
         <v>377</v>
       </c>
       <c r="K36" s="79" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L36" s="80" t="s">
         <v>926</v>
       </c>
       <c r="M36" s="124" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16187,13 +16339,13 @@
         <v>378</v>
       </c>
       <c r="K37" s="79" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L37" s="80" t="s">
         <v>1326</v>
       </c>
-      <c r="L37" s="80" t="s">
+      <c r="M37" s="124" t="s">
         <v>1327</v>
-      </c>
-      <c r="M37" s="124" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16207,13 +16359,13 @@
         <v>379</v>
       </c>
       <c r="K38" s="79" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L38" s="63" t="s">
         <v>1329</v>
       </c>
-      <c r="L38" s="63" t="s">
+      <c r="M38" s="124" t="s">
         <v>1330</v>
-      </c>
-      <c r="M38" s="124" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16227,13 +16379,13 @@
         <v>380</v>
       </c>
       <c r="K39" s="79" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L39" s="86" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M39" s="124" t="s">
         <v>1333</v>
-      </c>
-      <c r="L39" s="86" t="s">
-        <v>1335</v>
-      </c>
-      <c r="M39" s="124" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16247,13 +16399,13 @@
         <v>381</v>
       </c>
       <c r="K40" s="79" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L40" s="79" t="s">
         <v>1337</v>
       </c>
-      <c r="L40" s="79" t="s">
-        <v>1338</v>
-      </c>
       <c r="M40" s="124" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16271,18 +16423,18 @@
         <v>383</v>
       </c>
       <c r="K42" s="63" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L42" s="80" t="s">
         <v>1464</v>
-      </c>
-      <c r="L42" s="80" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K43" s="63" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L43" s="63" t="s">
         <v>1466</v>
-      </c>
-      <c r="L43" s="63" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -16297,18 +16449,18 @@
         <v>385</v>
       </c>
       <c r="K45" s="63" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="L45" s="86" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M45" s="124" t="s">
         <v>1462</v>
-      </c>
-      <c r="M45" s="124" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K46" s="63"/>
       <c r="M46" s="29"/>
@@ -16334,19 +16486,19 @@
         <v>343</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C49" s="79" t="s">
         <v>1340</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="D49" s="124" t="s">
         <v>1341</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>1342</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -16361,7 +16513,7 @@
     <row r="51" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="128"/>
       <c r="C51" s="130" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16378,13 +16530,13 @@
         <v>342</v>
       </c>
       <c r="H52" s="93" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>1008</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16398,13 +16550,13 @@
         <v>342</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K53" s="79" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="M53" s="124" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16418,13 +16570,13 @@
         <v>342</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>1012</v>
-      </c>
       <c r="K54" s="79" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -16438,7 +16590,7 @@
         <v>342</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16452,21 +16604,21 @@
         <v>342</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K56" s="79" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M56" s="124" t="s">
         <v>1344</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M56" s="124" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>392</v>
@@ -16475,16 +16627,16 @@
         <v>342</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K57" s="79" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M57" s="124" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16498,13 +16650,13 @@
         <v>342</v>
       </c>
       <c r="K58" s="79" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="L58" s="63" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M58" s="123" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16529,7 +16681,7 @@
     </row>
     <row r="61" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="C61" s="131" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D61"/>
       <c r="E61"/>
@@ -16537,47 +16689,47 @@
     </row>
     <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C62" s="93" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F62" s="93" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G62" s="93" t="s">
         <v>1384</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F62" s="93" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G62" s="93" t="s">
-        <v>1385</v>
-      </c>
       <c r="K62" s="79" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L62" s="63" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M62" s="124" t="s">
         <v>1376</v>
-      </c>
-      <c r="L62" s="63" t="s">
-        <v>1375</v>
-      </c>
-      <c r="M62" s="124" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K63" s="79" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L63" s="63" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M63" s="124" t="s">
         <v>1379</v>
-      </c>
-      <c r="L63" s="63" t="s">
-        <v>1378</v>
-      </c>
-      <c r="M63" s="124" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K64" s="79" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="L64" s="63" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M64" s="124" t="s">
         <v>1381</v>
-      </c>
-      <c r="M64" s="124" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16587,25 +16739,25 @@
     </row>
     <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C66" s="93" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F66" s="93" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G66" s="93" t="s">
         <v>1384</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F66" s="93" t="s">
+      <c r="K66" s="79" t="s">
         <v>1387</v>
       </c>
-      <c r="G66" s="93" t="s">
+      <c r="L66" s="80" t="s">
         <v>1385</v>
       </c>
-      <c r="K66" s="79" t="s">
+      <c r="M66" s="79" t="s">
         <v>1388</v>
-      </c>
-      <c r="L66" s="80" t="s">
-        <v>1386</v>
-      </c>
-      <c r="M66" s="79" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16613,13 +16765,13 @@
       <c r="F67" s="93"/>
       <c r="G67" s="93"/>
       <c r="K67" s="79" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="L67" s="63" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M67" s="79" t="s">
         <v>1390</v>
-      </c>
-      <c r="M67" s="79" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16635,24 +16787,24 @@
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="K69" s="79" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L69" s="63" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M69" s="124" t="s">
         <v>1393</v>
-      </c>
-      <c r="L69" s="63" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M69" s="124" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K70" s="79" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L70" s="80" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M70" s="79" t="s">
         <v>1395</v>
-      </c>
-      <c r="L70" s="80" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M70" s="79" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -16660,109 +16812,109 @@
         <v>5.24</v>
       </c>
       <c r="C71" s="129" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F72" s="93" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G72" s="93" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K72" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F72" s="93" t="s">
+      <c r="L72" s="80" t="s">
         <v>1352</v>
       </c>
-      <c r="G72" s="93" t="s">
-        <v>1355</v>
-      </c>
-      <c r="K72" s="79" t="s">
-        <v>1350</v>
-      </c>
-      <c r="L72" s="80" t="s">
+      <c r="M72" s="124" t="s">
         <v>1353</v>
-      </c>
-      <c r="M72" s="124" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="K73" s="85" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L73" s="80" t="s">
         <v>1356</v>
       </c>
-      <c r="L73" s="80" t="s">
+      <c r="M73" s="124" t="s">
         <v>1357</v>
-      </c>
-      <c r="M73" s="124" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K74" s="79" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="L74" s="80" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M74" s="124" t="s">
         <v>1359</v>
-      </c>
-      <c r="M74" s="124" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="93" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G76" s="93" t="s">
         <v>1361</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="K76" s="79" t="s">
         <v>1362</v>
       </c>
-      <c r="K76" s="79" t="s">
+      <c r="L76" s="80" t="s">
         <v>1363</v>
       </c>
-      <c r="L76" s="80" t="s">
+      <c r="M76" s="79" t="s">
         <v>1364</v>
-      </c>
-      <c r="M76" s="79" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K77" s="79" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L77" s="80" t="s">
         <v>1366</v>
       </c>
-      <c r="L77" s="80" t="s">
+      <c r="M77" s="79" t="s">
         <v>1367</v>
-      </c>
-      <c r="M77" s="79" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K78" s="79" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L78" s="80" t="s">
         <v>1369</v>
       </c>
-      <c r="L78" s="80" t="s">
+      <c r="M78" s="79" t="s">
         <v>1370</v>
-      </c>
-      <c r="M78" s="79" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K79" s="79" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="L79" s="63" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M79" s="124" t="s">
         <v>1372</v>
-      </c>
-      <c r="M79" s="124" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="81" spans="3:3" ht="21" x14ac:dyDescent="0.35">
@@ -16807,10 +16959,10 @@
     </row>
     <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="B3" s="122" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C3" s="121" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -16847,13 +16999,13 @@
         <v>362</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K6" s="124" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16872,24 +17024,24 @@
         <v>362</v>
       </c>
       <c r="I8" s="63" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K8" s="124" t="s">
         <v>1409</v>
-      </c>
-      <c r="J8" s="79" t="s">
-        <v>1407</v>
-      </c>
-      <c r="K8" s="124" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I9" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K9" s="124" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16906,13 +17058,13 @@
         <v>362</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J11" s="85" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="K11" s="124" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16926,13 +17078,13 @@
         <v>362</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J12" s="79" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K12" s="124" t="s">
         <v>1413</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16950,22 +17102,22 @@
         <v>362</v>
       </c>
       <c r="I14" s="116" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J14" s="63" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K14" s="124" t="s">
         <v>1415</v>
-      </c>
-      <c r="K14" s="124" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I15" s="63"/>
       <c r="J15" s="79" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16984,13 +17136,13 @@
         <v>362</v>
       </c>
       <c r="I17" s="80" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K17" s="124" t="s">
         <v>1421</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>1420</v>
-      </c>
-      <c r="K17" s="124" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -17004,13 +17156,13 @@
         <v>362</v>
       </c>
       <c r="I18" s="80" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K18" s="124" t="s">
         <v>1424</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17024,15 +17176,15 @@
         <v>362</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J19" s="79" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C20" s="93" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>349</v>
@@ -17041,13 +17193,13 @@
         <v>362</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J20" s="79" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>1428</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17061,13 +17213,13 @@
         <v>362</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J21" s="63" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>1430</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17084,10 +17236,10 @@
         <v>980</v>
       </c>
       <c r="J22" s="63" t="s">
+        <v>1431</v>
+      </c>
+      <c r="K22" s="29" t="s">
         <v>1432</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17110,13 +17262,13 @@
         <v>362</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J25" s="79" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17130,21 +17282,21 @@
         <v>362</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J26" s="79" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I27" s="63" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J27" s="135" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>392</v>
@@ -17189,10 +17341,10 @@
         <v>926</v>
       </c>
       <c r="J32" s="79" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17212,10 +17364,10 @@
         <v>362</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="J33" s="63" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="K33" s="42"/>
     </row>
@@ -17233,10 +17385,10 @@
         <v>362</v>
       </c>
       <c r="I34" s="63" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -17254,26 +17406,26 @@
         <v>362</v>
       </c>
       <c r="I36" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J36" s="126" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I37" s="63" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J37" s="63" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I38" s="63" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="J38" s="63" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17294,18 +17446,18 @@
         <v>362</v>
       </c>
       <c r="I40" s="63" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="I41" s="63" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17326,10 +17478,10 @@
         <v>362</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17346,13 +17498,13 @@
         <v>362</v>
       </c>
       <c r="I44" s="63" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J44" s="79" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K44" s="29" t="s">
         <v>1458</v>
-      </c>
-      <c r="J44" s="79" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17397,13 +17549,13 @@
         <v>362</v>
       </c>
       <c r="I47" s="80" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J47" s="79" t="s">
+        <v>1454</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>1453</v>
-      </c>
-      <c r="J47" s="79" t="s">
-        <v>1455</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17420,13 +17572,13 @@
         <v>362</v>
       </c>
       <c r="I48" s="86" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J48" s="79" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="K48" s="124" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -17443,13 +17595,13 @@
         <v>362</v>
       </c>
       <c r="I49" s="63" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J49" s="79" t="s">
+        <v>1450</v>
+      </c>
+      <c r="K49" s="124" t="s">
         <v>1451</v>
-      </c>
-      <c r="K49" s="124" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17660,7 +17812,7 @@
         <v>439</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17668,7 +17820,7 @@
         <v>440</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17676,7 +17828,7 @@
         <v>441</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17684,7 +17836,7 @@
         <v>436</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17692,7 +17844,7 @@
         <v>442</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17700,7 +17852,7 @@
         <v>443</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17708,7 +17860,7 @@
         <v>444</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17716,7 +17868,7 @@
         <v>445</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17724,7 +17876,7 @@
         <v>446</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17732,7 +17884,7 @@
         <v>447</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17740,7 +17892,7 @@
         <v>448</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17748,7 +17900,7 @@
         <v>449</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -17756,7 +17908,7 @@
         <v>450</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18097,13 +18249,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L299"/>
+  <dimension ref="A3:L302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18181,10 +18333,10 @@
         <v>943</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="L9" s="124" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18201,10 +18353,10 @@
         <v>944</v>
       </c>
       <c r="K10" s="85" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L10" s="124" t="s">
         <v>1474</v>
-      </c>
-      <c r="L10" s="124" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18221,10 +18373,10 @@
         <v>945</v>
       </c>
       <c r="K11" s="79" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L11" s="79" t="s">
         <v>1486</v>
-      </c>
-      <c r="L11" s="79" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18247,10 +18399,10 @@
         <v>946</v>
       </c>
       <c r="K12" s="79" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L12" s="124" t="s">
         <v>1476</v>
-      </c>
-      <c r="L12" s="124" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18267,15 +18419,15 @@
         <v>949</v>
       </c>
       <c r="K13" s="79" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="L13" s="124" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C14" s="93" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>273</v>
@@ -18284,10 +18436,10 @@
         <v>394</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="K14" s="79" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="L14" s="79"/>
     </row>
@@ -18316,10 +18468,10 @@
         <v>394</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="K16" s="79" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18333,10 +18485,10 @@
         <v>394</v>
       </c>
       <c r="G17" s="63" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K17" s="79" t="s">
         <v>1481</v>
-      </c>
-      <c r="K17" s="79" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18348,16 +18500,16 @@
         <v>484</v>
       </c>
       <c r="D19" s="93" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G19" s="63" t="s">
         <v>1490</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="K19" s="79" t="s">
         <v>1491</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="L19" s="124" t="s">
         <v>1492</v>
-      </c>
-      <c r="L19" s="124" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18368,15 +18520,15 @@
         <v>413</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K20" s="63" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K21" s="63" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18414,10 +18566,10 @@
         <v>394</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K25" s="93" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18438,16 +18590,16 @@
         <v>488</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>1002</v>
-      </c>
       <c r="K28" s="79" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="L28" s="124" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18455,22 +18607,22 @@
         <v>489</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>1003</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1004</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>434</v>
       </c>
       <c r="K29" s="79" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="L29" s="124" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18478,10 +18630,10 @@
         <v>490</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18492,35 +18644,35 @@
         <v>491</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K32" s="79" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="L32" s="124" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="G33" s="86" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K33" s="79" t="s">
+        <v>1500</v>
+      </c>
+      <c r="L33" s="124" t="s">
         <v>1501</v>
-      </c>
-      <c r="L33" s="124" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="G34" s="63" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="K34" s="79" t="s">
+        <v>1507</v>
+      </c>
+      <c r="L34" s="124" t="s">
         <v>1508</v>
-      </c>
-      <c r="L34" s="124" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18533,13 +18685,13 @@
         <v>492</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="K36" s="79" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L36" s="124" t="s">
         <v>1510</v>
-      </c>
-      <c r="L36" s="124" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18547,13 +18699,13 @@
         <v>25</v>
       </c>
       <c r="G37" s="86" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K37" s="79" t="s">
         <v>1512</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="L37" s="124" t="s">
         <v>1513</v>
-      </c>
-      <c r="L37" s="124" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -18565,8 +18717,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7.8</v>
       </c>
@@ -18581,6 +18735,12 @@
       </c>
       <c r="G41" s="4" t="s">
         <v>995</v>
+      </c>
+      <c r="K41" s="85" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L41" s="124" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -18591,20 +18751,20 @@
         <v>496</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G42" s="86" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K42" s="79" t="s">
         <v>1515</v>
       </c>
-      <c r="K42" s="79" t="s">
+      <c r="L42" s="124" t="s">
         <v>1516</v>
       </c>
-      <c r="L42" s="124" t="s">
-        <v>1517</v>
-      </c>
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>7.9</v>
       </c>
@@ -18615,10 +18775,13 @@
         <v>497</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="G44" s="4" t="s">
         <v>996</v>
+      </c>
+      <c r="G44" s="80" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K44" s="79" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18628,49 +18791,109 @@
       <c r="D45" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>996</v>
+      <c r="F45" s="93" t="s">
+        <v>997</v>
+      </c>
+      <c r="G45" s="86" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K45" s="93" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="63" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K47" s="63" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" s="80" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K48" s="63" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="K49" s="63" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="K50" s="63" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K51" s="63" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" s="63" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K52" s="63" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>7.11</v>
       </c>
@@ -18680,106 +18903,118 @@
       <c r="D54" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G54" s="80" t="s">
+        <v>999</v>
+      </c>
+      <c r="K54" s="63" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G55" s="80" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K55" s="63" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>508</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C57" s="4" t="s">
+      <c r="G56" s="85" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K56" s="63" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G57" s="80" t="s">
+        <v>1540</v>
+      </c>
+      <c r="K57" s="63" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G58" s="80" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K58" s="63" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G59" s="80"/>
+      <c r="K59" s="63"/>
+    </row>
+    <row r="60" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
+    <row r="61" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>7.12</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>511</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>7.13</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>512</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>514</v>
+        <v>405</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18787,58 +19022,51 @@
         <v>343</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>514</v>
+        <v>405</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>7.15</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="D70" s="28"/>
+        <v>7.14</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
+        <v>343</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>7.16</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>7.15</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>7.16</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>273</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -18846,7 +19074,7 @@
         <v>7.16</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>273</v>
@@ -18857,7 +19085,7 @@
         <v>7.16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>273</v>
@@ -18868,120 +19096,111 @@
         <v>7.16</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="C79" s="120" t="s">
+    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="C82" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="D79" s="28"/>
-    </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="27">
+      <c r="D82" s="28"/>
+    </row>
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="D84" s="25" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C83" s="4" t="s">
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C86" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G86" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C84" s="4" t="s">
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C87" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D87" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F87" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C85" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C88" s="4" t="s">
-        <v>611</v>
+        <v>273</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>834</v>
+        <v>608</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C89" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="C90" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>834</v>
@@ -18993,46 +19212,55 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C91" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
     <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>9.2100000000000009</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G92" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C93" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C94" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
+      <c r="G93" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>9.2100000000000009</v>
+      </c>
       <c r="C95" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>622</v>
@@ -19043,7 +19271,7 @@
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C96" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>622</v>
@@ -19052,9 +19280,9 @@
         <v>834</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C97" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>622</v>
@@ -19063,156 +19291,138 @@
         <v>834</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C98" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C99" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C100" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>622</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C101" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C102" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C103" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C104" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C105" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C106" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C107" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C108" s="4" t="s">
-        <v>1134</v>
+        <v>629</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C109" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>941</v>
-      </c>
+    <row r="110" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C110" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C111" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>273</v>
+        <v>1133</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="I111" s="63" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L111" s="80" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>940</v>
-      </c>
+    </row>
+    <row r="112" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C112" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>273</v>
+        <v>632</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="8">
+        <v>9.2200000000000006</v>
+      </c>
       <c r="B114" s="4" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>273</v>
@@ -19220,16 +19430,22 @@
       <c r="F114" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G114" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="I114" s="63" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L114" s="80" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>636</v>
+        <v>532</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>273</v>
@@ -19240,10 +19456,10 @@
     </row>
     <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>273</v>
@@ -19253,8 +19469,11 @@
       </c>
     </row>
     <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>918</v>
+      </c>
       <c r="C117" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>273</v>
@@ -19265,13 +19484,13 @@
     </row>
     <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>273</v>
@@ -19281,14 +19500,11 @@
       </c>
     </row>
     <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>924</v>
-      </c>
       <c r="B119" s="4" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>273</v>
@@ -19298,14 +19514,8 @@
       </c>
     </row>
     <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>927</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>273</v>
@@ -19313,28 +19523,16 @@
       <c r="F120" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>920</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>273</v>
@@ -19345,10 +19543,13 @@
     </row>
     <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>934</v>
+        <v>924</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>925</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>273</v>
@@ -19359,13 +19560,13 @@
     </row>
     <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>643</v>
+        <v>430</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>273</v>
@@ -19373,13 +19574,28 @@
       <c r="F123" s="4" t="s">
         <v>834</v>
       </c>
+      <c r="G123" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>273</v>
@@ -19389,8 +19605,11 @@
       </c>
     </row>
     <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C125" s="5" t="s">
-        <v>942</v>
+      <c r="A125" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>273</v>
@@ -19401,10 +19620,13 @@
     </row>
     <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>938</v>
+        <v>935</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>936</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>273</v>
@@ -19412,25 +19634,13 @@
       <c r="F126" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="I126" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="L126" s="4" t="s">
-        <v>989</v>
-      </c>
     </row>
     <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>273</v>
@@ -19439,46 +19649,64 @@
         <v>834</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
-        <v>9.23</v>
+    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C128" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>938</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>939</v>
+      </c>
       <c r="C130" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C131" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>9.23</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>273</v>
@@ -19487,9 +19715,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C133" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>273</v>
@@ -19498,9 +19726,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C134" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>273</v>
@@ -19509,9 +19737,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C135" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>273</v>
@@ -19520,13 +19748,20 @@
         <v>647</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
-        <v>9.24</v>
-      </c>
+    <row r="136" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C136" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C137" s="4" t="s">
-        <v>370</v>
+        <v>653</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>273</v>
@@ -19535,9 +19770,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C138" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>273</v>
@@ -19546,102 +19781,125 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
+        <v>9.24</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C141" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>13.6</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E141" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E142" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="G142" s="93" t="s">
-        <v>1218</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E143" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+    <row r="144" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E144" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E145" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G145" s="93" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E146" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>13.5</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G147" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="145" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G145" s="4" t="s">
+    <row r="148" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G148" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="146" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G146" s="4" t="s">
+    <row r="149" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G149" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="147" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G147" s="4" t="s">
+    <row r="150" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G150" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="148" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G148" s="4" t="s">
+    <row r="151" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G151" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="149" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G149" s="4" t="s">
+    <row r="152" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G152" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="150" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G150" s="4" t="s">
+    <row r="153" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G153" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="151" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="161" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="162" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="163" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -19781,8 +20039,11 @@
     <row r="297" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="298" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="299" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="300" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="301" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="302" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A3:L299"/>
+  <autoFilter ref="A3:L302"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20331,10 +20592,10 @@
         <v>569</v>
       </c>
       <c r="H53" s="93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20910,25 +21171,25 @@
         <v>677</v>
       </c>
       <c r="H20" s="44" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I20" s="45" t="s">
         <v>1038</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>1039</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="K20" s="44" t="s">
         <v>1040</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>1041</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>1042</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="N20" s="44" t="s">
         <v>1043</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20936,7 +21197,7 @@
         <v>678</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20944,7 +21205,7 @@
         <v>679</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -20952,10 +21213,10 @@
         <v>680</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="I23" s="44" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21366,22 +21627,22 @@
         <v>727</v>
       </c>
       <c r="H73" s="29" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I73" s="29" t="s">
         <v>1141</v>
       </c>
-      <c r="I73" s="29" t="s">
+      <c r="J73" s="29" t="s">
         <v>1142</v>
       </c>
-      <c r="J73" s="29" t="s">
+      <c r="K73" s="29" t="s">
         <v>1143</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="L73" s="29" t="s">
         <v>1144</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="M73" s="29" t="s">
         <v>1145</v>
-      </c>
-      <c r="M73" s="29" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21392,16 +21653,16 @@
         <v>729</v>
       </c>
       <c r="H74" s="42" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I74" s="42" t="s">
         <v>923</v>
       </c>
       <c r="J74" s="42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K74" s="42" t="s">
         <v>1036</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21412,13 +21673,13 @@
         <v>730</v>
       </c>
       <c r="H75" s="42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I75" s="44" t="s">
         <v>1025</v>
       </c>
-      <c r="I75" s="44" t="s">
+      <c r="J75" s="42" t="s">
         <v>1026</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21443,7 +21704,7 @@
         <v>733</v>
       </c>
       <c r="H77" s="42" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21454,7 +21715,7 @@
         <v>734</v>
       </c>
       <c r="H78" s="44" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21465,16 +21726,16 @@
         <v>735</v>
       </c>
       <c r="H79" s="44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I79" s="42" t="s">
         <v>1031</v>
       </c>
-      <c r="I79" s="42" t="s">
+      <c r="J79" s="43" t="s">
         <v>1032</v>
       </c>
-      <c r="J79" s="43" t="s">
+      <c r="K79" s="43" t="s">
         <v>1033</v>
-      </c>
-      <c r="K79" s="43" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -21493,19 +21754,19 @@
         <v>738</v>
       </c>
       <c r="H81" s="29" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I81" s="29" t="s">
         <v>1165</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="J81" s="29" t="s">
         <v>1166</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="K81" s="29" t="s">
         <v>1167</v>
       </c>
-      <c r="K81" s="29" t="s">
+      <c r="L81" s="29" t="s">
         <v>1168</v>
-      </c>
-      <c r="L81" s="29" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="82" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21516,16 +21777,16 @@
         <v>741</v>
       </c>
       <c r="H82" s="29" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I82" s="29" t="s">
         <v>1170</v>
       </c>
-      <c r="I82" s="29" t="s">
+      <c r="J82" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K82" s="30" t="s">
         <v>1171</v>
-      </c>
-      <c r="J82" s="29" t="s">
-        <v>1029</v>
-      </c>
-      <c r="K82" s="30" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21536,7 +21797,7 @@
         <v>739</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21547,49 +21808,49 @@
         <v>742</v>
       </c>
       <c r="H84" s="29" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I84" s="29" t="s">
         <v>1135</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="J84" s="29" t="s">
         <v>1136</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="K84" s="29" t="s">
         <v>1137</v>
       </c>
-      <c r="K84" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>1138</v>
       </c>
-      <c r="L84" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>1139</v>
       </c>
-      <c r="M84" s="29" t="s">
-        <v>1140</v>
-      </c>
       <c r="N84" s="29" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O84" s="29" t="s">
         <v>1147</v>
       </c>
-      <c r="O84" s="29" t="s">
+      <c r="P84" s="29" t="s">
         <v>1148</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="Q84" s="29" t="s">
         <v>1149</v>
       </c>
-      <c r="Q84" s="29" t="s">
+      <c r="R84" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="R84" s="29" t="s">
+      <c r="S84" s="29" t="s">
         <v>1151</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="T84" s="29" t="s">
         <v>1152</v>
       </c>
-      <c r="T84" s="29" t="s">
+      <c r="U84" s="29" t="s">
         <v>1153</v>
       </c>
-      <c r="U84" s="29" t="s">
+      <c r="V84" s="29" t="s">
         <v>1154</v>
-      </c>
-      <c r="V84" s="29" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21597,28 +21858,28 @@
         <v>742</v>
       </c>
       <c r="H85" s="29" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I85" s="29" t="s">
         <v>1156</v>
       </c>
-      <c r="I85" s="29" t="s">
+      <c r="J85" s="29" t="s">
         <v>1157</v>
       </c>
-      <c r="J85" s="29" t="s">
+      <c r="K85" s="29" t="s">
         <v>1158</v>
       </c>
-      <c r="K85" s="29" t="s">
+      <c r="L85" s="29" t="s">
         <v>1159</v>
       </c>
-      <c r="L85" s="29" t="s">
+      <c r="M85" s="29" t="s">
         <v>1160</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="N85" s="29" t="s">
         <v>1161</v>
       </c>
-      <c r="N85" s="29" t="s">
+      <c r="O85" s="29" t="s">
         <v>1162</v>
-      </c>
-      <c r="O85" s="29" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21629,28 +21890,28 @@
         <v>740</v>
       </c>
       <c r="H86" s="29" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I86" s="29" t="s">
         <v>1173</v>
       </c>
-      <c r="I86" s="29" t="s">
+      <c r="J86" s="29" t="s">
         <v>1174</v>
       </c>
-      <c r="J86" s="29" t="s">
+      <c r="K86" s="29" t="s">
         <v>1175</v>
       </c>
-      <c r="K86" s="29" t="s">
+      <c r="L86" s="29" t="s">
         <v>1176</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="M86" s="29" t="s">
         <v>1177</v>
       </c>
-      <c r="M86" s="29" t="s">
+      <c r="N86" s="29" t="s">
         <v>1178</v>
       </c>
-      <c r="N86" s="29" t="s">
+      <c r="O86" s="29" t="s">
         <v>1179</v>
-      </c>
-      <c r="O86" s="29" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21701,7 +21962,7 @@
         <v>394</v>
       </c>
       <c r="H94" s="45" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="95" spans="1:22" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -21726,7 +21987,7 @@
         <v>394</v>
       </c>
       <c r="H96" s="45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21740,7 +22001,7 @@
         <v>394</v>
       </c>
       <c r="H97" s="45" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21776,13 +22037,13 @@
         <v>394</v>
       </c>
       <c r="H100" s="45" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I100" s="45" t="s">
         <v>1050</v>
       </c>
-      <c r="I100" s="45" t="s">
+      <c r="J100" s="45" t="s">
         <v>1051</v>
-      </c>
-      <c r="J100" s="45" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21800,7 +22061,7 @@
         <v>394</v>
       </c>
       <c r="H102" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21814,7 +22075,7 @@
         <v>394</v>
       </c>
       <c r="H103" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21832,7 +22093,7 @@
         <v>394</v>
       </c>
       <c r="H105" s="45" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21846,7 +22107,7 @@
         <v>394</v>
       </c>
       <c r="H106" s="45" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21875,16 +22136,16 @@
         <v>394</v>
       </c>
       <c r="H109" s="45" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I109" s="45" t="s">
         <v>1055</v>
       </c>
-      <c r="I109" s="45" t="s">
+      <c r="J109" s="45" t="s">
         <v>1056</v>
       </c>
-      <c r="J109" s="45" t="s">
+      <c r="K109" s="45" t="s">
         <v>1057</v>
-      </c>
-      <c r="K109" s="45" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21898,7 +22159,7 @@
         <v>394</v>
       </c>
       <c r="H110" s="45" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -21916,7 +22177,7 @@
         <v>394</v>
       </c>
       <c r="H112" s="45" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21938,7 +22199,7 @@
         <v>394</v>
       </c>
       <c r="H114" s="45" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21963,19 +22224,19 @@
         <v>394</v>
       </c>
       <c r="H117" s="44" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I117" s="44" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J117" s="44" t="s">
         <v>1062</v>
       </c>
-      <c r="J117" s="44" t="s">
+      <c r="K117" s="44" t="s">
         <v>1063</v>
       </c>
-      <c r="K117" s="44" t="s">
+      <c r="L117" s="44" t="s">
         <v>1064</v>
-      </c>
-      <c r="L117" s="44" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -21989,10 +22250,10 @@
         <v>394</v>
       </c>
       <c r="H118" s="44" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I118" s="44" t="s">
         <v>1067</v>
-      </c>
-      <c r="I118" s="44" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22006,7 +22267,7 @@
         <v>394</v>
       </c>
       <c r="H119" s="44" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22020,86 +22281,86 @@
         <v>394</v>
       </c>
       <c r="H120" s="44" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I120" s="44" t="s">
         <v>1070</v>
       </c>
-      <c r="I120" s="44" t="s">
+      <c r="J120" s="44" t="s">
         <v>1071</v>
       </c>
-      <c r="J120" s="44" t="s">
+      <c r="K120" s="44" t="s">
         <v>1072</v>
       </c>
-      <c r="K120" s="44" t="s">
+      <c r="L120" s="44" t="s">
         <v>1073</v>
       </c>
-      <c r="L120" s="44" t="s">
+      <c r="M120" s="44" t="s">
         <v>1074</v>
       </c>
-      <c r="M120" s="44" t="s">
+      <c r="N120" s="44" t="s">
         <v>1075</v>
       </c>
-      <c r="N120" s="44" t="s">
+      <c r="O120" s="44" t="s">
         <v>1076</v>
       </c>
-      <c r="O120" s="44" t="s">
+      <c r="P120" s="44" t="s">
         <v>1077</v>
-      </c>
-      <c r="P120" s="44" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H121" s="44" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I121" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J121" s="44" t="s">
         <v>1079</v>
       </c>
-      <c r="J121" s="44" t="s">
+      <c r="K121" s="44" t="s">
         <v>1080</v>
       </c>
-      <c r="K121" s="44" t="s">
+      <c r="L121" s="44" t="s">
         <v>1081</v>
-      </c>
-      <c r="L121" s="44" t="s">
-        <v>1082</v>
       </c>
       <c r="M121" s="44" t="s">
         <v>955</v>
       </c>
       <c r="N121" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O121" s="44" t="s">
         <v>1083</v>
       </c>
-      <c r="O121" s="44" t="s">
+      <c r="P121" s="44" t="s">
         <v>1084</v>
-      </c>
-      <c r="P121" s="44" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H122" s="44" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I122" s="44" t="s">
         <v>1086</v>
       </c>
-      <c r="I122" s="44" t="s">
+      <c r="J122" s="44" t="s">
         <v>1087</v>
       </c>
-      <c r="J122" s="44" t="s">
+      <c r="K122" s="44" t="s">
         <v>1088</v>
       </c>
-      <c r="K122" s="44" t="s">
+      <c r="L122" s="44" t="s">
         <v>1089</v>
       </c>
-      <c r="L122" s="44" t="s">
+      <c r="M122" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="M122" s="44" t="s">
+      <c r="N122" s="44" t="s">
         <v>1091</v>
       </c>
-      <c r="N122" s="44" t="s">
+      <c r="O122" s="44" t="s">
         <v>1092</v>
-      </c>
-      <c r="O122" s="44" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -22114,19 +22375,19 @@
         <v>768</v>
       </c>
       <c r="H124" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I124" s="44" t="s">
         <v>1094</v>
       </c>
-      <c r="I124" s="44" t="s">
+      <c r="J124" s="44" t="s">
         <v>1095</v>
       </c>
-      <c r="J124" s="44" t="s">
+      <c r="K124" s="44" t="s">
         <v>1096</v>
       </c>
-      <c r="K124" s="44" t="s">
+      <c r="L124" s="44" t="s">
         <v>1097</v>
-      </c>
-      <c r="L124" s="44" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22140,7 +22401,7 @@
         <v>770</v>
       </c>
       <c r="H125" s="44" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22151,13 +22412,13 @@
         <v>772</v>
       </c>
       <c r="H126" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I126" s="43" t="s">
         <v>1099</v>
       </c>
-      <c r="I126" s="43" t="s">
+      <c r="J126" s="43" t="s">
         <v>1100</v>
-      </c>
-      <c r="J126" s="43" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22168,7 +22429,7 @@
         <v>771</v>
       </c>
       <c r="H127" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -22183,10 +22444,10 @@
         <v>774</v>
       </c>
       <c r="H129" s="44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I129" s="44" t="s">
         <v>1104</v>
-      </c>
-      <c r="I129" s="44" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22197,7 +22458,7 @@
         <v>410</v>
       </c>
       <c r="H130" s="44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I130" s="43" t="s">
         <v>918</v>
@@ -22206,10 +22467,10 @@
         <v>944</v>
       </c>
       <c r="K130" s="44" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L130" s="43" t="s">
         <v>1107</v>
-      </c>
-      <c r="L130" s="43" t="s">
-        <v>1108</v>
       </c>
       <c r="M130" s="29" t="s">
         <v>981</v>
@@ -22223,10 +22484,10 @@
         <v>775</v>
       </c>
       <c r="H131" s="44" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I131" s="44" t="s">
         <v>1109</v>
-      </c>
-      <c r="I131" s="44" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22237,13 +22498,13 @@
         <v>776</v>
       </c>
       <c r="H132" s="44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I132" s="44" t="s">
         <v>1111</v>
       </c>
-      <c r="I132" s="44" t="s">
+      <c r="J132" s="44" t="s">
         <v>1112</v>
-      </c>
-      <c r="J132" s="44" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22254,10 +22515,10 @@
         <v>777</v>
       </c>
       <c r="H133" s="44" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I133" s="44" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22271,7 +22532,7 @@
         <v>946</v>
       </c>
       <c r="I134" s="44" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22282,22 +22543,22 @@
         <v>779</v>
       </c>
       <c r="H135" s="46" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I135" s="46" t="s">
         <v>1116</v>
       </c>
-      <c r="I135" s="46" t="s">
+      <c r="J135" s="46" t="s">
         <v>1117</v>
       </c>
-      <c r="J135" s="46" t="s">
+      <c r="K135" s="46" t="s">
         <v>1118</v>
       </c>
-      <c r="K135" s="46" t="s">
+      <c r="L135" s="43" t="s">
         <v>1119</v>
       </c>
-      <c r="L135" s="43" t="s">
+      <c r="M135" s="46" t="s">
         <v>1120</v>
-      </c>
-      <c r="M135" s="46" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="136" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -22336,7 +22597,7 @@
         <v>410</v>
       </c>
       <c r="H141" s="44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22347,7 +22608,7 @@
         <v>410</v>
       </c>
       <c r="H142" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -22426,7 +22687,7 @@
     </row>
     <row r="158" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="D158" s="32" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="159" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
@@ -22622,7 +22883,7 @@
         <v>11.18</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>833</v>
@@ -23072,60 +23333,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="126" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C3" t="s">
         <v>1284</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="126" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C6" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="126" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C10" t="s">
         <v>1292</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="126" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C12" t="s">
         <v>946</v>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$302</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$109</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vowel Elongation'!$A$11:$N$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Visargam Exception'!$A$2:$G$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vowel Elongation'!$A$11:$N$206</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1563">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -8344,6 +8344,229 @@
   </si>
   <si>
     <t xml:space="preserve">rakShOhaNamiti rakShaH - hanam | </t>
+  </si>
+  <si>
+    <t>dArvAGATa iti dAru - AGAtaH | tE | vanaspatInAm |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5.15.1 </t>
+  </si>
+  <si>
+    <r>
+      <t>hA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sti vA</t>
+    </r>
+  </si>
+  <si>
+    <t>2.4.12.3</t>
+  </si>
+  <si>
+    <t>2.5.2.3</t>
+  </si>
+  <si>
+    <t>4.2.5.2</t>
+  </si>
+  <si>
+    <r>
+      <t>yOnAva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ruKA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>yOnau | aBA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">KA | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>hA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sti | vai |</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>prEti | hA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H | A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">vam | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pra hA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | nAma | vaH | hitam | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NAma vO hitaM</t>
+    </r>
+  </si>
+  <si>
+    <t>| hAH | asti | vai |</t>
+  </si>
+  <si>
+    <t>2.4.12.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6.7.3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OShadhIrajIgaH | </t>
+  </si>
+  <si>
+    <t>OShadhIH | ajIgaH | anviti |</t>
+  </si>
+  <si>
+    <t>Elogated in samhita, shortned in pada paadam</t>
+  </si>
+  <si>
+    <t>1.4.19.1</t>
+  </si>
+  <si>
+    <t>1.4.22.1</t>
   </si>
 </sst>
 </file>
@@ -8776,7 +8999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9057,6 +9280,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9337,10 +9567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N210"/>
+  <dimension ref="A2:N211"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11341,15 +11571,11 @@
       <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="B100" s="15">
-        <v>1</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="54"/>
       <c r="F100" s="52"/>
@@ -11363,15 +11589,15 @@
       <c r="N100" s="13"/>
     </row>
     <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
+      <c r="A101" s="15">
+        <v>3.8</v>
+      </c>
       <c r="B101" s="15">
-        <f t="shared" ref="B101:B129" si="3">+B100+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="15"/>
+        <v>83</v>
+      </c>
       <c r="E101" s="54"/>
       <c r="F101" s="52"/>
       <c r="G101" s="75"/>
@@ -11386,11 +11612,11 @@
     <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" ref="B102:B130" si="3">+B101+1</f>
+        <v>2</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="54"/>
@@ -11408,10 +11634,10 @@
       <c r="A103" s="15"/>
       <c r="B103" s="15">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="54"/>
@@ -11429,10 +11655,10 @@
       <c r="A104" s="15"/>
       <c r="B104" s="15">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="54"/>
@@ -11450,10 +11676,10 @@
       <c r="A105" s="15"/>
       <c r="B105" s="15">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="54"/>
@@ -11471,10 +11697,10 @@
       <c r="A106" s="15"/>
       <c r="B106" s="15">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="54"/>
@@ -11492,10 +11718,10 @@
       <c r="A107" s="15"/>
       <c r="B107" s="15">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="54"/>
@@ -11513,10 +11739,10 @@
       <c r="A108" s="15"/>
       <c r="B108" s="15">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>913</v>
+        <v>86</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="54"/>
@@ -11534,10 +11760,10 @@
       <c r="A109" s="15"/>
       <c r="B109" s="15">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="54"/>
@@ -11555,10 +11781,10 @@
       <c r="A110" s="15"/>
       <c r="B110" s="15">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>87</v>
+        <v>914</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="54"/>
@@ -11576,10 +11802,10 @@
       <c r="A111" s="15"/>
       <c r="B111" s="15">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="54"/>
@@ -11597,10 +11823,10 @@
       <c r="A112" s="15"/>
       <c r="B112" s="15">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="54"/>
@@ -11618,12 +11844,14 @@
       <c r="A113" s="15"/>
       <c r="B113" s="15">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D113" s="15"/>
+        <v>89</v>
+      </c>
+      <c r="D113" s="139" t="s">
+        <v>1561</v>
+      </c>
       <c r="E113" s="54"/>
       <c r="F113" s="52"/>
       <c r="G113" s="75"/>
@@ -11639,10 +11867,10 @@
       <c r="A114" s="15"/>
       <c r="B114" s="15">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D114" s="15"/>
       <c r="E114" s="54"/>
@@ -11660,10 +11888,10 @@
       <c r="A115" s="15"/>
       <c r="B115" s="15">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="54"/>
@@ -11681,10 +11909,10 @@
       <c r="A116" s="15"/>
       <c r="B116" s="15">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="54"/>
@@ -11702,10 +11930,10 @@
       <c r="A117" s="15"/>
       <c r="B117" s="15">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="54"/>
@@ -11720,13 +11948,13 @@
       <c r="N117" s="13"/>
     </row>
     <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="15">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D118" s="15"/>
       <c r="E118" s="54"/>
@@ -11744,10 +11972,10 @@
       <c r="A119" s="13"/>
       <c r="B119" s="15">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="54"/>
@@ -11765,10 +11993,10 @@
       <c r="A120" s="13"/>
       <c r="B120" s="15">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="54"/>
@@ -11786,10 +12014,10 @@
       <c r="A121" s="13"/>
       <c r="B121" s="15">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D121" s="15"/>
       <c r="E121" s="54"/>
@@ -11807,10 +12035,10 @@
       <c r="A122" s="13"/>
       <c r="B122" s="15">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="54"/>
@@ -11828,10 +12056,10 @@
       <c r="A123" s="13"/>
       <c r="B123" s="15">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="54"/>
@@ -11849,10 +12077,10 @@
       <c r="A124" s="13"/>
       <c r="B124" s="15">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="54"/>
@@ -11870,10 +12098,10 @@
       <c r="A125" s="13"/>
       <c r="B125" s="15">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="54"/>
@@ -11891,10 +12119,10 @@
       <c r="A126" s="13"/>
       <c r="B126" s="15">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="54"/>
@@ -11912,10 +12140,10 @@
       <c r="A127" s="13"/>
       <c r="B127" s="15">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D127" s="15"/>
       <c r="E127" s="54"/>
@@ -11933,10 +12161,10 @@
       <c r="A128" s="13"/>
       <c r="B128" s="15">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="54"/>
@@ -11954,10 +12182,10 @@
       <c r="A129" s="13"/>
       <c r="B129" s="15">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="54"/>
@@ -11971,20 +12199,17 @@
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
     </row>
-    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A130" s="20">
-        <v>3.9</v>
-      </c>
-      <c r="B130" s="13"/>
+    <row r="130" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="15">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
       <c r="C130" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>888</v>
-      </c>
-      <c r="E130" s="54" t="s">
-        <v>108</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D130" s="15"/>
+      <c r="E130" s="54"/>
       <c r="F130" s="52"/>
       <c r="G130" s="75"/>
       <c r="H130" s="65"/>
@@ -11995,12 +12220,20 @@
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
     </row>
-    <row r="131" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="54"/>
+    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+      <c r="A131" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="E131" s="54" t="s">
+        <v>108</v>
+      </c>
       <c r="F131" s="52"/>
       <c r="G131" s="75"/>
       <c r="H131" s="65"/>
@@ -12012,15 +12245,9 @@
       <c r="N131" s="13"/>
     </row>
     <row r="132" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A132" s="22">
-        <v>3.1</v>
-      </c>
-      <c r="B132" s="15">
-        <v>1</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="54"/>
       <c r="F132" s="52"/>
@@ -12034,13 +12261,14 @@
       <c r="N132" s="13"/>
     </row>
     <row r="133" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
+      <c r="A133" s="22">
+        <v>3.1</v>
+      </c>
       <c r="B133" s="15">
-        <f t="shared" ref="B133:B157" si="4">+B132+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="54"/>
@@ -12057,11 +12285,11 @@
     <row r="134" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="15">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f t="shared" ref="B134:B158" si="4">+B133+1</f>
+        <v>2</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="54"/>
@@ -12079,10 +12307,10 @@
       <c r="A135" s="15"/>
       <c r="B135" s="15">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="54"/>
@@ -12100,10 +12328,10 @@
       <c r="A136" s="15"/>
       <c r="B136" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="54"/>
@@ -12121,10 +12349,10 @@
       <c r="A137" s="15"/>
       <c r="B137" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="54"/>
@@ -12142,10 +12370,10 @@
       <c r="A138" s="15"/>
       <c r="B138" s="15">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D138" s="15"/>
       <c r="E138" s="54"/>
@@ -12163,10 +12391,10 @@
       <c r="A139" s="15"/>
       <c r="B139" s="15">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="54"/>
@@ -12184,10 +12412,10 @@
       <c r="A140" s="15"/>
       <c r="B140" s="15">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="54"/>
@@ -12205,10 +12433,10 @@
       <c r="A141" s="15"/>
       <c r="B141" s="15">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="54"/>
@@ -12226,10 +12454,10 @@
       <c r="A142" s="15"/>
       <c r="B142" s="15">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="54"/>
@@ -12247,10 +12475,10 @@
       <c r="A143" s="15"/>
       <c r="B143" s="15">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D143" s="15"/>
       <c r="E143" s="54"/>
@@ -12268,10 +12496,10 @@
       <c r="A144" s="15"/>
       <c r="B144" s="15">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D144" s="15"/>
       <c r="E144" s="54"/>
@@ -12279,8 +12507,8 @@
       <c r="G144" s="75"/>
       <c r="H144" s="65"/>
       <c r="I144" s="57"/>
-      <c r="J144" s="57"/>
-      <c r="K144" s="13"/>
+      <c r="J144" s="58"/>
+      <c r="K144" s="15"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
@@ -12289,10 +12517,10 @@
       <c r="A145" s="15"/>
       <c r="B145" s="15">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D145" s="15"/>
       <c r="E145" s="54"/>
@@ -12310,10 +12538,10 @@
       <c r="A146" s="15"/>
       <c r="B146" s="15">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="54"/>
@@ -12331,10 +12559,10 @@
       <c r="A147" s="15"/>
       <c r="B147" s="15">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D147" s="15"/>
       <c r="E147" s="54"/>
@@ -12352,10 +12580,10 @@
       <c r="A148" s="15"/>
       <c r="B148" s="15">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D148" s="15"/>
       <c r="E148" s="54"/>
@@ -12373,10 +12601,10 @@
       <c r="A149" s="15"/>
       <c r="B149" s="15">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="54"/>
@@ -12394,10 +12622,10 @@
       <c r="A150" s="15"/>
       <c r="B150" s="15">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="54"/>
@@ -12415,10 +12643,10 @@
       <c r="A151" s="15"/>
       <c r="B151" s="15">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D151" s="15"/>
       <c r="E151" s="54"/>
@@ -12436,10 +12664,10 @@
       <c r="A152" s="15"/>
       <c r="B152" s="15">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="54"/>
@@ -12457,10 +12685,10 @@
       <c r="A153" s="15"/>
       <c r="B153" s="15">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="54"/>
@@ -12478,10 +12706,10 @@
       <c r="A154" s="15"/>
       <c r="B154" s="15">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="54"/>
@@ -12499,10 +12727,10 @@
       <c r="A155" s="15"/>
       <c r="B155" s="15">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D155" s="15"/>
       <c r="E155" s="54"/>
@@ -12520,10 +12748,10 @@
       <c r="A156" s="15"/>
       <c r="B156" s="15">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="54"/>
@@ -12541,10 +12769,10 @@
       <c r="A157" s="15"/>
       <c r="B157" s="15">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>911</v>
+        <v>131</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="54"/>
@@ -12560,8 +12788,13 @@
     </row>
     <row r="158" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
+      <c r="B158" s="15">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>911</v>
+      </c>
       <c r="D158" s="15"/>
       <c r="E158" s="54"/>
       <c r="F158" s="52"/>
@@ -12575,21 +12808,11 @@
       <c r="N158" s="13"/>
     </row>
     <row r="159" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A159" s="15">
-        <v>3.11</v>
-      </c>
-      <c r="B159" s="15">
-        <v>1</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>889</v>
-      </c>
-      <c r="E159" s="54" t="s">
-        <v>135</v>
-      </c>
+      <c r="A159" s="15"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="54"/>
       <c r="F159" s="52"/>
       <c r="G159" s="75"/>
       <c r="H159" s="65"/>
@@ -12601,11 +12824,21 @@
       <c r="N159" s="13"/>
     </row>
     <row r="160" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="54"/>
+      <c r="A160" s="15">
+        <v>3.11</v>
+      </c>
+      <c r="B160" s="15">
+        <v>1</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="E160" s="54" t="s">
+        <v>135</v>
+      </c>
       <c r="F160" s="52"/>
       <c r="G160" s="75"/>
       <c r="H160" s="65"/>
@@ -12617,15 +12850,9 @@
       <c r="N160" s="13"/>
     </row>
     <row r="161" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A161" s="15">
-        <v>3.12</v>
-      </c>
-      <c r="B161" s="15">
-        <v>1</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>139</v>
-      </c>
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="54"/>
       <c r="F161" s="52"/>
@@ -12639,13 +12866,14 @@
       <c r="N161" s="13"/>
     </row>
     <row r="162" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="15"/>
+      <c r="A162" s="15">
+        <v>3.12</v>
+      </c>
       <c r="B162" s="15">
-        <f t="shared" ref="B162:B182" si="5">+B161+1</f>
-        <v>2</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>915</v>
+        <v>1</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="D162" s="15"/>
       <c r="E162" s="54"/>
@@ -12659,35 +12887,37 @@
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
     </row>
-    <row r="163" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
       <c r="B163" s="15">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" ref="B163:B183" si="5">+B162+1</f>
+        <v>2</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>136</v>
+        <v>915</v>
       </c>
       <c r="D163" s="15"/>
-      <c r="E163" s="54"/>
+      <c r="E163" s="140" t="s">
+        <v>1562</v>
+      </c>
       <c r="F163" s="52"/>
       <c r="G163" s="75"/>
       <c r="H163" s="65"/>
       <c r="I163" s="57"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="N163" s="13"/>
     </row>
     <row r="164" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="54"/>
@@ -12705,10 +12935,10 @@
       <c r="A165" s="15"/>
       <c r="B165" s="15">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="54"/>
@@ -12726,10 +12956,10 @@
       <c r="A166" s="15"/>
       <c r="B166" s="15">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D166" s="15"/>
       <c r="E166" s="54"/>
@@ -12747,10 +12977,10 @@
       <c r="A167" s="15"/>
       <c r="B167" s="15">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D167" s="15"/>
       <c r="E167" s="54"/>
@@ -12768,10 +12998,10 @@
       <c r="A168" s="15"/>
       <c r="B168" s="15">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D168" s="15"/>
       <c r="E168" s="54"/>
@@ -12789,10 +13019,10 @@
       <c r="A169" s="15"/>
       <c r="B169" s="15">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="54"/>
@@ -12810,10 +13040,10 @@
       <c r="A170" s="15"/>
       <c r="B170" s="15">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="54"/>
@@ -12831,10 +13061,10 @@
       <c r="A171" s="15"/>
       <c r="B171" s="15">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="54"/>
@@ -12852,10 +13082,10 @@
       <c r="A172" s="15"/>
       <c r="B172" s="15">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="54"/>
@@ -12873,10 +13103,10 @@
       <c r="A173" s="15"/>
       <c r="B173" s="15">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="54"/>
@@ -12894,10 +13124,10 @@
       <c r="A174" s="15"/>
       <c r="B174" s="15">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="54"/>
@@ -12915,10 +13145,10 @@
       <c r="A175" s="15"/>
       <c r="B175" s="15">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="54"/>
@@ -12936,10 +13166,10 @@
       <c r="A176" s="15"/>
       <c r="B176" s="15">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D176" s="15"/>
       <c r="E176" s="54"/>
@@ -12957,10 +13187,10 @@
       <c r="A177" s="15"/>
       <c r="B177" s="15">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D177" s="15"/>
       <c r="E177" s="54"/>
@@ -12978,10 +13208,10 @@
       <c r="A178" s="15"/>
       <c r="B178" s="15">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="54"/>
@@ -12999,10 +13229,10 @@
       <c r="A179" s="15"/>
       <c r="B179" s="15">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="54"/>
@@ -13020,10 +13250,10 @@
       <c r="A180" s="15"/>
       <c r="B180" s="15">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="54"/>
@@ -13041,10 +13271,10 @@
       <c r="A181" s="15"/>
       <c r="B181" s="15">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="54"/>
@@ -13062,10 +13292,10 @@
       <c r="A182" s="15"/>
       <c r="B182" s="15">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="54"/>
@@ -13081,8 +13311,13 @@
     </row>
     <row r="183" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
+      <c r="B183" s="15">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="D183" s="15"/>
       <c r="E183" s="54"/>
       <c r="F183" s="52"/>
@@ -13096,15 +13331,9 @@
       <c r="N183" s="15"/>
     </row>
     <row r="184" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A184" s="15">
-        <v>3.13</v>
-      </c>
-      <c r="B184" s="15">
-        <v>1</v>
-      </c>
-      <c r="C184" s="17" t="s">
-        <v>159</v>
-      </c>
+      <c r="A184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="54"/>
       <c r="F184" s="52"/>
@@ -13118,13 +13347,14 @@
       <c r="N184" s="15"/>
     </row>
     <row r="185" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
+      <c r="A185" s="15">
+        <v>3.13</v>
+      </c>
       <c r="B185" s="15">
-        <f>+B184+1</f>
-        <v>2</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="54"/>
@@ -13142,10 +13372,10 @@
       <c r="A186" s="15"/>
       <c r="B186" s="15">
         <f>+B185+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="54"/>
@@ -13163,10 +13393,10 @@
       <c r="A187" s="15"/>
       <c r="B187" s="15">
         <f>+B186+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="54"/>
@@ -13184,10 +13414,10 @@
       <c r="A188" s="15"/>
       <c r="B188" s="15">
         <f>+B187+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="54"/>
@@ -13203,8 +13433,13 @@
     </row>
     <row r="189" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
+      <c r="B189" s="15">
+        <f>+B188+1</f>
+        <v>5</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>158</v>
+      </c>
       <c r="D189" s="15"/>
       <c r="E189" s="54"/>
       <c r="F189" s="52"/>
@@ -13218,15 +13453,9 @@
       <c r="N189" s="15"/>
     </row>
     <row r="190" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A190" s="15">
-        <v>3.14</v>
-      </c>
-      <c r="B190" s="15">
-        <v>1</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>164</v>
-      </c>
+      <c r="A190" s="15"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="54"/>
       <c r="F190" s="52"/>
@@ -13240,13 +13469,14 @@
       <c r="N190" s="15"/>
     </row>
     <row r="191" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
+      <c r="A191" s="15">
+        <v>3.14</v>
+      </c>
       <c r="B191" s="15">
-        <f>+B190+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="54"/>
@@ -13264,10 +13494,10 @@
       <c r="A192" s="15"/>
       <c r="B192" s="15">
         <f>+B191+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="54"/>
@@ -13285,10 +13515,10 @@
       <c r="A193" s="15"/>
       <c r="B193" s="15">
         <f>+B192+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="54"/>
@@ -13306,10 +13536,10 @@
       <c r="A194" s="15"/>
       <c r="B194" s="15">
         <f>+B193+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="54"/>
@@ -13327,10 +13557,10 @@
       <c r="A195" s="15"/>
       <c r="B195" s="15">
         <f>+B194+1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="54"/>
@@ -13346,8 +13576,13 @@
     </row>
     <row r="196" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
+      <c r="B196" s="15">
+        <f>+B195+1</f>
+        <v>6</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>163</v>
+      </c>
       <c r="D196" s="15"/>
       <c r="E196" s="54"/>
       <c r="F196" s="52"/>
@@ -13360,22 +13595,12 @@
       <c r="M196" s="15"/>
       <c r="N196" s="15"/>
     </row>
-    <row r="197" spans="1:14" s="4" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="15">
-        <v>3.15</v>
-      </c>
-      <c r="B197" s="15">
-        <v>1</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E197" s="53" t="s">
-        <v>170</v>
-      </c>
+    <row r="197" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="54"/>
       <c r="F197" s="52"/>
       <c r="G197" s="75"/>
       <c r="H197" s="65"/>
@@ -13386,12 +13611,22 @@
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
     </row>
-    <row r="198" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="54"/>
+    <row r="198" spans="1:14" s="4" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15">
+        <v>3.15</v>
+      </c>
+      <c r="B198" s="15">
+        <v>1</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E198" s="53" t="s">
+        <v>170</v>
+      </c>
       <c r="F198" s="52"/>
       <c r="G198" s="75"/>
       <c r="H198" s="65"/>
@@ -13515,7 +13750,20 @@
       <c r="N205" s="15"/>
     </row>
     <row r="206" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G206" s="29"/>
+      <c r="A206" s="15"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="75"/>
+      <c r="H206" s="65"/>
+      <c r="I206" s="57"/>
+      <c r="J206" s="58"/>
+      <c r="K206" s="15"/>
+      <c r="L206" s="15"/>
+      <c r="M206" s="15"/>
+      <c r="N206" s="15"/>
     </row>
     <row r="207" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G207" s="29"/>
@@ -13529,8 +13777,11 @@
     <row r="210" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="G210" s="29"/>
     </row>
+    <row r="211" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G211" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A11:N205"/>
+  <autoFilter ref="A11:N206"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -18251,11 +18502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18994,7 +19245,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
         <v>510</v>
       </c>
@@ -19002,8 +19253,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>7.13</v>
       </c>
@@ -19016,8 +19267,15 @@
       <c r="F67" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="J67" s="63" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K67" s="115" t="s">
+        <v>1542</v>
+      </c>
+      <c r="L67" s="138"/>
+    </row>
+    <row r="68" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C68" s="4" t="s">
         <v>343</v>
       </c>
@@ -19028,8 +19286,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>7.14</v>
       </c>
@@ -19043,7 +19301,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
         <v>343</v>
       </c>
@@ -19054,8 +19312,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>7.15</v>
       </c>
@@ -19064,12 +19322,12 @@
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>7.16</v>
       </c>
@@ -19080,7 +19338,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>7.16</v>
       </c>
@@ -19091,7 +19349,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>7.16</v>
       </c>
@@ -19102,7 +19360,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>7.16</v>
       </c>
@@ -19113,7 +19371,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>7.16</v>
       </c>
@@ -19124,7 +19382,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>7.16</v>
       </c>
@@ -20051,13 +20309,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I109"/>
+  <dimension ref="A2:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D100" sqref="D100"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20066,24 +20324,25 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>524</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -20101,7 +20360,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -20114,8 +20373,17 @@
       <c r="F6" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G6" s="63" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f>+B6+1</f>
         <v>2</v>
@@ -20126,10 +20394,19 @@
       <c r="F7" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G7" s="63" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>1549</v>
+      </c>
+      <c r="I7" s="124" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
-        <f t="shared" ref="B8:B32" si="0">+B7+1</f>
+        <f t="shared" ref="B8:B34" si="0">+B7+1</f>
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -20138,8 +20415,17 @@
       <c r="F8" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G8" s="63" t="s">
+        <v>949</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I8" s="124" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -20150,86 +20436,92 @@
       <c r="F9" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <f t="shared" si="0"/>
+      <c r="G9" s="63" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G10" s="86" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I10" s="124" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <f>+B9+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C12" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="G13" s="63" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>529</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>356</v>
@@ -20238,10 +20530,10 @@
     <row r="17" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>356</v>
@@ -20250,10 +20542,10 @@
     <row r="18" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>533</v>
+        <v>358</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>356</v>
@@ -20262,10 +20554,10 @@
     <row r="19" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>356</v>
@@ -20274,10 +20566,10 @@
     <row r="20" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>356</v>
@@ -20286,10 +20578,10 @@
     <row r="21" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>356</v>
@@ -20298,10 +20590,10 @@
     <row r="22" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>356</v>
@@ -20310,10 +20602,10 @@
     <row r="23" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>356</v>
@@ -20322,10 +20614,10 @@
     <row r="24" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>356</v>
@@ -20334,10 +20626,10 @@
     <row r="25" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>356</v>
@@ -20346,10 +20638,10 @@
     <row r="26" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>356</v>
@@ -20358,10 +20650,10 @@
     <row r="27" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>545</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>356</v>
@@ -20370,10 +20662,10 @@
     <row r="28" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>356</v>
@@ -20382,10 +20674,10 @@
     <row r="29" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>549</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>356</v>
@@ -20394,10 +20686,10 @@
     <row r="30" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>356</v>
@@ -20406,130 +20698,132 @@
     <row r="31" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>8.9</v>
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>8.9</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>8.1</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>553</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>8.11</v>
+      <c r="A39" s="27">
+        <v>8.1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>8.1199999999999992</v>
+        <v>8.11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>8.1300000000000008</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>8.1300000000000008</v>
+      </c>
       <c r="C45" s="4" t="s">
-        <v>358</v>
+        <v>559</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>356</v>
@@ -20538,191 +20832,197 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="C47" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>8.14</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C48" s="4" t="s">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>8.15</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>564</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>8.15</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>8.23</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="H53" s="93" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E54" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E55" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+      <c r="H55" s="93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="E57" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>8.24</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C59" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C66" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C67" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C68" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>8.25</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E70" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E71" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>8.26</v>
-      </c>
       <c r="E72" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>8.26</v>
+      </c>
       <c r="E74" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>349</v>
@@ -20730,7 +21030,7 @@
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E75" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>349</v>
@@ -20738,7 +21038,7 @@
     </row>
     <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E76" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>349</v>
@@ -20746,120 +21046,120 @@
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E77" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>8.27</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>588</v>
-      </c>
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="E79" s="4" t="s">
-        <v>486</v>
+        <v>587</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C80" s="4" t="s">
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C82" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="F83" s="4" t="s">
+    <row r="83" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="27">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>8.31</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C87" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C87" s="38" t="s">
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C89" s="38" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>8.32</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C89" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C90" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>905</v>
@@ -20867,7 +21167,7 @@
     </row>
     <row r="91" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C91" s="4" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>905</v>
@@ -20875,102 +21175,118 @@
     </row>
     <row r="92" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C92" s="4" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="C93" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C94" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>8.33</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E94" s="4" t="s">
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E96" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>8.34</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E97" s="4" t="s">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="E99" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="27">
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="27">
         <v>8.35</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A100" s="32">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="32">
         <v>9.16</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>9.17</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>9.17</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>599</v>
       </c>
+      <c r="D102" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="E102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G104" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="105" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="106" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="107" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:G109"/>
+  <autoFilter ref="A2:G111"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="others" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Chatper 5'!$A$2:$J$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'n to N'!$A$3:$L$302</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Paragraha!$A$2:$N$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s to Sh'!$A$2:$Q$118</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1577">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -8567,6 +8567,125 @@
   </si>
   <si>
     <t>1.4.22.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.8.2 </t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m | m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">andrAsu | prayasaH | </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">andrAsu prayasaH </t>
+    </r>
+  </si>
+  <si>
+    <t>4.6.5.3</t>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>t ta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BAna</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> uditi | st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">aBAna | </t>
+    </r>
+  </si>
+  <si>
+    <t>eShaH | agnE |</t>
+  </si>
+  <si>
+    <t>hyEShO&amp;gnE</t>
+  </si>
+  <si>
+    <t>no lopa examples</t>
+  </si>
+  <si>
+    <t>eShO&amp;smA</t>
+  </si>
+  <si>
+    <t>| eShaH | asmAt |</t>
+  </si>
+  <si>
+    <t>| eShaH | anviti |</t>
+  </si>
+  <si>
+    <t>5.4.6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyEShO&amp;nu </t>
   </si>
 </sst>
 </file>
@@ -8999,7 +9118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9287,6 +9406,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9569,7 +9691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+    <sheetView topLeftCell="B151" workbookViewId="0">
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
@@ -13791,7 +13913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N226"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -16030,13 +16152,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N81"/>
+  <dimension ref="A2:N83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16050,7 +16172,7 @@
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="44.85546875" customWidth="1"/>
     <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
@@ -16359,7 +16481,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>5.12</v>
       </c>
@@ -16371,6 +16493,15 @@
       </c>
       <c r="F23" s="4" t="s">
         <v>365</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>1564</v>
+      </c>
+      <c r="L23" s="124" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M23" s="63" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -16451,30 +16582,30 @@
       <c r="K28" s="79" t="s">
         <v>1314</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="L28" s="80" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M28" s="124" t="s">
         <v>1315</v>
-      </c>
-      <c r="M28" s="80" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K29" s="79" t="s">
         <v>1317</v>
       </c>
-      <c r="L29" s="124" t="s">
+      <c r="L29" s="86" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M29" s="124" t="s">
         <v>1318</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K30" s="79"/>
-      <c r="L30" s="124"/>
-      <c r="M30" s="80"/>
-    </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="L30" s="80"/>
+      <c r="M30" s="124"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>5.14</v>
       </c>
@@ -16493,8 +16624,17 @@
       <c r="I31" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="K31" s="79" t="s">
+        <v>1568</v>
+      </c>
+      <c r="L31" s="63" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M31" s="124" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="36.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>5.15</v>
       </c>
@@ -16507,96 +16647,90 @@
       <c r="I32" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>369</v>
+      <c r="J32" s="141" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K32" s="63" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K33" s="63" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L33" s="80" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>887</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="K34" s="79" t="s">
-        <v>1320</v>
-      </c>
-      <c r="L34" s="80" t="s">
-        <v>1321</v>
-      </c>
-      <c r="M34" s="124" t="s">
-        <v>1322</v>
+      <c r="K34" s="63" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L34" s="86" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M34" s="86" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>5.16</v>
+        <v>5.15</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>376</v>
+        <v>887</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="K36" s="79" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="L36" s="80" t="s">
-        <v>926</v>
+        <v>1321</v>
       </c>
       <c r="M36" s="124" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="K37" s="79" t="s">
-        <v>1325</v>
-      </c>
-      <c r="L37" s="80" t="s">
-        <v>1326</v>
-      </c>
-      <c r="M37" s="124" t="s">
-        <v>1327</v>
+        <v>375</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16607,16 +16741,16 @@
         <v>373</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K38" s="79" t="s">
-        <v>1328</v>
-      </c>
-      <c r="L38" s="63" t="s">
-        <v>1329</v>
+        <v>1323</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>926</v>
       </c>
       <c r="M38" s="124" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16627,16 +16761,16 @@
         <v>373</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K39" s="79" t="s">
-        <v>1332</v>
-      </c>
-      <c r="L39" s="86" t="s">
-        <v>1334</v>
+        <v>1325</v>
+      </c>
+      <c r="L39" s="80" t="s">
+        <v>1326</v>
       </c>
       <c r="M39" s="124" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
@@ -16647,192 +16781,192 @@
         <v>373</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K40" s="79" t="s">
-        <v>1336</v>
-      </c>
-      <c r="L40" s="79" t="s">
-        <v>1337</v>
+        <v>1328</v>
+      </c>
+      <c r="L40" s="63" t="s">
+        <v>1329</v>
       </c>
       <c r="M40" s="124" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
+      <c r="A41" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K41" s="79" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L41" s="86" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M41" s="124" t="s">
+        <v>1333</v>
+      </c>
     </row>
     <row r="42" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" s="79" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L42" s="79" t="s">
+        <v>1337</v>
+      </c>
+      <c r="M42" s="124" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>5.18</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="K42" s="63" t="s">
+      <c r="K44" s="63" t="s">
         <v>1463</v>
       </c>
-      <c r="L42" s="80" t="s">
+      <c r="L44" s="80" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K43" s="63" t="s">
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K45" s="63" t="s">
         <v>1465</v>
       </c>
-      <c r="L43" s="63" t="s">
+      <c r="L45" s="63" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>5.19</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="K45" s="63" t="s">
+      <c r="K47" s="63" t="s">
         <v>1459</v>
       </c>
-      <c r="L45" s="86" t="s">
+      <c r="L47" s="86" t="s">
         <v>1461</v>
       </c>
-      <c r="M45" s="124" t="s">
+      <c r="M47" s="124" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C46" s="4" t="s">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="K46" s="63"/>
-      <c r="M46" s="29"/>
-    </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="G47" s="132" t="s">
+      <c r="K48" s="63"/>
+      <c r="M48" s="29"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="G49" s="132" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
         <v>5.2</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="133" t="s">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="133" t="s">
         <v>342</v>
       </c>
-      <c r="G48" s="133" t="s">
+      <c r="G50" s="133" t="s">
         <v>343</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="4" t="s">
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="C49" s="79" t="s">
+      <c r="C51" s="79" t="s">
         <v>1340</v>
       </c>
-      <c r="D49" s="124" t="s">
+      <c r="D51" s="124" t="s">
         <v>1341</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="27"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="124"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="128"/>
-      <c r="C51" s="130" t="s">
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="27"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="124"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="128"/>
+      <c r="C53" s="130" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>5.21</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H52" s="93" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C53" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K53" s="79" t="s">
-        <v>1402</v>
-      </c>
-      <c r="M53" s="124" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C54" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>392</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>1010</v>
+      <c r="H54" s="93" t="s">
+        <v>1006</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="K54" s="79" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>392</v>
@@ -16841,12 +16975,18 @@
         <v>342</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>1009</v>
+        <v>1005</v>
+      </c>
+      <c r="K55" s="79" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M55" s="124" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>392</v>
@@ -16854,22 +16994,19 @@
       <c r="F56" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="H56" s="4" t="s">
+        <v>1010</v>
+      </c>
       <c r="I56" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K56" s="79" t="s">
-        <v>1343</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M56" s="124" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
-        <v>1013</v>
+        <v>389</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>392</v>
@@ -16877,22 +17014,13 @@
       <c r="F57" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="K57" s="79" t="s">
-        <v>1400</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M57" s="124" t="s">
-        <v>1345</v>
+      <c r="H57" s="4" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>392</v>
@@ -16900,279 +17028,325 @@
       <c r="F58" s="4" t="s">
         <v>342</v>
       </c>
+      <c r="I58" s="4" t="s">
+        <v>1012</v>
+      </c>
       <c r="K58" s="79" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M58" s="124" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C59" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K59" s="79" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M59" s="124" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="K60" s="79" t="s">
         <v>1401</v>
       </c>
-      <c r="L58" s="63" t="s">
+      <c r="L60" s="63" t="s">
         <v>1346</v>
       </c>
-      <c r="M58" s="123" t="s">
+      <c r="M60" s="123" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="123"/>
-    </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="123"/>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>5.24</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="M60" s="124"/>
-    </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="C61" s="131" t="s">
+      <c r="M62" s="124"/>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C63" s="131" t="s">
         <v>1403</v>
       </c>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="M61" s="124"/>
-    </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C62" s="93" t="s">
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="M63" s="124"/>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C64" s="93" t="s">
         <v>1383</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="F62" s="93" t="s">
+      <c r="F64" s="93" t="s">
         <v>1351</v>
       </c>
-      <c r="G62" s="93" t="s">
+      <c r="G64" s="93" t="s">
         <v>1384</v>
       </c>
-      <c r="K62" s="79" t="s">
+      <c r="K64" s="79" t="s">
         <v>1375</v>
       </c>
-      <c r="L62" s="63" t="s">
+      <c r="L64" s="63" t="s">
         <v>1374</v>
       </c>
-      <c r="M62" s="124" t="s">
+      <c r="M64" s="124" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K63" s="79" t="s">
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K65" s="79" t="s">
         <v>1378</v>
       </c>
-      <c r="L63" s="63" t="s">
+      <c r="L65" s="63" t="s">
         <v>1377</v>
       </c>
-      <c r="M63" s="124" t="s">
+      <c r="M65" s="124" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K64" s="79" t="s">
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K66" s="79" t="s">
         <v>1382</v>
       </c>
-      <c r="L64" s="63" t="s">
+      <c r="L66" s="63" t="s">
         <v>1380</v>
       </c>
-      <c r="M64" s="124" t="s">
+      <c r="M66" s="124" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K65" s="79"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="124"/>
-    </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C66" s="93" t="s">
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K67" s="79"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="124"/>
+    </row>
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C68" s="93" t="s">
         <v>1383</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="F66" s="93" t="s">
+      <c r="F68" s="93" t="s">
         <v>1386</v>
       </c>
-      <c r="G66" s="93" t="s">
+      <c r="G68" s="93" t="s">
         <v>1384</v>
       </c>
-      <c r="K66" s="79" t="s">
+      <c r="K68" s="79" t="s">
         <v>1387</v>
       </c>
-      <c r="L66" s="80" t="s">
+      <c r="L68" s="80" t="s">
         <v>1385</v>
       </c>
-      <c r="M66" s="79" t="s">
+      <c r="M68" s="79" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="93"/>
-      <c r="K67" s="79" t="s">
-        <v>1391</v>
-      </c>
-      <c r="L67" s="63" t="s">
-        <v>1389</v>
-      </c>
-      <c r="M67" s="79" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="124"/>
     </row>
     <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C69" s="93"/>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="K69" s="79" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L69" s="63" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M69" s="79" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="124"/>
+    </row>
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="K71" s="79" t="s">
         <v>1392</v>
       </c>
-      <c r="L69" s="63" t="s">
+      <c r="L71" s="63" t="s">
         <v>1105</v>
       </c>
-      <c r="M69" s="124" t="s">
+      <c r="M71" s="124" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K70" s="79" t="s">
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K72" s="79" t="s">
         <v>1394</v>
       </c>
-      <c r="L70" s="80" t="s">
+      <c r="L72" s="80" t="s">
         <v>1010</v>
       </c>
-      <c r="M70" s="79" t="s">
+      <c r="M72" s="79" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
         <v>5.24</v>
       </c>
-      <c r="C71" s="129" t="s">
+      <c r="C73" s="129" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C72" s="4" t="s">
+    <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C74" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F74" s="93" t="s">
         <v>1351</v>
       </c>
-      <c r="G72" s="93" t="s">
+      <c r="G74" s="93" t="s">
         <v>1354</v>
       </c>
-      <c r="K72" s="79" t="s">
+      <c r="K74" s="79" t="s">
         <v>1349</v>
       </c>
-      <c r="L72" s="80" t="s">
+      <c r="L74" s="80" t="s">
         <v>1352</v>
       </c>
-      <c r="M72" s="124" t="s">
+      <c r="M74" s="124" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="K73" s="85" t="s">
+    <row r="75" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="K75" s="85" t="s">
         <v>1355</v>
       </c>
-      <c r="L73" s="80" t="s">
+      <c r="L75" s="80" t="s">
         <v>1356</v>
       </c>
-      <c r="M73" s="124" t="s">
+      <c r="M75" s="124" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K74" s="79" t="s">
+    <row r="76" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K76" s="79" t="s">
         <v>1397</v>
       </c>
-      <c r="L74" s="80" t="s">
+      <c r="L76" s="80" t="s">
         <v>1358</v>
       </c>
-      <c r="M74" s="124" t="s">
+      <c r="M76" s="124" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C76" s="4" t="s">
+    <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D78" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="93" t="s">
+      <c r="E78" s="4"/>
+      <c r="F78" s="93" t="s">
         <v>1360</v>
       </c>
-      <c r="G76" s="93" t="s">
+      <c r="G78" s="93" t="s">
         <v>1361</v>
       </c>
-      <c r="K76" s="79" t="s">
+      <c r="K78" s="79" t="s">
         <v>1362</v>
       </c>
-      <c r="L76" s="80" t="s">
+      <c r="L78" s="80" t="s">
         <v>1363</v>
       </c>
-      <c r="M76" s="79" t="s">
+      <c r="M78" s="79" t="s">
         <v>1364</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K77" s="79" t="s">
-        <v>1365</v>
-      </c>
-      <c r="L77" s="80" t="s">
-        <v>1366</v>
-      </c>
-      <c r="M77" s="79" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="K78" s="79" t="s">
-        <v>1368</v>
-      </c>
-      <c r="L78" s="80" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M78" s="79" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="K79" s="79" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L79" s="80" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M79" s="79" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K80" s="79" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L80" s="80" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M80" s="79" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="K81" s="79" t="s">
         <v>1396</v>
       </c>
-      <c r="L79" s="63" t="s">
+      <c r="L81" s="63" t="s">
         <v>1371</v>
       </c>
-      <c r="M79" s="124" t="s">
+      <c r="M81" s="124" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="C81" s="129"/>
+    <row r="83" spans="3:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="C83" s="129"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J74"/>
+  <autoFilter ref="A2:J76"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -17183,7 +17357,7 @@
   <dimension ref="A2:Q118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="D109" sqref="D109"/>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="1578">
   <si>
     <t xml:space="preserve">PrAtiSakyam Rules </t>
   </si>
@@ -8686,6 +8686,9 @@
   </si>
   <si>
     <t xml:space="preserve">hyEShO&amp;nu </t>
+  </si>
+  <si>
+    <t>exception</t>
   </si>
 </sst>
 </file>
@@ -8896,7 +8899,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8942,6 +8945,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9118,7 +9127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9409,6 +9418,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9691,7 +9701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N211"/>
   <sheetViews>
-    <sheetView topLeftCell="B151" workbookViewId="0">
+    <sheetView topLeftCell="B136" workbookViewId="0">
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
@@ -16155,10 +16165,10 @@
   <dimension ref="A2:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16847,6 +16857,9 @@
       <c r="D44" s="4" t="s">
         <v>383</v>
       </c>
+      <c r="J44" s="142" t="s">
+        <v>1577</v>
+      </c>
       <c r="K44" s="63" t="s">
         <v>1463</v>
       </c>
@@ -17360,7 +17373,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
+++ b/TS Jatai Working/prAtiSAkyam Rules sayaNaaaaa.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\TS Jatai Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2685" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9192" windowHeight="2688" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Vowel Elongation" sheetId="1" r:id="rId1"/>
@@ -8694,7 +8694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9705,24 +9705,24 @@
       <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="74" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9734,7 +9734,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -9744,7 +9744,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
@@ -9754,7 +9754,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -9764,7 +9764,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -9774,7 +9774,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>3.1</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="8" t="s">
         <v>8</v>
@@ -9796,7 +9796,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="11" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14">
@@ -9846,7 +9846,7 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>3.2</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="17"/>
@@ -9888,7 +9888,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="17"/>
@@ -9904,7 +9904,7 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>3.2</v>
       </c>
@@ -9931,7 +9931,7 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>3.2</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>3.2</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -10003,7 +10003,7 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>3.2</v>
       </c>
@@ -10034,7 +10034,7 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -10054,7 +10054,7 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
     </row>
-    <row r="22" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -10074,7 +10074,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
     </row>
-    <row r="23" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -10094,7 +10094,7 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -10114,7 +10114,7 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -10134,7 +10134,7 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
     </row>
-    <row r="26" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -10150,7 +10150,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
     </row>
-    <row r="27" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -10166,7 +10166,7 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
     </row>
-    <row r="28" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -10182,7 +10182,7 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -10198,7 +10198,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>3.2</v>
       </c>
@@ -10225,7 +10225,7 @@
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>3.2</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="36.75" x14ac:dyDescent="1">
+    <row r="32" spans="1:14" ht="38.4" x14ac:dyDescent="1.3">
       <c r="A32" s="16">
         <v>3.2</v>
       </c>
@@ -10279,7 +10279,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="36.75" x14ac:dyDescent="1">
+    <row r="33" spans="1:14" ht="38.4" x14ac:dyDescent="1.3">
       <c r="A33" s="16"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -10295,7 +10295,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>3.2</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -10342,7 +10342,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -10354,7 +10354,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>3.2</v>
       </c>
@@ -10381,7 +10381,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -10397,7 +10397,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>3.3</v>
       </c>
@@ -10425,7 +10425,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="15"/>
       <c r="C40" s="18"/>
@@ -10447,7 +10447,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="15"/>
       <c r="C41" s="18"/>
@@ -10467,7 +10467,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="15"/>
       <c r="C42" s="18"/>
@@ -10487,7 +10487,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -10507,7 +10507,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -10523,7 +10523,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
         <v>3.4</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -10573,7 +10573,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -10589,7 +10589,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>3.5</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15">
         <f>+B48+1</f>
@@ -10636,7 +10636,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="15">
         <f t="shared" ref="B50:B68" si="1">+B49+1</f>
@@ -10657,7 +10657,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
@@ -10678,7 +10678,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="15"/>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
@@ -10699,7 +10699,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="15"/>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
@@ -10724,7 +10724,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
@@ -10749,7 +10749,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="15"/>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
@@ -10770,7 +10770,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A56" s="15"/>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
@@ -10795,7 +10795,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="15"/>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
@@ -10816,7 +10816,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
@@ -10837,7 +10837,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="15"/>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
@@ -10858,7 +10858,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="15"/>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
@@ -10879,7 +10879,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
@@ -10900,7 +10900,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
@@ -10921,7 +10921,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
@@ -10942,7 +10942,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="15"/>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
@@ -10967,7 +10967,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
@@ -10988,7 +10988,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
@@ -11009,7 +11009,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="15"/>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
@@ -11030,7 +11030,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
-    <row r="68" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="15"/>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
@@ -11051,7 +11051,7 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
-    <row r="69" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -11067,7 +11067,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>3.6</v>
       </c>
@@ -11093,7 +11093,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -11111,7 +11111,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
         <v>3.7</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="15"/>
       <c r="B73" s="15">
         <f t="shared" ref="B73:B98" si="2">+B72+1</f>
@@ -11154,7 +11154,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
     </row>
-    <row r="74" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="15"/>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
@@ -11175,7 +11175,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
     </row>
-    <row r="75" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="15"/>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
@@ -11200,7 +11200,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
     </row>
-    <row r="76" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="15"/>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
@@ -11221,7 +11221,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
     </row>
-    <row r="77" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="15"/>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
@@ -11242,7 +11242,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
     </row>
-    <row r="78" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="15"/>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
@@ -11263,7 +11263,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
     </row>
-    <row r="79" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="15"/>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
@@ -11284,7 +11284,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
     </row>
-    <row r="80" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="15"/>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
@@ -11305,7 +11305,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
     </row>
-    <row r="81" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="15"/>
       <c r="B81" s="15">
         <f t="shared" si="2"/>
@@ -11326,7 +11326,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
     </row>
-    <row r="82" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="15"/>
       <c r="B82" s="15">
         <f t="shared" si="2"/>
@@ -11347,7 +11347,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
     </row>
-    <row r="83" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
       <c r="B83" s="15">
         <f t="shared" si="2"/>
@@ -11368,7 +11368,7 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
     </row>
-    <row r="84" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
       <c r="B84" s="15">
         <f t="shared" si="2"/>
@@ -11389,7 +11389,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
     </row>
-    <row r="85" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="15"/>
       <c r="B85" s="15">
         <f t="shared" si="2"/>
@@ -11410,7 +11410,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
     </row>
-    <row r="86" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
       <c r="B86" s="15">
         <f t="shared" si="2"/>
@@ -11431,7 +11431,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
     </row>
-    <row r="87" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
       <c r="B87" s="15">
         <f t="shared" si="2"/>
@@ -11452,7 +11452,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
     </row>
-    <row r="88" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="15"/>
       <c r="B88" s="15">
         <f t="shared" si="2"/>
@@ -11473,7 +11473,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
     </row>
-    <row r="89" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="15"/>
       <c r="B89" s="15">
         <f t="shared" si="2"/>
@@ -11494,7 +11494,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
     </row>
-    <row r="90" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="15"/>
       <c r="B90" s="15">
         <f t="shared" si="2"/>
@@ -11515,7 +11515,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
     </row>
-    <row r="91" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A91" s="15"/>
       <c r="B91" s="15">
         <f t="shared" si="2"/>
@@ -11536,7 +11536,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
     </row>
-    <row r="92" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A92" s="15"/>
       <c r="B92" s="15">
         <f t="shared" si="2"/>
@@ -11557,7 +11557,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
     </row>
-    <row r="93" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="15"/>
       <c r="B93" s="15">
         <f t="shared" si="2"/>
@@ -11578,7 +11578,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
     </row>
-    <row r="94" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="15"/>
       <c r="B94" s="15">
         <f t="shared" si="2"/>
@@ -11599,7 +11599,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
     </row>
-    <row r="95" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="15"/>
       <c r="B95" s="15">
         <f t="shared" si="2"/>
@@ -11620,7 +11620,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
     </row>
-    <row r="96" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A96" s="15"/>
       <c r="B96" s="15">
         <f t="shared" si="2"/>
@@ -11641,7 +11641,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
     </row>
-    <row r="97" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A97" s="15"/>
       <c r="B97" s="15">
         <f t="shared" si="2"/>
@@ -11665,7 +11665,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
     </row>
-    <row r="98" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="15"/>
       <c r="B98" s="15">
         <f t="shared" si="2"/>
@@ -11686,7 +11686,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
     </row>
-    <row r="99" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A99" s="15"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -11702,7 +11702,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
     </row>
-    <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="15"/>
       <c r="B100" s="15" t="s">
         <v>1560</v>
@@ -11720,7 +11720,7 @@
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
     </row>
-    <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>3.8</v>
       </c>
@@ -11741,7 +11741,7 @@
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
     </row>
-    <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="15"/>
       <c r="B102" s="15">
         <f t="shared" ref="B102:B130" si="3">+B101+1</f>
@@ -11762,7 +11762,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
     </row>
-    <row r="103" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="15"/>
       <c r="B103" s="15">
         <f t="shared" si="3"/>
@@ -11783,7 +11783,7 @@
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
     </row>
-    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="15"/>
       <c r="B104" s="15">
         <f t="shared" si="3"/>
@@ -11804,7 +11804,7 @@
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
     </row>
-    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="15"/>
       <c r="B105" s="15">
         <f t="shared" si="3"/>
@@ -11825,7 +11825,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
     </row>
-    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="15"/>
       <c r="B106" s="15">
         <f t="shared" si="3"/>
@@ -11846,7 +11846,7 @@
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
     </row>
-    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="15"/>
       <c r="B107" s="15">
         <f t="shared" si="3"/>
@@ -11867,7 +11867,7 @@
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
     </row>
-    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="15"/>
       <c r="B108" s="15">
         <f t="shared" si="3"/>
@@ -11888,7 +11888,7 @@
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
     </row>
-    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="15"/>
       <c r="B109" s="15">
         <f t="shared" si="3"/>
@@ -11909,7 +11909,7 @@
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
     </row>
-    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15">
         <f t="shared" si="3"/>
@@ -11930,7 +11930,7 @@
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
     </row>
-    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="15"/>
       <c r="B111" s="15">
         <f t="shared" si="3"/>
@@ -11951,7 +11951,7 @@
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
     </row>
-    <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="15"/>
       <c r="B112" s="15">
         <f t="shared" si="3"/>
@@ -11972,7 +11972,7 @@
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
     </row>
-    <row r="113" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
       <c r="B113" s="15">
         <f t="shared" si="3"/>
@@ -11995,7 +11995,7 @@
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
     </row>
-    <row r="114" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
       <c r="B114" s="15">
         <f t="shared" si="3"/>
@@ -12016,7 +12016,7 @@
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
     </row>
-    <row r="115" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="15"/>
       <c r="B115" s="15">
         <f t="shared" si="3"/>
@@ -12037,7 +12037,7 @@
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
     </row>
-    <row r="116" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="15"/>
       <c r="B116" s="15">
         <f t="shared" si="3"/>
@@ -12058,7 +12058,7 @@
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
     </row>
-    <row r="117" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="15"/>
       <c r="B117" s="15">
         <f t="shared" si="3"/>
@@ -12079,7 +12079,7 @@
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
     </row>
-    <row r="118" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="15"/>
       <c r="B118" s="15">
         <f t="shared" si="3"/>
@@ -12100,7 +12100,7 @@
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
     </row>
-    <row r="119" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="13"/>
       <c r="B119" s="15">
         <f t="shared" si="3"/>
@@ -12121,7 +12121,7 @@
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
     </row>
-    <row r="120" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
       <c r="B120" s="15">
         <f t="shared" si="3"/>
@@ -12142,7 +12142,7 @@
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
     </row>
-    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
       <c r="B121" s="15">
         <f t="shared" si="3"/>
@@ -12163,7 +12163,7 @@
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
     </row>
-    <row r="122" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="13"/>
       <c r="B122" s="15">
         <f t="shared" si="3"/>
@@ -12184,7 +12184,7 @@
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
     </row>
-    <row r="123" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="15">
         <f t="shared" si="3"/>
@@ -12205,7 +12205,7 @@
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
     </row>
-    <row r="124" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="B124" s="15">
         <f t="shared" si="3"/>
@@ -12226,7 +12226,7 @@
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
     </row>
-    <row r="125" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="B125" s="15">
         <f t="shared" si="3"/>
@@ -12247,7 +12247,7 @@
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
     </row>
-    <row r="126" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
       <c r="B126" s="15">
         <f t="shared" si="3"/>
@@ -12268,7 +12268,7 @@
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
     </row>
-    <row r="127" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="13"/>
       <c r="B127" s="15">
         <f t="shared" si="3"/>
@@ -12289,7 +12289,7 @@
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
     </row>
-    <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A128" s="13"/>
       <c r="B128" s="15">
         <f t="shared" si="3"/>
@@ -12310,7 +12310,7 @@
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
     </row>
-    <row r="129" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="B129" s="15">
         <f t="shared" si="3"/>
@@ -12331,7 +12331,7 @@
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
     </row>
-    <row r="130" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="13"/>
       <c r="B130" s="15">
         <f t="shared" si="3"/>
@@ -12352,7 +12352,7 @@
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
     </row>
-    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
         <v>3.9</v>
       </c>
@@ -12376,7 +12376,7 @@
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
     </row>
-    <row r="132" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="15"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -12392,7 +12392,7 @@
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
     </row>
-    <row r="133" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A133" s="22">
         <v>3.1</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
     </row>
-    <row r="134" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="15"/>
       <c r="B134" s="15">
         <f t="shared" ref="B134:B158" si="4">+B133+1</f>
@@ -12435,7 +12435,7 @@
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
     </row>
-    <row r="135" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="15"/>
       <c r="B135" s="15">
         <f t="shared" si="4"/>
@@ -12456,7 +12456,7 @@
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
     </row>
-    <row r="136" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="15"/>
       <c r="B136" s="15">
         <f t="shared" si="4"/>
@@ -12477,7 +12477,7 @@
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
     </row>
-    <row r="137" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="15"/>
       <c r="B137" s="15">
         <f t="shared" si="4"/>
@@ -12498,7 +12498,7 @@
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
     </row>
-    <row r="138" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="15"/>
       <c r="B138" s="15">
         <f t="shared" si="4"/>
@@ -12519,7 +12519,7 @@
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
     </row>
-    <row r="139" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="15"/>
       <c r="B139" s="15">
         <f t="shared" si="4"/>
@@ -12540,7 +12540,7 @@
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
     </row>
-    <row r="140" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="15"/>
       <c r="B140" s="15">
         <f t="shared" si="4"/>
@@ -12561,7 +12561,7 @@
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
     </row>
-    <row r="141" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="15"/>
       <c r="B141" s="15">
         <f t="shared" si="4"/>
@@ -12582,7 +12582,7 @@
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
     </row>
-    <row r="142" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A142" s="15"/>
       <c r="B142" s="15">
         <f t="shared" si="4"/>
@@ -12603,7 +12603,7 @@
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
     </row>
-    <row r="143" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="15"/>
       <c r="B143" s="15">
         <f t="shared" si="4"/>
@@ -12624,7 +12624,7 @@
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
     </row>
-    <row r="144" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="15"/>
       <c r="B144" s="15">
         <f t="shared" si="4"/>
@@ -12645,7 +12645,7 @@
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
     </row>
-    <row r="145" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="15"/>
       <c r="B145" s="15">
         <f t="shared" si="4"/>
@@ -12666,7 +12666,7 @@
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
     </row>
-    <row r="146" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="15"/>
       <c r="B146" s="15">
         <f t="shared" si="4"/>
@@ -12687,7 +12687,7 @@
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
     </row>
-    <row r="147" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="15"/>
       <c r="B147" s="15">
         <f t="shared" si="4"/>
@@ -12708,7 +12708,7 @@
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
     </row>
-    <row r="148" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="15"/>
       <c r="B148" s="15">
         <f t="shared" si="4"/>
@@ -12729,7 +12729,7 @@
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
     </row>
-    <row r="149" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="15"/>
       <c r="B149" s="15">
         <f t="shared" si="4"/>
@@ -12750,7 +12750,7 @@
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
     </row>
-    <row r="150" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A150" s="15"/>
       <c r="B150" s="15">
         <f t="shared" si="4"/>
@@ -12771,7 +12771,7 @@
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
     </row>
-    <row r="151" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="15"/>
       <c r="B151" s="15">
         <f t="shared" si="4"/>
@@ -12792,7 +12792,7 @@
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
     </row>
-    <row r="152" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A152" s="15"/>
       <c r="B152" s="15">
         <f t="shared" si="4"/>
@@ -12813,7 +12813,7 @@
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
     </row>
-    <row r="153" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="15"/>
       <c r="B153" s="15">
         <f t="shared" si="4"/>
@@ -12834,7 +12834,7 @@
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
     </row>
-    <row r="154" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="15"/>
       <c r="B154" s="15">
         <f t="shared" si="4"/>
@@ -12855,7 +12855,7 @@
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
     </row>
-    <row r="155" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="15"/>
       <c r="B155" s="15">
         <f t="shared" si="4"/>
@@ -12876,7 +12876,7 @@
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
     </row>
-    <row r="156" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="15"/>
       <c r="B156" s="15">
         <f t="shared" si="4"/>
@@ -12897,7 +12897,7 @@
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
     </row>
-    <row r="157" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="15"/>
       <c r="B157" s="15">
         <f t="shared" si="4"/>
@@ -12918,7 +12918,7 @@
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
     </row>
-    <row r="158" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="15"/>
       <c r="B158" s="15">
         <f t="shared" si="4"/>
@@ -12939,7 +12939,7 @@
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
     </row>
-    <row r="159" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A159" s="15"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -12955,7 +12955,7 @@
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
     </row>
-    <row r="160" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>3.11</v>
       </c>
@@ -12981,7 +12981,7 @@
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
     </row>
-    <row r="161" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="15"/>
@@ -12997,7 +12997,7 @@
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
     </row>
-    <row r="162" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
         <v>3.12</v>
       </c>
@@ -13019,7 +13019,7 @@
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
     </row>
-    <row r="163" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A163" s="15"/>
       <c r="B163" s="15">
         <f t="shared" ref="B163:B183" si="5">+B162+1</f>
@@ -13042,7 +13042,7 @@
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
     </row>
-    <row r="164" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
       <c r="B164" s="15">
         <f t="shared" si="5"/>
@@ -13063,7 +13063,7 @@
       <c r="M164" s="15"/>
       <c r="N164" s="15"/>
     </row>
-    <row r="165" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="15"/>
       <c r="B165" s="15">
         <f t="shared" si="5"/>
@@ -13084,7 +13084,7 @@
       <c r="M165" s="15"/>
       <c r="N165" s="15"/>
     </row>
-    <row r="166" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="15"/>
       <c r="B166" s="15">
         <f t="shared" si="5"/>
@@ -13105,7 +13105,7 @@
       <c r="M166" s="15"/>
       <c r="N166" s="15"/>
     </row>
-    <row r="167" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="15"/>
       <c r="B167" s="15">
         <f t="shared" si="5"/>
@@ -13126,7 +13126,7 @@
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
     </row>
-    <row r="168" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="15"/>
       <c r="B168" s="15">
         <f t="shared" si="5"/>
@@ -13147,7 +13147,7 @@
       <c r="M168" s="15"/>
       <c r="N168" s="15"/>
     </row>
-    <row r="169" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="15"/>
       <c r="B169" s="15">
         <f t="shared" si="5"/>
@@ -13168,7 +13168,7 @@
       <c r="M169" s="15"/>
       <c r="N169" s="15"/>
     </row>
-    <row r="170" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="15"/>
       <c r="B170" s="15">
         <f t="shared" si="5"/>
@@ -13189,7 +13189,7 @@
       <c r="M170" s="15"/>
       <c r="N170" s="15"/>
     </row>
-    <row r="171" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="15"/>
       <c r="B171" s="15">
         <f t="shared" si="5"/>
@@ -13210,7 +13210,7 @@
       <c r="M171" s="15"/>
       <c r="N171" s="15"/>
     </row>
-    <row r="172" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="15"/>
       <c r="B172" s="15">
         <f t="shared" si="5"/>
@@ -13231,7 +13231,7 @@
       <c r="M172" s="15"/>
       <c r="N172" s="15"/>
     </row>
-    <row r="173" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="15"/>
       <c r="B173" s="15">
         <f t="shared" si="5"/>
@@ -13252,7 +13252,7 @@
       <c r="M173" s="15"/>
       <c r="N173" s="15"/>
     </row>
-    <row r="174" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="15"/>
       <c r="B174" s="15">
         <f t="shared" si="5"/>
@@ -13273,7 +13273,7 @@
       <c r="M174" s="15"/>
       <c r="N174" s="15"/>
     </row>
-    <row r="175" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="15"/>
       <c r="B175" s="15">
         <f t="shared" si="5"/>
@@ -13294,7 +13294,7 @@
       <c r="M175" s="15"/>
       <c r="N175" s="15"/>
     </row>
-    <row r="176" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="15"/>
       <c r="B176" s="15">
         <f t="shared" si="5"/>
@@ -13315,7 +13315,7 @@
       <c r="M176" s="15"/>
       <c r="N176" s="15"/>
     </row>
-    <row r="177" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
       <c r="B177" s="15">
         <f t="shared" si="5"/>
@@ -13336,7 +13336,7 @@
       <c r="M177" s="15"/>
       <c r="N177" s="15"/>
     </row>
-    <row r="178" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="15"/>
       <c r="B178" s="15">
         <f t="shared" si="5"/>
@@ -13357,7 +13357,7 @@
       <c r="M178" s="15"/>
       <c r="N178" s="15"/>
     </row>
-    <row r="179" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="15"/>
       <c r="B179" s="15">
         <f t="shared" si="5"/>
@@ -13378,7 +13378,7 @@
       <c r="M179" s="15"/>
       <c r="N179" s="15"/>
     </row>
-    <row r="180" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="15"/>
       <c r="B180" s="15">
         <f t="shared" si="5"/>
@@ -13399,7 +13399,7 @@
       <c r="M180" s="15"/>
       <c r="N180" s="15"/>
     </row>
-    <row r="181" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="15"/>
       <c r="B181" s="15">
         <f t="shared" si="5"/>
@@ -13420,7 +13420,7 @@
       <c r="M181" s="15"/>
       <c r="N181" s="15"/>
     </row>
-    <row r="182" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="15"/>
       <c r="B182" s="15">
         <f t="shared" si="5"/>
@@ -13441,7 +13441,7 @@
       <c r="M182" s="15"/>
       <c r="N182" s="15"/>
     </row>
-    <row r="183" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="15"/>
       <c r="B183" s="15">
         <f t="shared" si="5"/>
@@ -13462,7 +13462,7 @@
       <c r="M183" s="15"/>
       <c r="N183" s="15"/>
     </row>
-    <row r="184" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="15"/>
       <c r="B184" s="15"/>
       <c r="C184" s="15"/>
@@ -13478,7 +13478,7 @@
       <c r="M184" s="15"/>
       <c r="N184" s="15"/>
     </row>
-    <row r="185" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>3.13</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="M185" s="15"/>
       <c r="N185" s="15"/>
     </row>
-    <row r="186" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="15"/>
       <c r="B186" s="15">
         <f>+B185+1</f>
@@ -13521,7 +13521,7 @@
       <c r="M186" s="15"/>
       <c r="N186" s="15"/>
     </row>
-    <row r="187" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="15"/>
       <c r="B187" s="15">
         <f>+B186+1</f>
@@ -13542,7 +13542,7 @@
       <c r="M187" s="15"/>
       <c r="N187" s="15"/>
     </row>
-    <row r="188" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="15"/>
       <c r="B188" s="15">
         <f>+B187+1</f>
@@ -13563,7 +13563,7 @@
       <c r="M188" s="15"/>
       <c r="N188" s="15"/>
     </row>
-    <row r="189" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="15"/>
       <c r="B189" s="15">
         <f>+B188+1</f>
@@ -13584,7 +13584,7 @@
       <c r="M189" s="15"/>
       <c r="N189" s="15"/>
     </row>
-    <row r="190" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="15"/>
       <c r="B190" s="15"/>
       <c r="C190" s="15"/>
@@ -13600,7 +13600,7 @@
       <c r="M190" s="15"/>
       <c r="N190" s="15"/>
     </row>
-    <row r="191" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>3.14</v>
       </c>
@@ -13622,7 +13622,7 @@
       <c r="M191" s="15"/>
       <c r="N191" s="15"/>
     </row>
-    <row r="192" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="15"/>
       <c r="B192" s="15">
         <f>+B191+1</f>
@@ -13643,7 +13643,7 @@
       <c r="M192" s="15"/>
       <c r="N192" s="15"/>
     </row>
-    <row r="193" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="15"/>
       <c r="B193" s="15">
         <f>+B192+1</f>
@@ -13664,7 +13664,7 @@
       <c r="M193" s="15"/>
       <c r="N193" s="15"/>
     </row>
-    <row r="194" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="15"/>
       <c r="B194" s="15">
         <f>+B193+1</f>
@@ -13685,7 +13685,7 @@
       <c r="M194" s="15"/>
       <c r="N194" s="15"/>
     </row>
-    <row r="195" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="15"/>
       <c r="B195" s="15">
         <f>+B194+1</f>
@@ -13706,7 +13706,7 @@
       <c r="M195" s="15"/>
       <c r="N195" s="15"/>
     </row>
-    <row r="196" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="15"/>
       <c r="B196" s="15">
         <f>+B195+1</f>
@@ -13727,7 +13727,7 @@
       <c r="M196" s="15"/>
       <c r="N196" s="15"/>
     </row>
-    <row r="197" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="15"/>
       <c r="B197" s="15"/>
       <c r="C197" s="15"/>
@@ -13743,7 +13743,7 @@
       <c r="M197" s="15"/>
       <c r="N197" s="15"/>
     </row>
-    <row r="198" spans="1:14" s="4" customFormat="1" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="4" customFormat="1" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>3.15</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="M198" s="15"/>
       <c r="N198" s="15"/>
     </row>
-    <row r="199" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="15"/>
       <c r="B199" s="15"/>
       <c r="C199" s="15"/>
@@ -13785,7 +13785,7 @@
       <c r="M199" s="15"/>
       <c r="N199" s="15"/>
     </row>
-    <row r="200" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="15"/>
       <c r="B200" s="15"/>
       <c r="C200" s="15"/>
@@ -13801,7 +13801,7 @@
       <c r="M200" s="15"/>
       <c r="N200" s="15"/>
     </row>
-    <row r="201" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="15"/>
       <c r="B201" s="15"/>
       <c r="C201" s="15"/>
@@ -13817,7 +13817,7 @@
       <c r="M201" s="15"/>
       <c r="N201" s="15"/>
     </row>
-    <row r="202" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="15"/>
       <c r="B202" s="15"/>
       <c r="C202" s="15"/>
@@ -13833,7 +13833,7 @@
       <c r="M202" s="15"/>
       <c r="N202" s="15"/>
     </row>
-    <row r="203" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="15"/>
       <c r="B203" s="15"/>
       <c r="C203" s="15"/>
@@ -13849,7 +13849,7 @@
       <c r="M203" s="15"/>
       <c r="N203" s="15"/>
     </row>
-    <row r="204" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="15"/>
       <c r="B204" s="15"/>
       <c r="C204" s="15"/>
@@ -13865,7 +13865,7 @@
       <c r="M204" s="15"/>
       <c r="N204" s="15"/>
     </row>
-    <row r="205" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="15"/>
       <c r="B205" s="15"/>
       <c r="C205" s="15"/>
@@ -13881,7 +13881,7 @@
       <c r="M205" s="15"/>
       <c r="N205" s="15"/>
     </row>
-    <row r="206" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="15"/>
       <c r="B206" s="15"/>
       <c r="C206" s="15"/>
@@ -13897,19 +13897,19 @@
       <c r="M206" s="15"/>
       <c r="N206" s="15"/>
     </row>
-    <row r="207" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G207" s="29"/>
     </row>
-    <row r="208" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G208" s="29"/>
     </row>
-    <row r="209" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G209" s="29"/>
     </row>
-    <row r="210" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G210" s="29"/>
     </row>
-    <row r="211" spans="7:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G211" s="29"/>
     </row>
   </sheetData>
@@ -13927,26 +13927,26 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>171</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="25" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
         <v>173</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C5" s="25">
         <v>4.2</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="K5" s="25"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C6" s="25">
         <v>4.3</v>
       </c>
@@ -14000,7 +14000,7 @@
       <c r="K6" s="25"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="25">
         <v>4.4000000000000004</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="25">
         <v>4.5</v>
       </c>
@@ -14032,7 +14032,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="25">
         <v>4.5999999999999996</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
         <v>182</v>
@@ -14062,7 +14062,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="25">
         <v>4.7</v>
       </c>
@@ -14078,7 +14078,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="C12" s="25">
         <v>4.8</v>
       </c>
@@ -14094,7 +14094,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>4.9000000000000004</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>4.0999999999999996</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>4.1100000000000003</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f>+B16+1</f>
         <v>2</v>
@@ -14175,7 +14175,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" ref="B18:B51" si="0">+B17+1</f>
         <v>3</v>
@@ -14187,7 +14187,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14199,7 +14199,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14211,7 +14211,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14223,7 +14223,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14235,7 +14235,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14247,7 +14247,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14259,7 +14259,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14271,7 +14271,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14283,7 +14283,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14295,7 +14295,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14307,7 +14307,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14319,7 +14319,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14331,7 +14331,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14343,7 +14343,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14355,7 +14355,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14367,7 +14367,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14379,7 +14379,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14391,7 +14391,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14403,7 +14403,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14415,7 +14415,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -14427,7 +14427,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14439,7 +14439,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -14451,7 +14451,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14463,7 +14463,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14475,7 +14475,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14487,7 +14487,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14499,7 +14499,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14511,7 +14511,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14523,7 +14523,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -14535,7 +14535,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -14547,7 +14547,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -14559,7 +14559,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -14571,7 +14571,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -14592,16 +14592,16 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C52" s="93"/>
       <c r="H52" s="63"/>
     </row>
-    <row r="53" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>4.12</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C55" s="93"/>
       <c r="H55" s="79" t="s">
         <v>1256</v>
@@ -14624,7 +14624,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="C56" s="93"/>
       <c r="H56" s="116" t="s">
         <v>1257</v>
@@ -14633,12 +14633,12 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C57" s="93"/>
       <c r="H57" s="116"/>
       <c r="K57" s="63"/>
     </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B58" s="4">
         <v>4.12</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C59" s="93"/>
       <c r="H59" s="63" t="s">
         <v>1259</v>
@@ -14667,24 +14667,24 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C60" s="93"/>
       <c r="H60" s="85" t="s">
         <v>1252</v>
       </c>
       <c r="K60" s="63"/>
     </row>
-    <row r="61" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C61" s="93"/>
       <c r="H61" s="79"/>
       <c r="K61" s="63"/>
     </row>
-    <row r="62" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C62" s="93"/>
       <c r="H62" s="63"/>
       <c r="K62" s="63"/>
     </row>
-    <row r="63" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="B63" s="119">
         <v>4.12</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B64" s="4">
         <v>4.12</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>4.12</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>4.12</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B67" s="4">
         <v>4.12</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B68" s="4">
         <v>4.12</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B69" s="4">
         <v>4.12</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B70" s="4">
         <v>4.12</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>4.12</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>4.12</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>4.12</v>
       </c>
@@ -14829,7 +14829,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B74" s="4">
         <v>4.12</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B75" s="4">
         <v>4.12</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="4">
         <v>4.12</v>
       </c>
@@ -14862,8 +14862,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B79" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B80" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B81" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B82" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14921,7 +14921,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B83" s="4">
         <v>4.1500000000000004</v>
       </c>
@@ -14932,8 +14932,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>4.17</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B86" s="4">
         <v>4.17</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B87" s="4">
         <v>4.17</v>
       </c>
@@ -14978,8 +14978,8 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>4.1900000000000004</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B90" s="4">
         <v>4.1900000000000004</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B91" s="3">
         <v>4.1900000000000004</v>
       </c>
@@ -15006,8 +15006,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A93" s="27">
         <v>4.2</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B94" s="27">
         <v>4.2</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B95" s="27">
         <v>4.2</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B96" s="27">
         <v>4.2</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B97" s="27">
         <v>4.2</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="98" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B98" s="27">
         <v>4.2</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B99" s="27">
         <v>4.2</v>
       </c>
@@ -15069,8 +15069,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="100" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>4.22</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>4.2300000000000004</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>4.24</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>4.24</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>4.24</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>4.25</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>4.25</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>4.25</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>4.25</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>4.26</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>4.2699999999999996</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>4.28</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>4.28</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>4.29</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>4.3099999999999996</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>4.33</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>4.33</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>4.34</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>4.3499999999999996</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>4.3600000000000003</v>
       </c>
@@ -15389,7 +15389,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>4.38</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="122" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B122" s="4">
         <v>4.38</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="123" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B123" s="4">
         <v>4.38</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B124" s="4">
         <v>4.38</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B125" s="4">
         <v>4.38</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>4.38</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B127" s="4">
         <v>4.38</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B128" s="4">
         <v>4.38</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B129" s="4">
         <v>4.38</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B130" s="4">
         <v>4.38</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A131" s="27">
         <v>4.4000000000000004</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B132" s="27">
         <v>4.4000000000000004</v>
       </c>
@@ -15572,8 +15572,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>4.42</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="135" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>4.42</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>4.42</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>4.42</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>4.42</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>4.42</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>4.42</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>4.42</v>
       </c>
@@ -15716,12 +15716,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E142" s="4" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -15840,8 +15840,8 @@
         <v>308</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>4.45</v>
       </c>
@@ -15852,8 +15852,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>4.46</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>4.47</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>4.4800000000000004</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>4.49</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>4.49</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A157" s="27">
         <v>4.5</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>4.51</v>
       </c>
@@ -15925,8 +15925,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>4.5199999999999996</v>
       </c>
@@ -15937,16 +15937,16 @@
         <v>318</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B162" s="34" t="s">
         <v>890</v>
       </c>
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
     </row>
-    <row r="163" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>4.1399999999999997</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>4.21</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>4.3899999999999997</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>4.3899999999999997</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>4.41</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>4.53</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B170" s="4">
         <f>+B169+1</f>
         <v>2</v>
@@ -16027,7 +16027,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B171" s="4">
         <f>+B170+1</f>
         <v>3</v>
@@ -16039,7 +16039,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B172" s="4">
         <f>+B171+1</f>
         <v>4</v>
@@ -16051,7 +16051,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B173" s="4">
         <f>+B172+1</f>
         <v>5</v>
@@ -16063,7 +16063,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B174" s="4">
         <f>+B173+1</f>
         <v>6</v>
@@ -16075,7 +16075,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>4.54</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>4.54</v>
       </c>
@@ -16103,56 +16103,56 @@
         <v>332</v>
       </c>
     </row>
-    <row r="177" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="178" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="179" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="180" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="181" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="182" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="183" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="184" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="185" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="186" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="187" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="188" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="189" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="190" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="191" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="192" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="193" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="194" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="195" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="196" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="197" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="198" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="199" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="200" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="201" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="202" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="203" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="204" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="205" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="206" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="207" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="208" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="209" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="210" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="211" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="212" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="213" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="214" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="215" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="216" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="217" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="218" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="219" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="220" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="221" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="222" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="223" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="224" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="225" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="226" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="177" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="178" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="179" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="180" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="181" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="182" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="183" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="184" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="185" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="186" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="187" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="188" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="189" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="190" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="191" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="192" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="193" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="194" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="195" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="196" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="197" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="198" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="199" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="200" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="201" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="202" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="203" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="204" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="205" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="206" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="207" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="208" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="209" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="210" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="211" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="212" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="213" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="214" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="215" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="216" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="217" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="218" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="219" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="220" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="221" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="222" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="223" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="224" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="225" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="226" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A2:N226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16164,41 +16164,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="44.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="44.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="C2" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>336</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5.4</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5.4</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5.5</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5.6</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5.7</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5.8</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>5.9</v>
       </c>
@@ -16356,11 +16356,11 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K13" s="79"/>
       <c r="M13" s="123"/>
     </row>
-    <row r="14" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A14" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A15" s="27"/>
       <c r="C15" s="125"/>
       <c r="K15" s="79" t="s">
@@ -16399,7 +16399,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="C16" s="125"/>
       <c r="K16" s="79" t="s">
@@ -16409,13 +16409,13 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" s="27"/>
       <c r="C17" s="125"/>
       <c r="K17" s="79"/>
       <c r="M17" s="63"/>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A18" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -16444,12 +16444,12 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="27"/>
       <c r="C19" s="47"/>
       <c r="K19" s="79"/>
     </row>
-    <row r="20" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A20" s="27">
         <v>5.0999999999999996</v>
       </c>
@@ -16478,12 +16478,12 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
       <c r="K21" s="63"/>
       <c r="M21" s="123"/>
     </row>
-    <row r="22" spans="1:14" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>5.1100000000000003</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>5.12</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>5.13</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K25" s="79" t="s">
         <v>1307</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K26" s="79" t="s">
         <v>1309</v>
       </c>
@@ -16565,12 +16565,12 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="K27" s="85"/>
       <c r="M27" s="86"/>
       <c r="N27" s="124"/>
     </row>
-    <row r="28" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5.13</v>
       </c>
@@ -16599,7 +16599,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K29" s="79" t="s">
         <v>1317</v>
       </c>
@@ -16610,12 +16610,12 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K30" s="79"/>
       <c r="L30" s="80"/>
       <c r="M30" s="124"/>
     </row>
-    <row r="31" spans="1:14" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>5.14</v>
       </c>
@@ -16644,7 +16644,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="4" customFormat="1" ht="36.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="4" customFormat="1" ht="35.4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>5.15</v>
       </c>
@@ -16670,7 +16670,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K33" s="63" t="s">
         <v>1573</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K34" s="63" t="s">
         <v>1574</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>5.15</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>5.15</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>5.16</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>5.17</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>5.17</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>5.17</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>5.17</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>5.17</v>
       </c>
@@ -16843,11 +16843,11 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K43" s="63"/>
       <c r="L43" s="63"/>
     </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>5.18</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K45" s="63" t="s">
         <v>1465</v>
       </c>
@@ -16875,8 +16875,8 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>5.19</v>
       </c>
@@ -16896,19 +16896,19 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C48" s="4" t="s">
         <v>1460</v>
       </c>
       <c r="K48" s="63"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G49" s="132" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="27">
         <v>5.2</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A51" s="27"/>
       <c r="B51" s="4" t="s">
         <v>1339</v>
@@ -16941,20 +16941,20 @@
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A52" s="27"/>
       <c r="C52" s="79"/>
       <c r="D52" s="124"/>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:13" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="128"/>
       <c r="C53" s="130" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>5.21</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C55" s="4" t="s">
         <v>387</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C56" s="4" t="s">
         <v>388</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>389</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C58" s="4" t="s">
         <v>390</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C59" s="4" t="s">
         <v>1013</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C60" s="4" t="s">
         <v>391</v>
       </c>
@@ -17097,12 +17097,12 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K61" s="63"/>
       <c r="L61" s="63"/>
       <c r="M61" s="123"/>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>5.24</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="M62" s="124"/>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C63" s="131" t="s">
         <v>1403</v>
       </c>
@@ -17125,7 +17125,7 @@
       <c r="E63"/>
       <c r="M63" s="124"/>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C64" s="93" t="s">
         <v>1383</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K65" s="79" t="s">
         <v>1378</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K66" s="79" t="s">
         <v>1382</v>
       </c>
@@ -17170,12 +17170,12 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K67" s="79"/>
       <c r="L67" s="63"/>
       <c r="M67" s="124"/>
     </row>
-    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C68" s="93" t="s">
         <v>1383</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C69" s="93"/>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
@@ -17212,7 +17212,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C70" s="93"/>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
@@ -17220,7 +17220,7 @@
       <c r="L70" s="63"/>
       <c r="M70" s="124"/>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C71" s="93"/>
       <c r="F71" s="93"/>
       <c r="G71" s="93"/>
@@ -17234,7 +17234,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K72" s="79" t="s">
         <v>1394</v>
       </c>
@@ -17245,7 +17245,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>5.24</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C74" s="4" t="s">
         <v>1348</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="K75" s="85" t="s">
         <v>1355</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K76" s="79" t="s">
         <v>1397</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C78" s="4" t="s">
         <v>1348</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K79" s="79" t="s">
         <v>1365</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K80" s="79" t="s">
         <v>1368</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="81" spans="3:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K81" s="79" t="s">
         <v>1396</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="83" spans="3:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:13" ht="21" x14ac:dyDescent="0.4">
       <c r="C83" s="129"/>
     </row>
   </sheetData>
@@ -17376,26 +17376,26 @@
       <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="B3" s="122" t="s">
         <v>1268</v>
       </c>
@@ -17405,7 +17405,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>6.2</v>
       </c>
@@ -17446,12 +17446,12 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="J7" s="79"/>
       <c r="K7" s="124"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C8" s="4" t="s">
         <v>397</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I9" s="4" t="s">
         <v>1016</v>
       </c>
@@ -17482,10 +17482,10 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="J10" s="79"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="93" t="s">
         <v>398</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>399</v>
       </c>
@@ -17525,11 +17525,11 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="J13" s="79"/>
       <c r="K13" s="124"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="101.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="102" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
         <v>599</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I15" s="63"/>
       <c r="J15" s="79" t="s">
         <v>1417</v>
@@ -17558,12 +17558,12 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I16" s="63"/>
       <c r="J16" s="63"/>
       <c r="K16" s="124"/>
     </row>
-    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
         <v>400</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>401</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C19" s="4" t="s">
         <v>402</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C20" s="93" t="s">
         <v>1018</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C21" s="4" t="s">
         <v>403</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
         <v>404</v>
       </c>
@@ -17680,13 +17680,13 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>6.3</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C26" s="93" t="s">
         <v>409</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I27" s="63" t="s">
         <v>1436</v>
       </c>
@@ -17740,17 +17740,17 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I28" s="63"/>
       <c r="J28" s="136"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I29" s="63"/>
       <c r="J29" s="136"/>
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6.4</v>
       </c>
@@ -17758,8 +17758,8 @@
         <v>968</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>6.5</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>6.5</v>
       </c>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="K33" s="42"/>
     </row>
-    <row r="34" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>6.5</v>
       </c>
@@ -17829,8 +17829,8 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>6.5</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I37" s="63" t="s">
         <v>1295</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I38" s="63" t="s">
         <v>1440</v>
       </c>
@@ -17866,11 +17866,11 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I39" s="63"/>
       <c r="J39" s="63"/>
     </row>
-    <row r="40" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>6.5</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I41" s="63" t="s">
         <v>1444</v>
       </c>
@@ -17898,11 +17898,11 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="I42" s="63"/>
       <c r="J42" s="63"/>
     </row>
-    <row r="43" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>6.5</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>6.5</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>6.5</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>6.5</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>6.5</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>6.5</v>
       </c>
@@ -18019,7 +18019,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>6.5</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>6.5</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>6.5</v>
       </c>
@@ -18070,8 +18070,8 @@
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>6.13</v>
       </c>
@@ -18079,37 +18079,37 @@
         <v>451</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
         <v>458</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>458</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>458</v>
       </c>
@@ -18133,11 +18133,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="28">
         <v>6.6</v>
       </c>
@@ -18146,8 +18146,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>6.7</v>
       </c>
@@ -18155,42 +18155,42 @@
         <v>426</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C71" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C75" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>6.8</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>6.8</v>
       </c>
@@ -18206,8 +18206,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>6.9</v>
       </c>
@@ -18216,8 +18216,8 @@
       </c>
       <c r="E80" s="41"/>
     </row>
-    <row r="81" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A82" s="27">
         <v>6.1</v>
       </c>
@@ -18225,12 +18225,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>6.11</v>
       </c>
@@ -18241,8 +18241,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>6.12</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="4" t="s">
         <v>440</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
         <v>441</v>
       </c>
@@ -18269,7 +18269,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
         <v>436</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
         <v>442</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
         <v>443</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
         <v>444</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
         <v>445</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
         <v>446</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C95" s="4" t="s">
         <v>447</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
         <v>448</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
         <v>449</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
         <v>450</v>
       </c>
@@ -18349,8 +18349,8 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:17" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:17" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>6.14</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
         <v>463</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="102" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="39" t="s">
         <v>464</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="103" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
         <v>465</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="104" spans="1:17" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>466</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
         <v>467</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C106" s="137" t="s">
         <v>468</v>
       </c>
@@ -18501,7 +18501,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C107" s="5" t="s">
         <v>976</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
         <v>469</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>964</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="5" t="s">
         <v>761</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C111" s="4" t="s">
         <v>470</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
         <v>471</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="4" t="s">
         <v>472</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="4" t="s">
         <v>473</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4" t="s">
         <v>474</v>
       </c>
@@ -18660,12 +18660,12 @@
         <v>967</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C117" s="25" t="s">
         <v>897</v>
       </c>
@@ -18673,7 +18673,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="25" t="s">
         <v>476</v>
       </c>
@@ -18696,24 +18696,24 @@
       <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="47.109375" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F3" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -18731,8 +18731,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7.2</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>903</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C9" s="4" t="s">
         <v>477</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>478</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C11" s="4" t="s">
         <v>479</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>480</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C13" s="4" t="s">
         <v>481</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C14" s="93" t="s">
         <v>1483</v>
       </c>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="L14" s="79"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>482</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C16" s="4" t="s">
         <v>483</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
         <v>413</v>
       </c>
@@ -18929,8 +18929,8 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>7.3</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
         <v>485</v>
       </c>
@@ -18964,12 +18964,12 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K21" s="63" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>7.4</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>486</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>277</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>7.5</v>
       </c>
@@ -19019,8 +19019,8 @@
       </c>
       <c r="F26" s="41"/>
     </row>
-    <row r="27" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>7.6</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C29" s="4" t="s">
         <v>489</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C30" s="4" t="s">
         <v>490</v>
       </c>
@@ -19074,10 +19074,10 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K31" s="63"/>
     </row>
-    <row r="32" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C32" s="4" t="s">
         <v>491</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G33" s="86" t="s">
         <v>1498</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G34" s="63" t="s">
         <v>1499</v>
       </c>
@@ -19113,12 +19113,12 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G35" s="63"/>
       <c r="K35" s="63"/>
       <c r="L35" s="124"/>
     </row>
-    <row r="36" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C36" s="4" t="s">
         <v>492</v>
       </c>
@@ -19132,7 +19132,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
@@ -19146,8 +19146,8 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>7.7</v>
       </c>
@@ -19155,10 +19155,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="K40" s="79"/>
     </row>
-    <row r="41" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>7.8</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C42" s="4" t="s">
         <v>494</v>
       </c>
@@ -19201,8 +19201,8 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>7.9</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>498</v>
       </c>
@@ -19242,8 +19242,8 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>500</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C48" s="4" t="s">
         <v>502</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C49" s="4" t="s">
         <v>503</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C50" s="4" t="s">
         <v>504</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C51" s="4" t="s">
         <v>505</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C52" s="4" t="s">
         <v>506</v>
       </c>
@@ -19330,8 +19330,8 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>7.11</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C55" s="4" t="s">
         <v>322</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="C56" s="4" t="s">
         <v>508</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G57" s="80" t="s">
         <v>1540</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G58" s="80" t="s">
         <v>1071</v>
       </c>
@@ -19392,11 +19392,11 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G59" s="80"/>
       <c r="K59" s="63"/>
     </row>
-    <row r="60" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
         <v>507</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>322</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>508</v>
       </c>
@@ -19420,8 +19420,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>7.12</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
         <v>510</v>
       </c>
@@ -19440,8 +19440,8 @@
         <v>511</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:12" s="4" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:12" s="4" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>7.13</v>
       </c>
@@ -19462,7 +19462,7 @@
       </c>
       <c r="L67" s="138"/>
     </row>
-    <row r="68" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C68" s="4" t="s">
         <v>343</v>
       </c>
@@ -19473,8 +19473,8 @@
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>7.14</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C71" s="4" t="s">
         <v>343</v>
       </c>
@@ -19499,8 +19499,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>7.15</v>
       </c>
@@ -19509,12 +19509,12 @@
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>7.16</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>7.16</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>7.16</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>7.16</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>7.16</v>
       </c>
@@ -19569,7 +19569,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>7.16</v>
       </c>
@@ -19580,15 +19580,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:8" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" s="4" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="C82" s="120" t="s">
         <v>523</v>
       </c>
       <c r="D82" s="28"/>
     </row>
-    <row r="83" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="27">
         <v>9.1999999999999993</v>
       </c>
@@ -19596,8 +19596,8 @@
         <v>605</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C86" s="4" t="s">
         <v>273</v>
       </c>
@@ -19611,7 +19611,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C87" s="4" t="s">
         <v>273</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
         <v>273</v>
       </c>
@@ -19639,8 +19639,8 @@
         <v>609</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>9.2100000000000009</v>
       </c>
@@ -19657,7 +19657,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
         <v>611</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
         <v>612</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
         <v>613</v>
       </c>
@@ -19699,8 +19699,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>9.2100000000000009</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
         <v>617</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="97" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
         <v>618</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="98" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="4" t="s">
         <v>619</v>
       </c>
@@ -19747,7 +19747,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="99" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
         <v>620</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="100" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
         <v>621</v>
       </c>
@@ -19769,8 +19769,8 @@
         <v>834</v>
       </c>
     </row>
-    <row r="101" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>623</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="103" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
         <v>624</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="104" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>625</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="105" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C105" s="4" t="s">
         <v>626</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="106" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C106" s="4" t="s">
         <v>627</v>
       </c>
@@ -19810,7 +19810,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="107" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C107" s="4" t="s">
         <v>628</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="108" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
         <v>629</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="109" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>630</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="110" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="4" t="s">
         <v>631</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="111" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C111" s="4" t="s">
         <v>1133</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="112" spans="3:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
         <v>632</v>
       </c>
@@ -19858,8 +19858,8 @@
         <v>834</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:12" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>9.2200000000000006</v>
       </c>
@@ -19885,7 +19885,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>940</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
         <v>917</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
         <v>918</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>922</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
         <v>919</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
         <v>638</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>921</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>924</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>926</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>933</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>934</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>935</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>937</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C128" s="5" t="s">
         <v>942</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>938</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>939</v>
       </c>
@@ -20145,8 +20145,8 @@
         <v>834</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>9.23</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
         <v>649</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C134" s="4" t="s">
         <v>650</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C135" s="4" t="s">
         <v>651</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C136" s="4" t="s">
         <v>652</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C137" s="4" t="s">
         <v>653</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4" t="s">
         <v>654</v>
       </c>
@@ -20226,8 +20226,8 @@
         <v>647</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>9.24</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C141" s="4" t="s">
         <v>655</v>
       </c>
@@ -20252,8 +20252,8 @@
         <v>647</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>13.6</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E144" s="4" t="s">
         <v>875</v>
       </c>
@@ -20275,7 +20275,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E145" s="4" t="s">
         <v>362</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E146" s="4" t="s">
         <v>356</v>
       </c>
@@ -20297,7 +20297,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>13.5</v>
       </c>
@@ -20308,185 +20308,185 @@
         <v>877</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G148" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G149" s="4" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G150" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G151" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G152" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="G153" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:11" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="161" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="162" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="163" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="164" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="165" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="166" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="167" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="168" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="169" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="170" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="171" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="172" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="173" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="174" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="175" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="176" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="177" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="178" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="179" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="180" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="181" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="182" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="183" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="184" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="185" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="186" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="187" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="188" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="189" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="190" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="191" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="192" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="193" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="194" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="195" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="196" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="197" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="198" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="199" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="200" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="201" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="202" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="203" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="204" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="205" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="206" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="207" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="208" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="209" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="210" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="211" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="212" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="213" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="214" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="215" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="216" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="217" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="218" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="219" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="220" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="221" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="222" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="223" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="224" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="225" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="226" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="227" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="228" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="229" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="230" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="231" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="232" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="233" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="234" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="235" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="236" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="237" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="238" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="239" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="240" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="241" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="242" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="243" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="244" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="245" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="246" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="247" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="248" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="249" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="250" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="251" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="252" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="253" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="254" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="255" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="256" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="257" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="258" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="259" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="260" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="261" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="262" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="263" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="264" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="265" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="266" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="267" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="268" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="269" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="270" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="271" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="272" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="273" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="274" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="275" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="276" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="277" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="278" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="279" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="280" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="281" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="282" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="283" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="284" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="285" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="286" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="287" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="288" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="289" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="290" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="291" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="292" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="293" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="294" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="295" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="296" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="297" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="298" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="299" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="300" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="301" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="302" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:11" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="161" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="162" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="163" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="164" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="165" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="166" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="167" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="168" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="169" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="170" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="171" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="172" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="173" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="174" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="175" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="176" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="177" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="178" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="179" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="180" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="181" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="182" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="183" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="184" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="185" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="186" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="187" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="188" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="189" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="190" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="191" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="192" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="193" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="194" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="195" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="196" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="197" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="198" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="199" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="200" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="201" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="202" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="203" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="204" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="205" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="206" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="207" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="208" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="209" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="210" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="211" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="212" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="213" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="214" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="215" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="216" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="217" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="218" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="219" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="220" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="221" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="222" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="223" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="224" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="225" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="226" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="227" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="228" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="229" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="230" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="231" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="232" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="233" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="234" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="235" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="236" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="237" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="238" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="239" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="240" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="241" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="242" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="243" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="244" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="245" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="246" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="247" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="248" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="249" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="250" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="251" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="252" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="253" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="254" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="255" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="256" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="257" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="258" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="259" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="260" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="261" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="262" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="263" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="264" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="265" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="266" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="267" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="268" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="269" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="270" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="271" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="272" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="273" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="274" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="275" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="276" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="277" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="278" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="279" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="280" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="281" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="282" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="283" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="284" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="285" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="286" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="287" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="288" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="289" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="290" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="291" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="292" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="293" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="294" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="295" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="296" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="297" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="298" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="299" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="300" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="301" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="302" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A3:L302"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20505,31 +20505,31 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>524</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <f>+B6+1</f>
         <v>2</v>
@@ -20591,7 +20591,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <f t="shared" ref="B8:B34" si="0">+B7+1</f>
         <v>3</v>
@@ -20612,7 +20612,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -20630,7 +20630,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G10" s="86" t="s">
         <v>1546</v>
       </c>
@@ -20641,11 +20641,11 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <f>+B9+1</f>
         <v>5</v>
@@ -20657,7 +20657,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -20678,7 +20678,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -20690,7 +20690,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -20702,7 +20702,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -20714,7 +20714,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -20726,7 +20726,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -20738,7 +20738,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -20750,7 +20750,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -20762,7 +20762,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -20774,7 +20774,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -20786,7 +20786,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -20798,7 +20798,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -20810,7 +20810,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -20822,7 +20822,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -20834,7 +20834,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -20846,7 +20846,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -20858,7 +20858,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -20870,7 +20870,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -20882,7 +20882,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -20894,7 +20894,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -20906,7 +20906,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -20918,7 +20918,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -20930,8 +20930,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8.9</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>8.9</v>
       </c>
@@ -20959,8 +20959,8 @@
         <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="27">
         <v>8.1</v>
       </c>
@@ -20974,8 +20974,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>8.11</v>
       </c>
@@ -20989,8 +20989,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>8.1199999999999992</v>
       </c>
@@ -21004,8 +21004,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>8.1300000000000008</v>
       </c>
@@ -21019,7 +21019,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>528</v>
       </c>
@@ -21030,7 +21030,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>358</v>
       </c>
@@ -21041,8 +21041,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>8.14</v>
       </c>
@@ -21056,7 +21056,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>562</v>
       </c>
@@ -21067,8 +21067,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>8.15</v>
       </c>
@@ -21079,9 +21079,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>8.23</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E56" s="4" t="s">
         <v>568</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E57" s="4" t="s">
         <v>268</v>
       </c>
@@ -21117,8 +21117,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>8.24</v>
       </c>
@@ -21126,58 +21126,58 @@
         <v>570</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C67" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C68" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>8.25</v>
       </c>
@@ -21188,7 +21188,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E72" s="4" t="s">
         <v>582</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E73" s="4" t="s">
         <v>583</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>8.26</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E75" s="4" t="s">
         <v>585</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E76" s="4" t="s">
         <v>583</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E77" s="4" t="s">
         <v>586</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E78" s="4" t="s">
         <v>585</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E79" s="4" t="s">
         <v>587</v>
       </c>
@@ -21255,8 +21255,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>8.27</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="4" t="s">
         <v>589</v>
       </c>
@@ -21281,8 +21281,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>8.2799999999999994</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>8.2899999999999991</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A86" s="27">
         <v>8.3000000000000007</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>8.31</v>
       </c>
@@ -21335,13 +21335,13 @@
         <v>567</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C89" s="38" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>8.32</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
         <v>553</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C92" s="4" t="s">
         <v>596</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C93" s="4" t="s">
         <v>597</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C94" s="4" t="s">
         <v>534</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>8.33</v>
       </c>
@@ -21392,13 +21392,13 @@
         <v>598</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E96" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>8.34</v>
       </c>
@@ -21406,12 +21406,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E99" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A100" s="27">
         <v>8.35</v>
       </c>
@@ -21419,8 +21419,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="32">
         <v>9.16</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>9.17</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>9.17</v>
       </c>
@@ -21465,13 +21465,13 @@
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A2:G111"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21483,33 +21483,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>12.2</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>12.3</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>659</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>659</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>659</v>
       </c>
@@ -21588,8 +21588,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12.4</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="29" t="s">
         <v>667</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="29" t="s">
         <v>668</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="29" t="s">
         <v>669</v>
       </c>
@@ -21636,8 +21636,8 @@
         <v>665</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>12.5</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="29" t="s">
         <v>675</v>
       </c>
@@ -21662,8 +21662,8 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>12.6</v>
       </c>
@@ -21695,7 +21695,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D21" s="4" t="s">
         <v>678</v>
       </c>
@@ -21703,7 +21703,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D22" s="4" t="s">
         <v>679</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D23" s="4" t="s">
         <v>680</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>12.7</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E25" s="4" t="s">
         <v>681</v>
       </c>
@@ -21744,7 +21744,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E26" s="4" t="s">
         <v>682</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E27" s="4" t="s">
         <v>898</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
         <v>683</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
         <v>684</v>
       </c>
@@ -21776,7 +21776,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
         <v>685</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E31" s="4" t="s">
         <v>686</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E32" s="4" t="s">
         <v>687</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E33" s="4" t="s">
         <v>688</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E34" s="4" t="s">
         <v>689</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E35" s="4" t="s">
         <v>690</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E36" s="4" t="s">
         <v>691</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="37" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
         <v>692</v>
       </c>
@@ -21840,7 +21840,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
         <v>693</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E39" s="4" t="s">
         <v>694</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="40" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E40" s="4" t="s">
         <v>695</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E41" s="4" t="s">
         <v>696</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
         <v>697</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="43" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E43" s="4" t="s">
         <v>698</v>
       </c>
@@ -21888,7 +21888,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="44" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E44" s="4" t="s">
         <v>699</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E45" s="4" t="s">
         <v>700</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="46" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E46" s="4" t="s">
         <v>701</v>
       </c>
@@ -21912,7 +21912,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="47" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E47" s="4" t="s">
         <v>702</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="48" spans="5:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E48" s="4" t="s">
         <v>703</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E49" s="4" t="s">
         <v>704</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E50" s="4" t="s">
         <v>705</v>
       </c>
@@ -21944,7 +21944,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E51" s="4" t="s">
         <v>706</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E52" s="4" t="s">
         <v>707</v>
       </c>
@@ -21960,7 +21960,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E53" s="4" t="s">
         <v>708</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="29">
         <v>12.8</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D55" s="4" t="s">
         <v>718</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D56" s="4" t="s">
         <v>709</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D57" s="4" t="s">
         <v>710</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D58" s="4" t="s">
         <v>711</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D59" s="4" t="s">
         <v>712</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D60" s="4" t="s">
         <v>713</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D61" s="4" t="s">
         <v>714</v>
       </c>
@@ -22035,7 +22035,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D62" s="4" t="s">
         <v>715</v>
       </c>
@@ -22043,7 +22043,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D63" s="4" t="s">
         <v>716</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D64" s="4" t="s">
         <v>685</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D65" s="4" t="s">
         <v>719</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D66" s="4" t="s">
         <v>916</v>
       </c>
@@ -22075,7 +22075,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D67" s="4" t="s">
         <v>720</v>
       </c>
@@ -22083,8 +22083,8 @@
         <v>608</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>723</v>
       </c>
@@ -22093,8 +22093,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>11.3</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C72" s="29" t="s">
         <v>724</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C73" s="29" t="s">
         <v>726</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C74" s="29" t="s">
         <v>728</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C75" s="29" t="s">
         <v>728</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C76" s="29" t="s">
         <v>731</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C77" s="29" t="s">
         <v>728</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C78" s="29" t="s">
         <v>728</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C79" s="29" t="s">
         <v>728</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="C80" s="29" t="s">
         <v>736</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C81" s="29" t="s">
         <v>726</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C82" s="29" t="s">
         <v>726</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C83" s="29" t="s">
         <v>726</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C84" s="29" t="s">
         <v>726</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F85" s="4" t="s">
         <v>742</v>
       </c>
@@ -22385,7 +22385,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C86" s="29" t="s">
         <v>726</v>
       </c>
@@ -22417,8 +22417,8 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A88" s="29">
         <v>11.4</v>
       </c>
@@ -22426,32 +22426,32 @@
         <v>748</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E89" s="4" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E90" s="4" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E91" s="4" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E92" s="4" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E93" s="4" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A94" s="29">
         <v>11.5</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="C95" s="4" t="s">
         <v>754</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
         <v>751</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C97" s="4" t="s">
         <v>752</v>
       </c>
@@ -22507,7 +22507,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C98" s="6" t="s">
         <v>899</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C99" s="4" t="s">
         <v>753</v>
       </c>
@@ -22529,7 +22529,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
         <v>900</v>
       </c>
@@ -22549,8 +22549,8 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
         <v>11.6</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
         <v>755</v>
       </c>
@@ -22581,8 +22581,8 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A105" s="29">
         <v>11.7</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C106" s="4" t="s">
         <v>757</v>
       </c>
@@ -22613,11 +22613,11 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A108" s="29">
         <v>11.8</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>259</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C110" s="4" t="s">
         <v>259</v>
       </c>
@@ -22665,8 +22665,8 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:11" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:11" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A112" s="29">
         <v>11.9</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C113" s="4" t="s">
         <v>373</v>
       </c>
@@ -22691,7 +22691,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C114" s="3" t="s">
         <v>495</v>
       </c>
@@ -22705,15 +22705,15 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:16" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A117" s="31">
         <v>11.1</v>
       </c>
@@ -22742,7 +22742,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C118" s="4" t="s">
         <v>764</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C119" s="4" t="s">
         <v>764</v>
       </c>
@@ -22773,7 +22773,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C120" s="4" t="s">
         <v>764</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H121" s="44" t="s">
         <v>1017</v>
       </c>
@@ -22840,7 +22840,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H122" s="44" t="s">
         <v>1085</v>
       </c>
@@ -22866,8 +22866,8 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A124" s="29">
         <v>11.11</v>
       </c>
@@ -22893,7 +22893,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="125" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A125" s="29">
         <v>11.12</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="126" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C126" s="4" t="s">
         <v>769</v>
       </c>
@@ -22924,7 +22924,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="127" spans="1:16" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C127" s="4" t="s">
         <v>769</v>
       </c>
@@ -22935,8 +22935,8 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A129" s="29">
         <v>11.13</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
         <v>773</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
         <v>773</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C132" s="32" t="s">
         <v>773</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C133" s="4" t="s">
         <v>773</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C134" s="4" t="s">
         <v>773</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="135" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C135" s="4" t="s">
         <v>773</v>
       </c>
@@ -23064,8 +23064,8 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="136" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A137" s="29">
         <v>11.14</v>
       </c>
@@ -23076,20 +23076,20 @@
         <v>780</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C138" s="4"/>
       <c r="D138" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C139" s="4"/>
       <c r="D139" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A141" s="29">
         <v>11.15</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="142" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C142" s="4" t="s">
         <v>784</v>
       </c>
@@ -23114,8 +23114,8 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="143" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:13" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" s="29" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:13" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A144" s="29">
         <v>11.16</v>
       </c>
@@ -23123,137 +23123,137 @@
         <v>785</v>
       </c>
     </row>
-    <row r="145" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D145" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="146" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D146" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="147" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D147" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="148" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D148" s="4" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="149" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D149" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="150" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D150" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="151" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D151" s="4" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="152" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D152" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="153" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D153" s="4" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="154" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D154" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="155" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D155" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D156" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="157" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D157" s="4" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="158" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D158" s="32" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="159" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D159" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="160" spans="4:4" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D160" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D161" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D162" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D163" s="4" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D164" s="32" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D165" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D166" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D167" s="4" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D168" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="29" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="29" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D169" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D170" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>11.17</v>
       </c>
@@ -23261,127 +23261,127 @@
         <v>809</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E173" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E174" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E175" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E176" s="4" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="177" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E177" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="178" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E178" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="179" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E179" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="180" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E180" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="181" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E181" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="182" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E182" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="183" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E183" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="184" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E184" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="185" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E185" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="186" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E186" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="187" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E187" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="188" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E188" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="189" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E189" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="190" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E190" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="191" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E191" s="4" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="192" spans="5:5" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E192" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E193" s="4" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E194" s="4" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E195" s="4" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="E196" s="4" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>11.18</v>
       </c>
@@ -23392,13 +23392,13 @@
         <v>833</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="203" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23413,21 +23413,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>835</v>
       </c>
@@ -23437,7 +23437,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>16.2</v>
       </c>
@@ -23475,7 +23475,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>841</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>842</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>843</v>
       </c>
@@ -23517,8 +23517,8 @@
         <v>845</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>16.399999999999999</v>
       </c>
@@ -23526,8 +23526,8 @@
         <v>846</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>16.5</v>
       </c>
@@ -23538,7 +23538,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>16.600000000000001</v>
       </c>
@@ -23546,8 +23546,8 @@
         <v>849</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16.7</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>851</v>
       </c>
@@ -23566,8 +23566,8 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>16.8</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>16.899999999999999</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>16.899999999999999</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>16.100000000000001</v>
       </c>
@@ -23608,7 +23608,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>16.11</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16.12</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>860</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>861</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>862</v>
       </c>
@@ -23651,8 +23651,8 @@
         <v>863</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>16.25</v>
       </c>
@@ -23663,7 +23663,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>865</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>482</v>
       </c>
@@ -23679,8 +23679,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>16.27</v>
       </c>
@@ -23694,7 +23694,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>868</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>869</v>
       </c>
@@ -23716,8 +23716,8 @@
         <v>871</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>13.4</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>872</v>
       </c>
@@ -23742,80 +23742,80 @@
         <v>874</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="49" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="50" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="51" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="52" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="53" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="54" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="55" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="56" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="57" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="58" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="59" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="60" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="61" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="62" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="63" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="64" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="65" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="66" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="67" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="68" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="69" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="70" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="71" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="72" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="73" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="74" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="75" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="76" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="77" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="78" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="79" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="80" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="81" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="82" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="83" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="84" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="85" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="86" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="87" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="88" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="89" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="90" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="91" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="92" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="93" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="94" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="95" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="96" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="97" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="98" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="99" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="100" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="101" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="102" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="103" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="104" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="105" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="106" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="107" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="108" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="109" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="110" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="111" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="112" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="113" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="49" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="50" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="51" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="52" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="53" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="54" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="55" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="56" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="57" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="58" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="59" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="60" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="61" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="62" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="63" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="64" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="65" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="66" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="67" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="68" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="69" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="70" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="71" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="72" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="73" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="74" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="75" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="76" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="77" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="78" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="79" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="80" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="81" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="82" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="83" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="84" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="85" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="86" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="87" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="88" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="89" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="90" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="91" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="92" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="93" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="94" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="95" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="96" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="97" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="98" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="99" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="100" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="101" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="102" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="103" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="104" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="105" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="106" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="107" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="108" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="109" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="110" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="111" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="112" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
+    <row r="113" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23829,17 +23829,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="126" t="s">
         <v>1283</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="126" t="s">
         <v>1289</v>
       </c>
@@ -23855,7 +23855,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1287</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1293</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="126" t="s">
         <v>1290</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>1291</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="126" t="s">
         <v>1331</v>
       </c>
